--- a/Accounts.xlsx
+++ b/Accounts.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sagar.arora\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gaurav Aggarwal\gitRepo\git\farma business\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AD6D386C-A7E6-4A11-AA0E-262E0D48887F}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10080" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10080"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
   <si>
     <t>Date</t>
   </si>
@@ -61,12 +60,15 @@
   </si>
   <si>
     <t>Days Kept</t>
+  </si>
+  <si>
+    <t>NO</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -413,21 +415,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.08984375" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="13.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="7" width="13.08984375" style="1"/>
-    <col min="8" max="8" width="35.81640625" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="13.08984375" style="1"/>
+    <col min="1" max="7" width="13.140625" style="1"/>
+    <col min="8" max="8" width="35.85546875" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="13.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -456,7 +458,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="29" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>43604</v>
       </c>
@@ -479,7 +481,27 @@
       </c>
       <c r="I2" s="5"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" s="2">
+        <v>43616</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="1">
+        <v>2</v>
+      </c>
+      <c r="F3" s="1">
+        <v>35</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J6" s="2"/>
     </row>
   </sheetData>

--- a/Accounts.xlsx
+++ b/Accounts.xlsx
@@ -1,21 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gaurav Aggarwal\gitRepo\git\farma business\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="20225"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10080"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14240" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Account" sheetId="1" r:id="rId1"/>
+    <sheet name="HariOm" sheetId="2" r:id="rId2"/>
+    <sheet name="TotalFarme" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="14">
   <si>
     <t>Date</t>
   </si>
@@ -63,13 +63,16 @@
   </si>
   <si>
     <t>NO</t>
+  </si>
+  <si>
+    <t>Auto</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="1" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -77,8 +80,24 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -88,6 +107,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -102,24 +127,38 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </left>
       <right style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </right>
       <top style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
+        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -136,8 +175,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="15">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -196,7 +261,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -231,7 +296,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -408,7 +473,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -418,18 +483,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I1" sqref="A1:I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="13.1640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="7" width="13.140625" style="1"/>
-    <col min="8" max="8" width="35.85546875" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="13.140625" style="1"/>
+    <col min="1" max="7" width="13.1640625" style="1"/>
+    <col min="8" max="8" width="35.83203125" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="13.1640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -458,11 +523,13 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="A2" s="4">
         <v>43604</v>
       </c>
-      <c r="B2" s="4"/>
+      <c r="B2" s="4">
+        <v>43622</v>
+      </c>
       <c r="C2" s="5" t="s">
         <v>4</v>
       </c>
@@ -475,36 +542,227 @@
       <c r="F2" s="5">
         <v>35</v>
       </c>
-      <c r="G2" s="5"/>
+      <c r="G2" s="5">
+        <f>(B2-A2)+1</f>
+        <v>19</v>
+      </c>
       <c r="H2" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="5"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
+      <c r="I2" s="5">
+        <f>35*G2</f>
+        <v>665</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="4">
         <v>43616</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="B3" s="4">
+        <v>43622</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="1">
+      <c r="E3" s="5">
         <v>2</v>
       </c>
-      <c r="F3" s="1">
+      <c r="F3" s="5">
         <v>35</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="G3" s="5">
+        <f>(B3-A3)+1</f>
+        <v>7</v>
+      </c>
+      <c r="H3" s="5" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="I3" s="5">
+        <f>35*G3</f>
+        <v>245</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
       <c r="J6" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="13.33203125" customWidth="1"/>
+    <col min="8" max="8" width="18.1640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="28">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="6" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="6" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" ht="28">
+      <c r="A2" s="7">
+        <v>43604</v>
+      </c>
+      <c r="B2" s="7">
+        <v>43622</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="8">
+        <v>1</v>
+      </c>
+      <c r="F2" s="8">
+        <v>35</v>
+      </c>
+      <c r="G2" s="8">
+        <f>(B2-A2)+1</f>
+        <v>19</v>
+      </c>
+      <c r="H2" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="8">
+        <f>35*G2</f>
+        <v>665</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="28">
+      <c r="A3" s="7">
+        <v>43616</v>
+      </c>
+      <c r="B3" s="7">
+        <v>43622</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="8">
+        <v>2</v>
+      </c>
+      <c r="F3" s="8">
+        <v>35</v>
+      </c>
+      <c r="G3" s="8">
+        <f>(B3-A3)+1</f>
+        <v>7</v>
+      </c>
+      <c r="H3" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="8">
+        <f>35*G3</f>
+        <v>245</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="7">
+        <v>43604</v>
+      </c>
+      <c r="B4" s="7">
+        <v>43622</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="8">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="I5" s="9">
+        <f>SUM(I2:I4)</f>
+        <v>1060</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetData/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
 </worksheet>
 </file>
--- a/Accounts.xlsx
+++ b/Accounts.xlsx
@@ -1,30 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="20225"/>
-  <workbookPr autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gaurav Aggarwal\gitRepo\git\farma business\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14240" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="14235" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Account" sheetId="1" r:id="rId1"/>
     <sheet name="HariOm" sheetId="2" r:id="rId2"/>
     <sheet name="TotalFarme" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="15">
   <si>
     <t>Date</t>
   </si>
@@ -66,12 +71,15 @@
   </si>
   <si>
     <t>Auto</t>
+  </si>
+  <si>
+    <t>No</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -158,7 +166,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -186,6 +194,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="15">
@@ -473,7 +485,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -487,14 +499,14 @@
       <selection activeCell="I1" sqref="A1:I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="13.1640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="13.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="7" width="13.1640625" style="1"/>
-    <col min="8" max="8" width="35.83203125" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="13.1640625" style="1"/>
+    <col min="1" max="7" width="13.140625" style="1"/>
+    <col min="8" max="8" width="35.85546875" style="1" customWidth="1"/>
+    <col min="9" max="16384" width="13.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -523,7 +535,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="4">
         <v>43604</v>
       </c>
@@ -554,7 +566,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="4">
         <v>43616</v>
       </c>
@@ -585,7 +597,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J6" s="2"/>
     </row>
   </sheetData>
@@ -601,19 +613,19 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="H6" sqref="H6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" customWidth="1"/>
-    <col min="8" max="8" width="18.1640625" customWidth="1"/>
+    <col min="1" max="1" width="13.28515625" customWidth="1"/>
+    <col min="8" max="8" width="18.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="28">
+    <row r="1" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -642,7 +654,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="28">
+    <row r="2" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="7">
         <v>43604</v>
       </c>
@@ -673,7 +685,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="28">
+    <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="7">
         <v>43616</v>
       </c>
@@ -704,7 +716,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="7">
         <v>43604</v>
       </c>
@@ -733,10 +745,30 @@
         <v>150</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I5" s="9">
         <f>SUM(I2:I4)</f>
         <v>1060</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="10">
+        <v>43638</v>
+      </c>
+      <c r="C6" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>35</v>
+      </c>
+      <c r="H6" s="11" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>
@@ -756,7 +788,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <extLst>

--- a/Accounts.xlsx
+++ b/Accounts.xlsx
@@ -1,35 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gaurav Aggarwal\gitRepo\git\farma business\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="20225"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="14235" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14240"/>
   </bookViews>
   <sheets>
     <sheet name="Account" sheetId="1" r:id="rId1"/>
     <sheet name="HariOm" sheetId="2" r:id="rId2"/>
     <sheet name="TotalFarme" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="22">
   <si>
     <t>Date</t>
   </si>
@@ -74,13 +69,34 @@
   </si>
   <si>
     <t>No</t>
+  </si>
+  <si>
+    <t>9 inch</t>
+  </si>
+  <si>
+    <t>15 inch</t>
+  </si>
+  <si>
+    <t>12 inch</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Plate </t>
+  </si>
+  <si>
+    <t>Sheet</t>
+  </si>
+  <si>
+    <t>Purchased From</t>
+  </si>
+  <si>
+    <t>July</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -104,8 +120,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -124,8 +146,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -148,8 +176,80 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="15">
+  <cellStyleXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -165,15 +265,49 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -192,15 +326,60 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="15">
+  <cellStyles count="55">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -208,6 +387,26 @@
     <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -215,6 +414,26 @@
     <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -485,7 +704,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -495,112 +714,169 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I1" sqref="A1:I3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="13.1640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="7" width="13.140625" style="1"/>
-    <col min="8" max="8" width="35.85546875" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="13.140625" style="1"/>
+    <col min="1" max="7" width="13.1640625" style="17"/>
+    <col min="8" max="8" width="35.83203125" style="17" customWidth="1"/>
+    <col min="9" max="16384" width="13.1640625" style="17"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:10">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="3" t="s">
+      <c r="C1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="3" t="s">
+      <c r="E1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="3" t="s">
+      <c r="G1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="3" t="s">
+      <c r="H1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="1" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="4">
+    <row r="2" spans="1:10">
+      <c r="A2" s="2">
         <v>43604</v>
       </c>
-      <c r="B2" s="4">
+      <c r="B2" s="2">
         <v>43622</v>
       </c>
-      <c r="C2" s="5" t="s">
+      <c r="C2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="3">
         <v>1</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="3">
         <v>35</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G2" s="3">
         <f>(B2-A2)+1</f>
         <v>19</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="5">
+      <c r="I2" s="3">
         <f>35*G2</f>
         <v>665</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A3" s="4">
+    <row r="3" spans="1:10">
+      <c r="A3" s="2">
         <v>43616</v>
       </c>
-      <c r="B3" s="4">
+      <c r="B3" s="2">
         <v>43622</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="3">
         <v>2</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="3">
         <v>35</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="3">
         <f>(B3-A3)+1</f>
         <v>7</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="5">
+      <c r="I3" s="3">
         <f>35*G3</f>
         <v>245</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="J6" s="2"/>
+    <row r="4" spans="1:10">
+      <c r="A4" s="5">
+        <v>43604</v>
+      </c>
+      <c r="B4" s="5">
+        <v>43622</v>
+      </c>
+      <c r="C4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="6">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="23"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="24">
+        <f>SUM(I2:I4)</f>
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" s="20"/>
+      <c r="C6" s="20"/>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20"/>
+      <c r="F6" s="20"/>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="18"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A6:I6"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
@@ -613,163 +889,201 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" customWidth="1"/>
-    <col min="8" max="8" width="18.140625" customWidth="1"/>
+    <col min="1" max="1" width="13.33203125" style="7" customWidth="1"/>
+    <col min="2" max="7" width="11.5" style="7"/>
+    <col min="8" max="8" width="18.1640625" style="7" customWidth="1"/>
+    <col min="9" max="16384" width="11.5" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:9" ht="28">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="6" t="s">
+      <c r="B1" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="6" t="s">
+      <c r="H1" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="6" t="s">
+      <c r="I1" s="4" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="7">
+    <row r="2" spans="1:9" ht="28">
+      <c r="A2" s="5">
         <v>43604</v>
       </c>
-      <c r="B2" s="7">
+      <c r="B2" s="5">
         <v>43622</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="8">
+      <c r="E2" s="6">
         <v>1</v>
       </c>
-      <c r="F2" s="8">
+      <c r="F2" s="6">
         <v>35</v>
       </c>
-      <c r="G2" s="8">
+      <c r="G2" s="6">
         <f>(B2-A2)+1</f>
         <v>19</v>
       </c>
-      <c r="H2" s="8" t="s">
+      <c r="H2" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="8">
+      <c r="I2" s="6">
         <f>35*G2</f>
         <v>665</v>
       </c>
     </row>
-    <row r="3" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A3" s="7">
+    <row r="3" spans="1:9">
+      <c r="A3" s="5">
         <v>43616</v>
       </c>
-      <c r="B3" s="7">
+      <c r="B3" s="5">
         <v>43622</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="8">
+      <c r="E3" s="6">
         <v>2</v>
       </c>
-      <c r="F3" s="8">
+      <c r="F3" s="6">
         <v>35</v>
       </c>
-      <c r="G3" s="8">
+      <c r="G3" s="6">
         <f>(B3-A3)+1</f>
         <v>7</v>
       </c>
-      <c r="H3" s="8" t="s">
+      <c r="H3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="8">
+      <c r="I3" s="6">
         <f>35*G3</f>
         <v>245</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="7">
+    <row r="4" spans="1:9">
+      <c r="A4" s="5">
         <v>43604</v>
       </c>
-      <c r="B4" s="7">
+      <c r="B4" s="5">
         <v>43622</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="8">
+      <c r="I4" s="6">
         <v>150</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I5" s="9">
+    <row r="5" spans="1:9">
+      <c r="A5" s="23"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="23"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="24">
         <f>SUM(I2:I4)</f>
         <v>1060</v>
       </c>
     </row>
-    <row r="6" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A6" s="10">
+    <row r="6" spans="1:9">
+      <c r="A6" s="25">
         <v>43638</v>
       </c>
-      <c r="C6" s="11" t="s">
+      <c r="B6" s="25">
+        <v>43640</v>
+      </c>
+      <c r="C6" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="22">
         <v>2</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="22">
         <v>35</v>
       </c>
-      <c r="H6" s="11" t="s">
+      <c r="G6" s="22"/>
+      <c r="H6" s="26" t="s">
         <v>14</v>
       </c>
+      <c r="I6" s="22"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="9">
+        <v>43640</v>
+      </c>
+      <c r="B7" s="8"/>
+      <c r="C7" s="10" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="10" t="s">
+        <v>3</v>
+      </c>
+      <c r="E7" s="8">
+        <v>4</v>
+      </c>
+      <c r="F7" s="8">
+        <v>35</v>
+      </c>
+      <c r="G7" s="8"/>
+      <c r="H7" s="10" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -784,13 +1098,86 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="7" width="11.5" style="7"/>
+    <col min="8" max="8" width="23.6640625" style="7" customWidth="1"/>
+    <col min="9" max="16384" width="11.5" style="7"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="C1" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D1" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F1" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="14"/>
+      <c r="B2" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D2" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="F2" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="13"/>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="15">
+        <v>43646</v>
+      </c>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:A2"/>
+    <mergeCell ref="H1:H2"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/Accounts.xlsx
+++ b/Accounts.xlsx
@@ -1,30 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="20225"/>
-  <workbookPr autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gaurav Aggarwal\Documents\FarmaBusinessAccount\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14240"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="14235" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Account" sheetId="1" r:id="rId1"/>
     <sheet name="HariOm" sheetId="2" r:id="rId2"/>
     <sheet name="TotalFarme" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="29">
   <si>
     <t>Date</t>
   </si>
@@ -90,12 +95,33 @@
   </si>
   <si>
     <t>July</t>
+  </si>
+  <si>
+    <t>9*15 farma</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>insurance amount</t>
+  </si>
+  <si>
+    <t>Farma 12"(7 plate)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Gopal medical </t>
+  </si>
+  <si>
+    <t>Farma (12"2plate)(15"4plate)</t>
+  </si>
+  <si>
+    <t>Farma(9x15)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -306,7 +332,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -317,9 +343,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -327,56 +350,94 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="55">
@@ -492,7 +553,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -527,7 +588,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -704,7 +765,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -712,20 +773,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J6"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="13.1640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="13.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="7" width="13.1640625" style="17"/>
-    <col min="8" max="8" width="35.83203125" style="17" customWidth="1"/>
-    <col min="9" max="16384" width="13.1640625" style="17"/>
+    <col min="1" max="3" width="13.140625" style="10"/>
+    <col min="4" max="4" width="21.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="13.140625" style="10"/>
+    <col min="8" max="8" width="35.85546875" style="10" customWidth="1"/>
+    <col min="9" max="16384" width="13.140625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -754,7 +817,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>43604</v>
       </c>
@@ -785,7 +848,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>43616</v>
       </c>
@@ -816,62 +879,236 @@
         <v>245</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="5">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" s="4">
         <v>43604</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="4">
         <v>43622</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="6">
+      <c r="I4" s="5">
         <v>150</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="23"/>
-      <c r="B5" s="23"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="24">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A5" s="12"/>
+      <c r="B5" s="12"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="12"/>
+      <c r="G5" s="12"/>
+      <c r="H5" s="12"/>
+      <c r="I5" s="13">
         <f>SUM(I2:I4)</f>
         <v>1060</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="19" t="s">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="20"/>
-      <c r="C6" s="20"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="21"/>
-      <c r="J6" s="18"/>
+      <c r="B6" s="33"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33"/>
+      <c r="I6" s="34"/>
+      <c r="J6" s="11"/>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" s="16">
+        <v>43667</v>
+      </c>
+      <c r="B7" s="16">
+        <v>43679</v>
+      </c>
+      <c r="C7" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7" s="15">
+        <v>2</v>
+      </c>
+      <c r="F7" s="15">
+        <v>35</v>
+      </c>
+      <c r="G7" s="15">
+        <v>12</v>
+      </c>
+      <c r="H7" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" s="15">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="16">
+        <v>43675</v>
+      </c>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="E8" s="15">
+        <v>2</v>
+      </c>
+      <c r="F8" s="15">
+        <v>40</v>
+      </c>
+      <c r="G8" s="15"/>
+      <c r="H8" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" s="15"/>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" s="16">
+        <v>43681</v>
+      </c>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E9" s="15">
+        <v>6</v>
+      </c>
+      <c r="F9" s="15">
+        <v>35</v>
+      </c>
+      <c r="G9" s="15"/>
+      <c r="H9" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="I9" s="15"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" s="15"/>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+      <c r="H10" s="15"/>
+      <c r="I10" s="15"/>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" s="15"/>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+      <c r="H11" s="15"/>
+      <c r="I11" s="15"/>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" s="15"/>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+      <c r="H12" s="15"/>
+      <c r="I12" s="15"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" s="15"/>
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+      <c r="H13" s="15"/>
+      <c r="I13" s="15"/>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" s="15"/>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+      <c r="H14" s="15"/>
+      <c r="I14" s="15"/>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" s="15"/>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+      <c r="H15" s="15"/>
+      <c r="I15" s="15"/>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" s="15"/>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+      <c r="H16" s="15"/>
+      <c r="I16" s="15"/>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="15"/>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+      <c r="H17" s="15"/>
+      <c r="I17" s="15"/>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="15"/>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+      <c r="H18" s="15"/>
+      <c r="I18" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -889,205 +1126,373 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G26" sqref="G26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" style="7" customWidth="1"/>
-    <col min="2" max="7" width="11.5" style="7"/>
-    <col min="8" max="8" width="18.1640625" style="7" customWidth="1"/>
-    <col min="9" max="16384" width="11.5" style="7"/>
+    <col min="1" max="1" width="13.28515625" style="6" customWidth="1"/>
+    <col min="2" max="3" width="11.42578125" style="6"/>
+    <col min="4" max="4" width="17.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="11.42578125" style="6"/>
+    <col min="8" max="8" width="18.140625" style="6" customWidth="1"/>
+    <col min="9" max="16384" width="11.42578125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="28">
-      <c r="A1" s="4" t="s">
+    <row r="1" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="B1" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C1" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="E1" s="17" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="17" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="H1" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="4" t="s">
+      <c r="I1" s="17" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="28">
-      <c r="A2" s="5">
+    <row r="2" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2" s="18">
         <v>43604</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="18">
         <v>43622</v>
       </c>
-      <c r="C2" s="6" t="s">
+      <c r="C2" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="6">
+      <c r="E2" s="19">
         <v>1</v>
       </c>
-      <c r="F2" s="6">
+      <c r="F2" s="19">
         <v>35</v>
       </c>
-      <c r="G2" s="6">
+      <c r="G2" s="19">
         <f>(B2-A2)+1</f>
         <v>19</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="H2" s="19" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="6">
+      <c r="I2" s="19">
         <f>35*G2</f>
         <v>665</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="5">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="18">
         <v>43616</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="18">
         <v>43622</v>
       </c>
-      <c r="C3" s="6" t="s">
+      <c r="C3" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="6">
+      <c r="E3" s="19">
         <v>2</v>
       </c>
-      <c r="F3" s="6">
+      <c r="F3" s="19">
         <v>35</v>
       </c>
-      <c r="G3" s="6">
+      <c r="G3" s="19">
         <f>(B3-A3)+1</f>
         <v>7</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="6">
-        <f>35*G3</f>
-        <v>245</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="5">
+      <c r="I3" s="19">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="18">
         <v>43604</v>
       </c>
-      <c r="B4" s="5">
+      <c r="B4" s="18">
         <v>43622</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="6" t="s">
+      <c r="D4" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="6" t="s">
+      <c r="F4" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="6" t="s">
+      <c r="H4" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="6">
+      <c r="I4" s="19">
         <v>150</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="23"/>
-      <c r="B5" s="23"/>
-      <c r="C5" s="23"/>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="24">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5" s="20"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="20"/>
+      <c r="D5" s="20"/>
+      <c r="E5" s="20"/>
+      <c r="F5" s="20"/>
+      <c r="G5" s="20"/>
+      <c r="H5" s="20"/>
+      <c r="I5" s="21">
         <f>SUM(I2:I4)</f>
-        <v>1060</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="25">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6" s="22">
         <v>43638</v>
       </c>
-      <c r="B6" s="25">
+      <c r="B6" s="22">
         <v>43640</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="26" t="s">
+      <c r="D6" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="22">
+      <c r="E6" s="24">
         <v>2</v>
       </c>
-      <c r="F6" s="22">
+      <c r="F6" s="24">
         <v>35</v>
       </c>
-      <c r="G6" s="22"/>
-      <c r="H6" s="26" t="s">
+      <c r="G6" s="24">
+        <v>2</v>
+      </c>
+      <c r="H6" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="22"/>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="9">
+      <c r="I6" s="24">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7" s="25">
         <v>43640</v>
       </c>
-      <c r="B7" s="8"/>
-      <c r="C7" s="10" t="s">
+      <c r="B7" s="25">
+        <v>43664</v>
+      </c>
+      <c r="C7" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="E7" s="8">
+      <c r="E7" s="27">
         <v>4</v>
       </c>
-      <c r="F7" s="8">
+      <c r="F7" s="27">
         <v>35</v>
       </c>
-      <c r="G7" s="8"/>
-      <c r="H7" s="10" t="s">
+      <c r="G7" s="27">
+        <v>24</v>
+      </c>
+      <c r="H7" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="I7" s="8"/>
+      <c r="I7" s="27">
+        <v>3360</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8" s="28">
+        <v>43638</v>
+      </c>
+      <c r="B8" s="28">
+        <v>43656</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>4</v>
+      </c>
+      <c r="D8" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="29">
+        <v>2</v>
+      </c>
+      <c r="F8" s="29">
+        <v>35</v>
+      </c>
+      <c r="G8" s="29">
+        <v>10</v>
+      </c>
+      <c r="H8" s="29" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" s="29">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9" s="29"/>
+      <c r="B9" s="29"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="29"/>
+      <c r="E9" s="29"/>
+      <c r="F9" s="29"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29" t="s">
+        <v>23</v>
+      </c>
+      <c r="I9" s="29">
+        <f>SUM(I5:I8)</f>
+        <v>5505</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10" s="29"/>
+      <c r="B10" s="29"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="29"/>
+      <c r="E10" s="29"/>
+      <c r="F10" s="29"/>
+      <c r="G10" s="29"/>
+      <c r="H10" s="29" t="s">
+        <v>5</v>
+      </c>
+      <c r="I10" s="29">
+        <v>-102</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11" s="29"/>
+      <c r="B11" s="29"/>
+      <c r="C11" s="29"/>
+      <c r="D11" s="29"/>
+      <c r="E11" s="29"/>
+      <c r="F11" s="29"/>
+      <c r="G11" s="29"/>
+      <c r="H11" s="29"/>
+      <c r="I11" s="29">
+        <f>SUM(I9:I10)</f>
+        <v>5403</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12" s="29"/>
+      <c r="B12" s="29"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="29"/>
+      <c r="E12" s="29"/>
+      <c r="F12" s="29"/>
+      <c r="G12" s="29"/>
+      <c r="H12" s="29" t="s">
+        <v>24</v>
+      </c>
+      <c r="I12" s="29">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13" s="29"/>
+      <c r="B13" s="29"/>
+      <c r="C13" s="29"/>
+      <c r="D13" s="29"/>
+      <c r="E13" s="29"/>
+      <c r="F13" s="29"/>
+      <c r="G13" s="29"/>
+      <c r="H13" s="29"/>
+      <c r="I13" s="29">
+        <f>SUM(I11:I12)</f>
+        <v>8403</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="30">
+        <v>43667</v>
+      </c>
+      <c r="B14" s="30">
+        <v>43679</v>
+      </c>
+      <c r="C14" s="31" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="31">
+        <v>2</v>
+      </c>
+      <c r="F14" s="31">
+        <v>35</v>
+      </c>
+      <c r="G14" s="31">
+        <v>12</v>
+      </c>
+      <c r="H14" s="31" t="s">
+        <v>12</v>
+      </c>
+      <c r="I14" s="31">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15" s="14"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14">
+        <f>SUM(I13:I14)</f>
+        <v>9243</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16" s="14"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -1100,76 +1505,76 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="7" width="11.5" style="7"/>
-    <col min="8" max="8" width="23.6640625" style="7" customWidth="1"/>
-    <col min="9" max="16384" width="11.5" style="7"/>
+    <col min="1" max="7" width="11.42578125" style="6"/>
+    <col min="8" max="8" width="23.7109375" style="6" customWidth="1"/>
+    <col min="9" max="16384" width="11.42578125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="11" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="37" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="14"/>
-      <c r="B2" s="12" t="s">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="36"/>
+      <c r="B2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="13"/>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="15">
+      <c r="H2" s="37"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="8">
         <v>43646</v>
       </c>
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
-      <c r="G3" s="16"/>
-      <c r="H3" s="16"/>
+      <c r="B3" s="9"/>
+      <c r="C3" s="9"/>
+      <c r="D3" s="9"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="9"/>
+      <c r="H3" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Accounts.xlsx
+++ b/Accounts.xlsx
@@ -1,28 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gaurav Aggarwal\Documents\FarmaBusinessAccount\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="20225"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="14235" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14240" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Account" sheetId="1" r:id="rId1"/>
     <sheet name="HariOm" sheetId="2" r:id="rId2"/>
     <sheet name="TotalFarme" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
@@ -121,7 +116,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -553,7 +548,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -588,7 +583,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -765,7 +760,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -779,16 +774,16 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="13.1640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="3" width="13.140625" style="10"/>
-    <col min="4" max="4" width="21.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="13.140625" style="10"/>
-    <col min="8" max="8" width="35.85546875" style="10" customWidth="1"/>
-    <col min="9" max="16384" width="13.140625" style="10"/>
+    <col min="1" max="3" width="13.1640625" style="10"/>
+    <col min="4" max="4" width="21.5" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="13.1640625" style="10"/>
+    <col min="8" max="8" width="35.83203125" style="10" customWidth="1"/>
+    <col min="9" max="16384" width="13.1640625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -817,7 +812,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="A2" s="2">
         <v>43604</v>
       </c>
@@ -848,7 +843,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="A3" s="2">
         <v>43616</v>
       </c>
@@ -879,7 +874,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="A4" s="4">
         <v>43604</v>
       </c>
@@ -908,7 +903,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10">
       <c r="A5" s="12"/>
       <c r="B5" s="12"/>
       <c r="C5" s="12"/>
@@ -922,7 +917,7 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10">
       <c r="A6" s="32" t="s">
         <v>21</v>
       </c>
@@ -936,7 +931,7 @@
       <c r="I6" s="34"/>
       <c r="J6" s="11"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10">
       <c r="A7" s="16">
         <v>43667</v>
       </c>
@@ -965,7 +960,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="30" customHeight="1">
       <c r="A8" s="16">
         <v>43675</v>
       </c>
@@ -988,7 +983,7 @@
       </c>
       <c r="I8" s="15"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10">
       <c r="A9" s="16">
         <v>43681</v>
       </c>
@@ -1011,7 +1006,7 @@
       </c>
       <c r="I9" s="15"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10">
       <c r="A10" s="15"/>
       <c r="B10" s="15"/>
       <c r="C10" s="15"/>
@@ -1022,7 +1017,7 @@
       <c r="H10" s="15"/>
       <c r="I10" s="15"/>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10">
       <c r="A11" s="15"/>
       <c r="B11" s="15"/>
       <c r="C11" s="15"/>
@@ -1033,7 +1028,7 @@
       <c r="H11" s="15"/>
       <c r="I11" s="15"/>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10">
       <c r="A12" s="15"/>
       <c r="B12" s="15"/>
       <c r="C12" s="15"/>
@@ -1044,7 +1039,7 @@
       <c r="H12" s="15"/>
       <c r="I12" s="15"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10">
       <c r="A13" s="15"/>
       <c r="B13" s="15"/>
       <c r="C13" s="15"/>
@@ -1055,7 +1050,7 @@
       <c r="H13" s="15"/>
       <c r="I13" s="15"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10">
       <c r="A14" s="15"/>
       <c r="B14" s="15"/>
       <c r="C14" s="15"/>
@@ -1066,7 +1061,7 @@
       <c r="H14" s="15"/>
       <c r="I14" s="15"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10">
       <c r="A15" s="15"/>
       <c r="B15" s="15"/>
       <c r="C15" s="15"/>
@@ -1077,7 +1072,7 @@
       <c r="H15" s="15"/>
       <c r="I15" s="15"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10">
       <c r="A16" s="15"/>
       <c r="B16" s="15"/>
       <c r="C16" s="15"/>
@@ -1088,7 +1083,7 @@
       <c r="H16" s="15"/>
       <c r="I16" s="15"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9">
       <c r="A17" s="15"/>
       <c r="B17" s="15"/>
       <c r="C17" s="15"/>
@@ -1099,7 +1094,7 @@
       <c r="H17" s="15"/>
       <c r="I17" s="15"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9">
       <c r="A18" s="15"/>
       <c r="B18" s="15"/>
       <c r="C18" s="15"/>
@@ -1115,7 +1110,6 @@
     <mergeCell ref="A6:I6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -1128,21 +1122,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G26" sqref="G26"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" style="6" customWidth="1"/>
-    <col min="2" max="3" width="11.42578125" style="6"/>
-    <col min="4" max="4" width="17.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="11.42578125" style="6"/>
-    <col min="8" max="8" width="18.140625" style="6" customWidth="1"/>
-    <col min="9" max="16384" width="11.42578125" style="6"/>
+    <col min="1" max="1" width="13.33203125" style="6" customWidth="1"/>
+    <col min="2" max="3" width="11.5" style="6"/>
+    <col min="4" max="4" width="17.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="11.5" style="6"/>
+    <col min="8" max="8" width="18.1640625" style="6" customWidth="1"/>
+    <col min="9" max="16384" width="11.5" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" ht="28">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
@@ -1171,7 +1165,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" ht="28">
       <c r="A2" s="18">
         <v>43604</v>
       </c>
@@ -1202,7 +1196,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="A3" s="18">
         <v>43616</v>
       </c>
@@ -1232,7 +1226,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9">
       <c r="A4" s="18">
         <v>43604</v>
       </c>
@@ -1261,7 +1255,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9">
       <c r="A5" s="20"/>
       <c r="B5" s="20"/>
       <c r="C5" s="20"/>
@@ -1275,7 +1269,7 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="A6" s="22">
         <v>43638</v>
       </c>
@@ -1304,7 +1298,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="A7" s="25">
         <v>43640</v>
       </c>
@@ -1333,7 +1327,7 @@
         <v>3360</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9">
       <c r="A8" s="28">
         <v>43638</v>
       </c>
@@ -1362,7 +1356,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9">
       <c r="A9" s="29"/>
       <c r="B9" s="29"/>
       <c r="C9" s="29"/>
@@ -1378,7 +1372,7 @@
         <v>5505</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9">
       <c r="A10" s="29"/>
       <c r="B10" s="29"/>
       <c r="C10" s="29"/>
@@ -1393,7 +1387,7 @@
         <v>-102</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9">
       <c r="A11" s="29"/>
       <c r="B11" s="29"/>
       <c r="C11" s="29"/>
@@ -1407,7 +1401,7 @@
         <v>5403</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9">
       <c r="A12" s="29"/>
       <c r="B12" s="29"/>
       <c r="C12" s="29"/>
@@ -1422,7 +1416,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9">
       <c r="A13" s="29"/>
       <c r="B13" s="29"/>
       <c r="C13" s="29"/>
@@ -1436,7 +1430,7 @@
         <v>8403</v>
       </c>
     </row>
-    <row r="14" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" s="10" customFormat="1">
       <c r="A14" s="30">
         <v>43667</v>
       </c>
@@ -1465,7 +1459,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9">
       <c r="A15" s="14"/>
       <c r="B15" s="14"/>
       <c r="C15" s="14"/>
@@ -1479,7 +1473,7 @@
         <v>9243</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9">
       <c r="A16" s="14"/>
       <c r="B16" s="14"/>
       <c r="C16" s="14"/>
@@ -1492,7 +1486,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -1505,18 +1498,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="7" width="11.42578125" style="6"/>
-    <col min="8" max="8" width="23.7109375" style="6" customWidth="1"/>
-    <col min="9" max="16384" width="11.42578125" style="6"/>
+    <col min="1" max="7" width="11.5" style="6"/>
+    <col min="8" max="8" width="23.6640625" style="6" customWidth="1"/>
+    <col min="9" max="16384" width="11.5" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8">
       <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
@@ -1542,7 +1535,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8">
       <c r="A2" s="36"/>
       <c r="B2" s="7" t="s">
         <v>18</v>
@@ -1564,7 +1557,7 @@
       </c>
       <c r="H2" s="37"/>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8">
       <c r="A3" s="8">
         <v>43646</v>
       </c>
@@ -1582,7 +1575,6 @@
     <mergeCell ref="H1:H2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/Accounts.xlsx
+++ b/Accounts.xlsx
@@ -1,23 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="20225"/>
-  <workbookPr autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gaurav Aggarwal\Documents\FarmaBusinessAccount\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14240" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="14235" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Account" sheetId="1" r:id="rId1"/>
     <sheet name="HariOm" sheetId="2" r:id="rId2"/>
     <sheet name="TotalFarme" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -86,9 +91,6 @@
     <t>Sheet</t>
   </si>
   <si>
-    <t>Purchased From</t>
-  </si>
-  <si>
     <t>July</t>
   </si>
   <si>
@@ -111,12 +113,15 @@
   </si>
   <si>
     <t>Farma(9x15)</t>
+  </si>
+  <si>
+    <t>Total Purchased value</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -145,6 +150,7 @@
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -760,7 +766,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -774,16 +780,16 @@
       <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="13.1640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="13.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="13.1640625" style="10"/>
-    <col min="4" max="4" width="21.5" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="13.1640625" style="10"/>
-    <col min="8" max="8" width="35.83203125" style="10" customWidth="1"/>
-    <col min="9" max="16384" width="13.1640625" style="10"/>
+    <col min="1" max="3" width="13.140625" style="10"/>
+    <col min="4" max="4" width="21.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="13.140625" style="10"/>
+    <col min="8" max="8" width="35.85546875" style="10" customWidth="1"/>
+    <col min="9" max="16384" width="13.140625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -812,7 +818,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>43604</v>
       </c>
@@ -843,7 +849,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>43616</v>
       </c>
@@ -874,7 +880,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>43604</v>
       </c>
@@ -903,7 +909,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="12"/>
       <c r="B5" s="12"/>
       <c r="C5" s="12"/>
@@ -917,9 +923,9 @@
         <v>1060</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="32" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" s="33"/>
       <c r="C6" s="33"/>
@@ -931,7 +937,7 @@
       <c r="I6" s="34"/>
       <c r="J6" s="11"/>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="16">
         <v>43667</v>
       </c>
@@ -942,7 +948,7 @@
         <v>4</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E7" s="15">
         <v>2</v>
@@ -960,16 +966,16 @@
         <v>840</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="30" customHeight="1">
+    <row r="8" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="16">
         <v>43675</v>
       </c>
       <c r="B8" s="15"/>
       <c r="C8" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="15" t="s">
         <v>26</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>27</v>
       </c>
       <c r="E8" s="15">
         <v>2</v>
@@ -983,7 +989,7 @@
       </c>
       <c r="I8" s="15"/>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="16">
         <v>43681</v>
       </c>
@@ -992,7 +998,7 @@
         <v>4</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E9" s="15">
         <v>6</v>
@@ -1006,7 +1012,7 @@
       </c>
       <c r="I9" s="15"/>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="15"/>
       <c r="B10" s="15"/>
       <c r="C10" s="15"/>
@@ -1017,7 +1023,7 @@
       <c r="H10" s="15"/>
       <c r="I10" s="15"/>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="15"/>
       <c r="B11" s="15"/>
       <c r="C11" s="15"/>
@@ -1028,7 +1034,7 @@
       <c r="H11" s="15"/>
       <c r="I11" s="15"/>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="15"/>
       <c r="B12" s="15"/>
       <c r="C12" s="15"/>
@@ -1039,7 +1045,7 @@
       <c r="H12" s="15"/>
       <c r="I12" s="15"/>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="15"/>
       <c r="B13" s="15"/>
       <c r="C13" s="15"/>
@@ -1050,7 +1056,7 @@
       <c r="H13" s="15"/>
       <c r="I13" s="15"/>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="15"/>
       <c r="B14" s="15"/>
       <c r="C14" s="15"/>
@@ -1061,7 +1067,7 @@
       <c r="H14" s="15"/>
       <c r="I14" s="15"/>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="15"/>
       <c r="B15" s="15"/>
       <c r="C15" s="15"/>
@@ -1072,7 +1078,7 @@
       <c r="H15" s="15"/>
       <c r="I15" s="15"/>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="15"/>
       <c r="B16" s="15"/>
       <c r="C16" s="15"/>
@@ -1083,7 +1089,7 @@
       <c r="H16" s="15"/>
       <c r="I16" s="15"/>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="15"/>
       <c r="B17" s="15"/>
       <c r="C17" s="15"/>
@@ -1094,7 +1100,7 @@
       <c r="H17" s="15"/>
       <c r="I17" s="15"/>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="15"/>
       <c r="B18" s="15"/>
       <c r="C18" s="15"/>
@@ -1122,21 +1128,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" style="6" customWidth="1"/>
-    <col min="2" max="3" width="11.5" style="6"/>
-    <col min="4" max="4" width="17.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="11.5" style="6"/>
-    <col min="8" max="8" width="18.1640625" style="6" customWidth="1"/>
-    <col min="9" max="16384" width="11.5" style="6"/>
+    <col min="1" max="1" width="13.28515625" style="6" customWidth="1"/>
+    <col min="2" max="3" width="11.42578125" style="6"/>
+    <col min="4" max="4" width="17.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="11.42578125" style="6"/>
+    <col min="8" max="8" width="18.140625" style="6" customWidth="1"/>
+    <col min="9" max="16384" width="11.42578125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="28">
+    <row r="1" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="17" t="s">
         <v>0</v>
       </c>
@@ -1165,7 +1171,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="28">
+    <row r="2" spans="1:9" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="18">
         <v>43604</v>
       </c>
@@ -1196,7 +1202,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="18">
         <v>43616</v>
       </c>
@@ -1226,7 +1232,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="18">
         <v>43604</v>
       </c>
@@ -1255,7 +1261,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="20"/>
       <c r="B5" s="20"/>
       <c r="C5" s="20"/>
@@ -1269,7 +1275,7 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="22">
         <v>43638</v>
       </c>
@@ -1298,7 +1304,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" s="25">
         <v>43640</v>
       </c>
@@ -1327,7 +1333,7 @@
         <v>3360</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" s="28">
         <v>43638</v>
       </c>
@@ -1338,7 +1344,7 @@
         <v>4</v>
       </c>
       <c r="D8" s="29" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E8" s="29">
         <v>2</v>
@@ -1356,7 +1362,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" s="29"/>
       <c r="B9" s="29"/>
       <c r="C9" s="29"/>
@@ -1365,14 +1371,14 @@
       <c r="F9" s="29"/>
       <c r="G9" s="29"/>
       <c r="H9" s="29" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="I9" s="29">
         <f>SUM(I5:I8)</f>
         <v>5505</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" s="29"/>
       <c r="B10" s="29"/>
       <c r="C10" s="29"/>
@@ -1387,7 +1393,7 @@
         <v>-102</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" s="29"/>
       <c r="B11" s="29"/>
       <c r="C11" s="29"/>
@@ -1401,7 +1407,7 @@
         <v>5403</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" s="29"/>
       <c r="B12" s="29"/>
       <c r="C12" s="29"/>
@@ -1410,13 +1416,13 @@
       <c r="F12" s="29"/>
       <c r="G12" s="29"/>
       <c r="H12" s="29" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="I12" s="29">
         <v>3000</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" s="29"/>
       <c r="B13" s="29"/>
       <c r="C13" s="29"/>
@@ -1430,7 +1436,7 @@
         <v>8403</v>
       </c>
     </row>
-    <row r="14" spans="1:9" s="10" customFormat="1">
+    <row r="14" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="30">
         <v>43667</v>
       </c>
@@ -1441,7 +1447,7 @@
         <v>4</v>
       </c>
       <c r="D14" s="31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E14" s="31">
         <v>2</v>
@@ -1459,7 +1465,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" s="14"/>
       <c r="B15" s="14"/>
       <c r="C15" s="14"/>
@@ -1473,7 +1479,7 @@
         <v>9243</v>
       </c>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" s="14"/>
       <c r="B16" s="14"/>
       <c r="C16" s="14"/>
@@ -1498,18 +1504,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="7" width="11.5" style="6"/>
-    <col min="8" max="8" width="23.6640625" style="6" customWidth="1"/>
-    <col min="9" max="16384" width="11.5" style="6"/>
+    <col min="1" max="7" width="11.42578125" style="6"/>
+    <col min="8" max="8" width="23.7109375" style="6" customWidth="1"/>
+    <col min="9" max="16384" width="11.42578125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" s="35" t="s">
         <v>0</v>
       </c>
@@ -1532,10 +1538,10 @@
         <v>16</v>
       </c>
       <c r="H1" s="37" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="36"/>
       <c r="B2" s="7" t="s">
         <v>18</v>
@@ -1557,17 +1563,25 @@
       </c>
       <c r="H2" s="37"/>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>43646</v>
       </c>
-      <c r="B3" s="9"/>
+      <c r="B3" s="9">
+        <v>12</v>
+      </c>
       <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
+      <c r="D3" s="9">
+        <v>10</v>
+      </c>
       <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
+      <c r="F3" s="9">
+        <v>16</v>
+      </c>
       <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
+      <c r="H3" s="9">
+        <v>77100</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Accounts.xlsx
+++ b/Accounts.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="14235" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="14235" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Account" sheetId="1" r:id="rId1"/>
@@ -554,7 +554,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -589,7 +589,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1128,8 +1128,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I16"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="H9" sqref="H9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1353,13 +1353,13 @@
         <v>35</v>
       </c>
       <c r="G8" s="29">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="H8" s="29" t="s">
         <v>14</v>
       </c>
       <c r="I8" s="29">
-        <v>700</v>
+        <v>1260</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -1375,7 +1375,7 @@
       </c>
       <c r="I9" s="29">
         <f>SUM(I5:I8)</f>
-        <v>5505</v>
+        <v>6065</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -1404,7 +1404,7 @@
       <c r="H11" s="29"/>
       <c r="I11" s="29">
         <f>SUM(I9:I10)</f>
-        <v>5403</v>
+        <v>5963</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -1433,7 +1433,7 @@
       <c r="H13" s="29"/>
       <c r="I13" s="29">
         <f>SUM(I11:I12)</f>
-        <v>8403</v>
+        <v>8963</v>
       </c>
     </row>
     <row r="14" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
@@ -1476,7 +1476,7 @@
       <c r="H15" s="14"/>
       <c r="I15" s="14">
         <f>SUM(I13:I14)</f>
-        <v>9243</v>
+        <v>9803</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -1504,8 +1504,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I1" sqref="I1:L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Accounts.xlsx
+++ b/Accounts.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="29">
   <si>
     <t>Date</t>
   </si>
@@ -122,7 +122,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -149,6 +149,12 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -333,7 +339,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -440,6 +446,8 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="55">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -777,7 +785,7 @@
   <dimension ref="A1:J18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -876,8 +884,7 @@
         <v>12</v>
       </c>
       <c r="I3" s="3">
-        <f>35*G3</f>
-        <v>245</v>
+        <v>490</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
@@ -920,7 +927,7 @@
       <c r="H5" s="12"/>
       <c r="I5" s="13">
         <f>SUM(I2:I4)</f>
-        <v>1060</v>
+        <v>1305</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
@@ -993,7 +1000,9 @@
       <c r="A9" s="16">
         <v>43681</v>
       </c>
-      <c r="B9" s="15"/>
+      <c r="B9" s="16">
+        <v>43688</v>
+      </c>
       <c r="C9" s="15" t="s">
         <v>4</v>
       </c>
@@ -1006,11 +1015,15 @@
       <c r="F9" s="15">
         <v>35</v>
       </c>
-      <c r="G9" s="15"/>
+      <c r="G9" s="15">
+        <v>8</v>
+      </c>
       <c r="H9" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="I9" s="15"/>
+      <c r="I9" s="15">
+        <v>1680</v>
+      </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="15"/>
@@ -1126,10 +1139,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I20"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="H25" sqref="H25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1479,19 +1492,85 @@
         <v>9803</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="14"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
+    <row r="16" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="16">
+        <v>43681</v>
+      </c>
+      <c r="B16" s="16">
+        <v>43688</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>27</v>
+      </c>
+      <c r="E16" s="15">
+        <v>6</v>
+      </c>
+      <c r="F16" s="15">
+        <v>35</v>
+      </c>
+      <c r="G16" s="15">
+        <v>8</v>
+      </c>
+      <c r="H16" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="I16" s="15">
+        <v>1680</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" s="38"/>
+      <c r="B17" s="38"/>
+      <c r="C17" s="38"/>
+      <c r="D17" s="38"/>
+      <c r="E17" s="38"/>
+      <c r="F17" s="38"/>
+      <c r="G17" s="38"/>
+      <c r="H17" s="38"/>
+      <c r="I17" s="39">
+        <f>SUM(I15:I16)</f>
+        <v>11483</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" s="38"/>
+      <c r="B18" s="38"/>
+      <c r="C18" s="38"/>
+      <c r="D18" s="38"/>
+      <c r="E18" s="38"/>
+      <c r="F18" s="38"/>
+      <c r="G18" s="38"/>
+      <c r="H18" s="38"/>
+      <c r="I18" s="38"/>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" s="38"/>
+      <c r="B19" s="38"/>
+      <c r="C19" s="38"/>
+      <c r="D19" s="38"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="38"/>
+      <c r="G19" s="38"/>
+      <c r="H19" s="38"/>
+      <c r="I19" s="38"/>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" s="38"/>
+      <c r="B20" s="38"/>
+      <c r="C20" s="38"/>
+      <c r="D20" s="38"/>
+      <c r="E20" s="38"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="38"/>
+      <c r="H20" s="38"/>
+      <c r="I20" s="38"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/Accounts.xlsx
+++ b/Accounts.xlsx
@@ -1,35 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gaurav Aggarwal\Documents\FarmaBusinessAccount\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="20225"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="14235" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14240"/>
   </bookViews>
   <sheets>
     <sheet name="Account" sheetId="1" r:id="rId1"/>
     <sheet name="HariOm" sheetId="2" r:id="rId2"/>
     <sheet name="TotalFarme" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="33">
   <si>
     <t>Date</t>
   </si>
@@ -97,9 +92,6 @@
     <t>9*15 farma</t>
   </si>
   <si>
-    <t>Total</t>
-  </si>
-  <si>
     <t>insurance amount</t>
   </si>
   <si>
@@ -116,13 +108,28 @@
   </si>
   <si>
     <t>Total Purchased value</t>
+  </si>
+  <si>
+    <t>Balance</t>
+  </si>
+  <si>
+    <t>Debit/Credit</t>
+  </si>
+  <si>
+    <t>Credit</t>
+  </si>
+  <si>
+    <t>Debit</t>
+  </si>
+  <si>
+    <t>Adjusted for Makaan</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -149,12 +156,6 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -282,7 +283,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="55">
+  <cellStyleXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -338,8 +339,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -376,7 +389,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -392,12 +404,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -428,6 +434,7 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -446,10 +453,23 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="55">
+  <cellStyles count="67">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -477,6 +497,12 @@
     <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -504,6 +530,12 @@
     <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -562,7 +594,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -597,7 +629,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -774,7 +806,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -784,20 +816,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I9" sqref="A2:I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="13.1640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="3" width="13.140625" style="10"/>
-    <col min="4" max="4" width="21.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="13.140625" style="10"/>
-    <col min="8" max="8" width="35.85546875" style="10" customWidth="1"/>
-    <col min="9" max="16384" width="13.140625" style="10"/>
+    <col min="1" max="3" width="13.1640625" style="10"/>
+    <col min="4" max="4" width="21.5" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="13.1640625" style="10"/>
+    <col min="8" max="8" width="35.83203125" style="10" customWidth="1"/>
+    <col min="9" max="16384" width="13.1640625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -826,7 +858,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="A2" s="2">
         <v>43604</v>
       </c>
@@ -857,7 +889,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="A3" s="2">
         <v>43616</v>
       </c>
@@ -887,7 +919,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="A4" s="4">
         <v>43604</v>
       </c>
@@ -916,7 +948,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10">
       <c r="A5" s="12"/>
       <c r="B5" s="12"/>
       <c r="C5" s="12"/>
@@ -930,199 +962,199 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="32" t="s">
+    <row r="6" spans="1:10">
+      <c r="A6" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="33"/>
-      <c r="C6" s="33"/>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="33"/>
-      <c r="G6" s="33"/>
-      <c r="H6" s="33"/>
-      <c r="I6" s="34"/>
+      <c r="B6" s="31"/>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="E6" s="31"/>
+      <c r="F6" s="31"/>
+      <c r="G6" s="31"/>
+      <c r="H6" s="31"/>
+      <c r="I6" s="32"/>
       <c r="J6" s="11"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="16">
+    <row r="7" spans="1:10">
+      <c r="A7" s="15">
         <v>43667</v>
       </c>
-      <c r="B7" s="16">
+      <c r="B7" s="15">
         <v>43679</v>
       </c>
-      <c r="C7" s="15" t="s">
+      <c r="C7" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="15" t="s">
+      <c r="D7" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="E7" s="14">
+        <v>2</v>
+      </c>
+      <c r="F7" s="14">
+        <v>35</v>
+      </c>
+      <c r="G7" s="14">
+        <v>12</v>
+      </c>
+      <c r="H7" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" s="14">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="30" customHeight="1">
+      <c r="A8" s="15">
+        <v>43675</v>
+      </c>
+      <c r="B8" s="14"/>
+      <c r="C8" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="E7" s="15">
+      <c r="D8" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8" s="14">
         <v>2</v>
       </c>
-      <c r="F7" s="15">
+      <c r="F8" s="14">
+        <v>40</v>
+      </c>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" s="14"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="15">
+        <v>43681</v>
+      </c>
+      <c r="B9" s="15">
+        <v>43688</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>26</v>
+      </c>
+      <c r="E9" s="14">
+        <v>6</v>
+      </c>
+      <c r="F9" s="14">
         <v>35</v>
       </c>
-      <c r="G7" s="15">
+      <c r="G9" s="14">
+        <v>8</v>
+      </c>
+      <c r="H9" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="I7" s="15">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="16">
-        <v>43675</v>
-      </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="E8" s="15">
-        <v>2</v>
-      </c>
-      <c r="F8" s="15">
-        <v>40</v>
-      </c>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15" t="s">
-        <v>14</v>
-      </c>
-      <c r="I8" s="15"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="16">
-        <v>43681</v>
-      </c>
-      <c r="B9" s="16">
-        <v>43688</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="E9" s="15">
-        <v>6</v>
-      </c>
-      <c r="F9" s="15">
-        <v>35</v>
-      </c>
-      <c r="G9" s="15">
-        <v>8</v>
-      </c>
-      <c r="H9" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="I9" s="15">
+      <c r="I9" s="14">
         <v>1680</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="15"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="15"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="15"/>
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="15"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="15"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15"/>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="15"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15"/>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="15"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15"/>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="15"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15"/>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="15"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
+    <row r="10" spans="1:10">
+      <c r="A10" s="14"/>
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="14"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="14"/>
+      <c r="B11" s="14"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="14"/>
+      <c r="E11" s="14"/>
+      <c r="F11" s="14"/>
+      <c r="G11" s="14"/>
+      <c r="H11" s="14"/>
+      <c r="I11" s="14"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="14"/>
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="14"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="14"/>
+      <c r="B13" s="14"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="14"/>
+      <c r="E13" s="14"/>
+      <c r="F13" s="14"/>
+      <c r="G13" s="14"/>
+      <c r="H13" s="14"/>
+      <c r="I13" s="14"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="14"/>
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="14"/>
+      <c r="E14" s="14"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="14"/>
+      <c r="B15" s="14"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="14"/>
+      <c r="E15" s="14"/>
+      <c r="F15" s="14"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="14"/>
+      <c r="I15" s="14"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="14"/>
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="14"/>
+      <c r="E16" s="14"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="14"/>
+      <c r="B17" s="14"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="14"/>
+      <c r="B18" s="14"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="14"/>
+      <c r="E18" s="14"/>
+      <c r="F18" s="14"/>
+      <c r="G18" s="14"/>
+      <c r="H18" s="14"/>
+      <c r="I18" s="14"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1139,161 +1171,211 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I20"/>
+  <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" workbookViewId="0">
-      <selection activeCell="H25" sqref="H25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" style="6" customWidth="1"/>
-    <col min="2" max="3" width="11.42578125" style="6"/>
-    <col min="4" max="4" width="17.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="11.42578125" style="6"/>
-    <col min="8" max="8" width="18.140625" style="6" customWidth="1"/>
-    <col min="9" max="16384" width="11.42578125" style="6"/>
+    <col min="1" max="1" width="13.33203125" style="6" customWidth="1"/>
+    <col min="2" max="3" width="11.5" style="6"/>
+    <col min="4" max="4" width="17.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="11.5" style="6"/>
+    <col min="8" max="8" width="18.1640625" style="6" customWidth="1"/>
+    <col min="9" max="16384" width="11.5" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="17" t="s">
+    <row r="1" spans="1:11" ht="28">
+      <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="17" t="s">
+      <c r="B1" s="16" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="16" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="H1" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="I1" s="16" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="18">
+      <c r="J1" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1" s="16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="28">
+      <c r="A2" s="17">
         <v>43604</v>
       </c>
-      <c r="B2" s="18">
+      <c r="B2" s="17">
         <v>43622</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="19" t="s">
+      <c r="D2" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="19">
+      <c r="E2" s="18">
         <v>1</v>
       </c>
-      <c r="F2" s="19">
+      <c r="F2" s="18">
         <v>35</v>
       </c>
-      <c r="G2" s="19">
+      <c r="G2" s="18">
         <f>(B2-A2)+1</f>
         <v>19</v>
       </c>
-      <c r="H2" s="19" t="s">
+      <c r="H2" s="18" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="19">
+      <c r="I2" s="18">
         <f>35*G2</f>
         <v>665</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="18">
+      <c r="J2" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" s="24">
+        <f>I2</f>
+        <v>665</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="17">
         <v>43616</v>
       </c>
-      <c r="B3" s="18">
+      <c r="B3" s="17">
         <v>43622</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="D3" s="18" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="19">
+      <c r="E3" s="18">
         <v>2</v>
       </c>
-      <c r="F3" s="19">
+      <c r="F3" s="18">
         <v>35</v>
       </c>
-      <c r="G3" s="19">
+      <c r="G3" s="18">
         <f>(B3-A3)+1</f>
         <v>7</v>
       </c>
-      <c r="H3" s="19" t="s">
+      <c r="H3" s="18" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="19">
+      <c r="I3" s="18">
         <v>490</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="18">
+      <c r="J3" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="K3" s="18">
+        <f>K2+I3</f>
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="17">
         <v>43604</v>
       </c>
-      <c r="B4" s="18">
+      <c r="B4" s="17">
         <v>43622</v>
       </c>
-      <c r="C4" s="19" t="s">
+      <c r="C4" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="19" t="s">
+      <c r="D4" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="19" t="s">
+      <c r="E4" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="19" t="s">
+      <c r="F4" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="19" t="s">
+      <c r="G4" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="19" t="s">
+      <c r="H4" s="18" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="19">
+      <c r="I4" s="18">
         <v>150</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="20"/>
-      <c r="B5" s="20"/>
-      <c r="C5" s="20"/>
-      <c r="D5" s="20"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="20"/>
+      <c r="J4" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="K4" s="18">
+        <f t="shared" ref="K4:K12" si="0">K3+I4</f>
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="19">
+        <v>43638</v>
+      </c>
+      <c r="B5" s="19">
+        <v>43640</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="21">
+        <v>2</v>
+      </c>
+      <c r="F5" s="21">
+        <v>35</v>
+      </c>
+      <c r="G5" s="21">
+        <v>2</v>
+      </c>
+      <c r="H5" s="20" t="s">
+        <v>14</v>
+      </c>
       <c r="I5" s="21">
-        <f>SUM(I2:I4)</f>
-        <v>1305</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+        <f>G5*F5*E5</f>
+        <v>140</v>
+      </c>
+      <c r="J5" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="K5" s="18">
+        <f t="shared" si="0"/>
+        <v>1445</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
       <c r="A6" s="22">
-        <v>43638</v>
+        <v>43640</v>
       </c>
       <c r="B6" s="22">
-        <v>43640</v>
+        <v>43664</v>
       </c>
       <c r="C6" s="23" t="s">
         <v>4</v>
@@ -1302,140 +1384,207 @@
         <v>3</v>
       </c>
       <c r="E6" s="24">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F6" s="24">
         <v>35</v>
       </c>
       <c r="G6" s="24">
-        <v>2</v>
+        <v>24</v>
       </c>
       <c r="H6" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="24">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I6" s="21">
+        <f t="shared" ref="I6:I7" si="1">G6*F6*E6</f>
+        <v>3360</v>
+      </c>
+      <c r="J6" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="K6" s="18">
+        <f t="shared" si="0"/>
+        <v>4805</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
       <c r="A7" s="25">
-        <v>43640</v>
+        <v>43638</v>
       </c>
       <c r="B7" s="25">
-        <v>43664</v>
+        <v>43656</v>
       </c>
       <c r="C7" s="26" t="s">
         <v>4</v>
       </c>
       <c r="D7" s="26" t="s">
-        <v>3</v>
-      </c>
-      <c r="E7" s="27">
-        <v>4</v>
-      </c>
-      <c r="F7" s="27">
+        <v>21</v>
+      </c>
+      <c r="E7" s="26">
+        <v>2</v>
+      </c>
+      <c r="F7" s="26">
         <v>35</v>
       </c>
-      <c r="G7" s="27">
-        <v>24</v>
+      <c r="G7" s="26">
+        <v>18</v>
       </c>
       <c r="H7" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="I7" s="27">
-        <v>3360</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="28">
-        <v>43638</v>
-      </c>
-      <c r="B8" s="28">
-        <v>43656</v>
-      </c>
-      <c r="C8" s="29" t="s">
+      <c r="I7" s="21">
+        <f t="shared" si="1"/>
+        <v>1260</v>
+      </c>
+      <c r="J7" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="K7" s="18">
+        <f t="shared" si="0"/>
+        <v>6065</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="26"/>
+      <c r="B8" s="26"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26" t="s">
+        <v>5</v>
+      </c>
+      <c r="I8" s="26">
+        <v>-102</v>
+      </c>
+      <c r="J8" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="K8" s="18">
+        <f t="shared" si="0"/>
+        <v>5963</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="26"/>
+      <c r="B9" s="26"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="I9" s="26">
+        <v>3000</v>
+      </c>
+      <c r="J9" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="K9" s="18">
+        <f t="shared" si="0"/>
+        <v>8963</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" s="10" customFormat="1">
+      <c r="A10" s="27">
+        <v>43667</v>
+      </c>
+      <c r="B10" s="27">
+        <v>43679</v>
+      </c>
+      <c r="C10" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="D8" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" s="29">
+      <c r="D10" s="28" t="s">
+        <v>23</v>
+      </c>
+      <c r="E10" s="28">
         <v>2</v>
       </c>
-      <c r="F8" s="29">
+      <c r="F10" s="28">
         <v>35</v>
       </c>
-      <c r="G8" s="29">
-        <v>18</v>
-      </c>
-      <c r="H8" s="29" t="s">
-        <v>14</v>
-      </c>
-      <c r="I8" s="29">
-        <v>1260</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="29"/>
-      <c r="B9" s="29"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29"/>
-      <c r="F9" s="29"/>
-      <c r="G9" s="29"/>
-      <c r="H9" s="29" t="s">
-        <v>22</v>
-      </c>
-      <c r="I9" s="29">
-        <f>SUM(I5:I8)</f>
-        <v>6065</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="29"/>
-      <c r="B10" s="29"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="29"/>
-      <c r="F10" s="29"/>
-      <c r="G10" s="29"/>
-      <c r="H10" s="29" t="s">
-        <v>5</v>
-      </c>
-      <c r="I10" s="29">
-        <v>-102</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="29"/>
-      <c r="B11" s="29"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="29"/>
-      <c r="E11" s="29"/>
-      <c r="F11" s="29"/>
-      <c r="G11" s="29"/>
-      <c r="H11" s="29"/>
-      <c r="I11" s="29">
-        <f>SUM(I9:I10)</f>
-        <v>5963</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="29"/>
-      <c r="B12" s="29"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="29"/>
-      <c r="E12" s="29"/>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29"/>
-      <c r="H12" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="I12" s="29">
-        <v>3000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="G10" s="28">
+        <v>12</v>
+      </c>
+      <c r="H10" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="I10" s="28">
+        <v>840</v>
+      </c>
+      <c r="J10" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="K10" s="18">
+        <f t="shared" si="0"/>
+        <v>9803</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" s="36" customFormat="1">
+      <c r="A11" s="27">
+        <v>43681</v>
+      </c>
+      <c r="B11" s="27">
+        <v>43688</v>
+      </c>
+      <c r="C11" s="28" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="28" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11" s="28">
+        <v>1</v>
+      </c>
+      <c r="F11" s="28">
+        <v>35</v>
+      </c>
+      <c r="G11" s="28">
+        <v>20</v>
+      </c>
+      <c r="H11" s="28" t="s">
+        <v>12</v>
+      </c>
+      <c r="I11" s="28">
+        <v>700</v>
+      </c>
+      <c r="J11" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="K11" s="18">
+        <f t="shared" si="0"/>
+        <v>10503</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" s="40" customFormat="1">
+      <c r="A12" s="37">
+        <v>43689</v>
+      </c>
+      <c r="B12" s="38"/>
+      <c r="C12" s="39"/>
+      <c r="D12" s="39"/>
+      <c r="E12" s="39"/>
+      <c r="F12" s="39"/>
+      <c r="G12" s="39"/>
+      <c r="H12" t="s">
+        <v>32</v>
+      </c>
+      <c r="I12" s="28">
+        <v>-10500</v>
+      </c>
+      <c r="J12" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="K12" s="18">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
       <c r="A13" s="29"/>
       <c r="B13" s="29"/>
       <c r="C13" s="29"/>
@@ -1444,133 +1593,26 @@
       <c r="F13" s="29"/>
       <c r="G13" s="29"/>
       <c r="H13" s="29"/>
-      <c r="I13" s="29">
-        <f>SUM(I11:I12)</f>
-        <v>8963</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="30">
-        <v>43667</v>
-      </c>
-      <c r="B14" s="30">
-        <v>43679</v>
-      </c>
-      <c r="C14" s="31" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14" s="31" t="s">
-        <v>24</v>
-      </c>
-      <c r="E14" s="31">
-        <v>2</v>
-      </c>
-      <c r="F14" s="31">
-        <v>35</v>
-      </c>
-      <c r="G14" s="31">
-        <v>12</v>
-      </c>
-      <c r="H14" s="31" t="s">
-        <v>12</v>
-      </c>
-      <c r="I14" s="31">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="14"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14">
-        <f>SUM(I13:I14)</f>
-        <v>9803</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="16">
-        <v>43681</v>
-      </c>
-      <c r="B16" s="16">
-        <v>43688</v>
-      </c>
-      <c r="C16" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="D16" s="15" t="s">
-        <v>27</v>
-      </c>
-      <c r="E16" s="15">
-        <v>6</v>
-      </c>
-      <c r="F16" s="15">
-        <v>35</v>
-      </c>
-      <c r="G16" s="15">
-        <v>8</v>
-      </c>
-      <c r="H16" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="I16" s="15">
-        <v>1680</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="38"/>
-      <c r="B17" s="38"/>
-      <c r="C17" s="38"/>
-      <c r="D17" s="38"/>
-      <c r="E17" s="38"/>
-      <c r="F17" s="38"/>
-      <c r="G17" s="38"/>
-      <c r="H17" s="38"/>
-      <c r="I17" s="39">
-        <f>SUM(I15:I16)</f>
-        <v>11483</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="38"/>
-      <c r="B18" s="38"/>
-      <c r="C18" s="38"/>
-      <c r="D18" s="38"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38"/>
-      <c r="H18" s="38"/>
-      <c r="I18" s="38"/>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="38"/>
-      <c r="B19" s="38"/>
-      <c r="C19" s="38"/>
-      <c r="D19" s="38"/>
-      <c r="E19" s="38"/>
-      <c r="F19" s="38"/>
-      <c r="G19" s="38"/>
-      <c r="H19" s="38"/>
-      <c r="I19" s="38"/>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A20" s="38"/>
-      <c r="B20" s="38"/>
-      <c r="C20" s="38"/>
-      <c r="D20" s="38"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="38"/>
-      <c r="H20" s="38"/>
-      <c r="I20" s="38"/>
+      <c r="I13" s="29"/>
+      <c r="J13" s="29"/>
+      <c r="K13" s="29"/>
+    </row>
+    <row r="14" spans="1:11">
+      <c r="A14" s="29"/>
+      <c r="B14" s="29"/>
+      <c r="C14" s="29"/>
+      <c r="D14" s="29"/>
+      <c r="E14" s="29"/>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
+      <c r="H14" s="29"/>
+      <c r="I14" s="29"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="29"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -1584,18 +1626,18 @@
   <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:L3"/>
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="7" width="11.42578125" style="6"/>
-    <col min="8" max="8" width="23.7109375" style="6" customWidth="1"/>
-    <col min="9" max="16384" width="11.42578125" style="6"/>
+    <col min="1" max="7" width="11.5" style="6"/>
+    <col min="8" max="8" width="23.6640625" style="6" customWidth="1"/>
+    <col min="9" max="16384" width="11.5" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="35" t="s">
+    <row r="1" spans="1:8">
+      <c r="A1" s="33" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
@@ -1616,12 +1658,12 @@
       <c r="G1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="37" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="36"/>
+      <c r="H1" s="35" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="34"/>
       <c r="B2" s="7" t="s">
         <v>18</v>
       </c>
@@ -1640,9 +1682,9 @@
       <c r="G2" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="37"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H2" s="35"/>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="8">
         <v>43646</v>
       </c>

--- a/Accounts.xlsx
+++ b/Accounts.xlsx
@@ -1,23 +1,28 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="20225"/>
-  <workbookPr autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gaurav Aggarwal\Documents\FarmaBusinessAccount\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14240"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="14235" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Account" sheetId="1" r:id="rId1"/>
     <sheet name="HariOm" sheetId="2" r:id="rId2"/>
     <sheet name="TotalFarme" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
@@ -128,7 +133,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -435,6 +440,21 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -452,21 +472,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="67">
@@ -806,7 +811,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -816,20 +821,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="A2:I9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="13.1640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="13.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="13.1640625" style="10"/>
-    <col min="4" max="4" width="21.5" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="13.1640625" style="10"/>
-    <col min="8" max="8" width="35.83203125" style="10" customWidth="1"/>
-    <col min="9" max="16384" width="13.1640625" style="10"/>
+    <col min="1" max="3" width="13.140625" style="10"/>
+    <col min="4" max="4" width="21.42578125" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="13.140625" style="10"/>
+    <col min="8" max="8" width="35.85546875" style="10" customWidth="1"/>
+    <col min="9" max="16384" width="13.140625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -858,7 +863,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>43604</v>
       </c>
@@ -889,7 +894,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>43616</v>
       </c>
@@ -919,7 +924,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>43604</v>
       </c>
@@ -948,7 +953,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="12"/>
       <c r="B5" s="12"/>
       <c r="C5" s="12"/>
@@ -962,21 +967,21 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="30" t="s">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="31"/>
-      <c r="C6" s="31"/>
-      <c r="D6" s="31"/>
-      <c r="E6" s="31"/>
-      <c r="F6" s="31"/>
-      <c r="G6" s="31"/>
-      <c r="H6" s="31"/>
-      <c r="I6" s="32"/>
+      <c r="B6" s="36"/>
+      <c r="C6" s="36"/>
+      <c r="D6" s="36"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="I6" s="37"/>
       <c r="J6" s="11"/>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="15">
         <v>43667</v>
       </c>
@@ -1005,7 +1010,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="30" customHeight="1">
+    <row r="8" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="15">
         <v>43675</v>
       </c>
@@ -1028,7 +1033,7 @@
       </c>
       <c r="I8" s="14"/>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="15">
         <v>43681</v>
       </c>
@@ -1057,7 +1062,7 @@
         <v>1680</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="14"/>
       <c r="B10" s="14"/>
       <c r="C10" s="14"/>
@@ -1068,7 +1073,7 @@
       <c r="H10" s="14"/>
       <c r="I10" s="14"/>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="14"/>
       <c r="B11" s="14"/>
       <c r="C11" s="14"/>
@@ -1079,7 +1084,7 @@
       <c r="H11" s="14"/>
       <c r="I11" s="14"/>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="14"/>
       <c r="B12" s="14"/>
       <c r="C12" s="14"/>
@@ -1090,7 +1095,7 @@
       <c r="H12" s="14"/>
       <c r="I12" s="14"/>
     </row>
-    <row r="13" spans="1:10">
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="14"/>
       <c r="B13" s="14"/>
       <c r="C13" s="14"/>
@@ -1101,7 +1106,7 @@
       <c r="H13" s="14"/>
       <c r="I13" s="14"/>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="14"/>
       <c r="B14" s="14"/>
       <c r="C14" s="14"/>
@@ -1112,7 +1117,7 @@
       <c r="H14" s="14"/>
       <c r="I14" s="14"/>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="14"/>
       <c r="B15" s="14"/>
       <c r="C15" s="14"/>
@@ -1123,7 +1128,7 @@
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="14"/>
       <c r="B16" s="14"/>
       <c r="C16" s="14"/>
@@ -1134,7 +1139,7 @@
       <c r="H16" s="14"/>
       <c r="I16" s="14"/>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="14"/>
       <c r="B17" s="14"/>
       <c r="C17" s="14"/>
@@ -1145,7 +1150,7 @@
       <c r="H17" s="14"/>
       <c r="I17" s="14"/>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="14"/>
       <c r="B18" s="14"/>
       <c r="C18" s="14"/>
@@ -1173,21 +1178,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" style="6" customWidth="1"/>
-    <col min="2" max="3" width="11.5" style="6"/>
-    <col min="4" max="4" width="17.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="11.5" style="6"/>
-    <col min="8" max="8" width="18.1640625" style="6" customWidth="1"/>
-    <col min="9" max="16384" width="11.5" style="6"/>
+    <col min="1" max="1" width="13.28515625" style="6" customWidth="1"/>
+    <col min="2" max="3" width="11.42578125" style="6"/>
+    <col min="4" max="4" width="17.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="11.42578125" style="6"/>
+    <col min="8" max="8" width="19.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="11.42578125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="28">
+    <row r="1" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -1222,7 +1227,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="28">
+    <row r="2" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="17">
         <v>43604</v>
       </c>
@@ -1260,7 +1265,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="17">
         <v>43616</v>
       </c>
@@ -1297,7 +1302,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="17">
         <v>43604</v>
       </c>
@@ -1333,7 +1338,7 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="19">
         <v>43638</v>
       </c>
@@ -1370,7 +1375,7 @@
         <v>1445</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="22">
         <v>43640</v>
       </c>
@@ -1407,7 +1412,7 @@
         <v>4805</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="25">
         <v>43638</v>
       </c>
@@ -1444,7 +1449,7 @@
         <v>6065</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="26"/>
       <c r="B8" s="26"/>
       <c r="C8" s="26"/>
@@ -1466,7 +1471,7 @@
         <v>5963</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="26"/>
       <c r="B9" s="26"/>
       <c r="C9" s="26"/>
@@ -1488,7 +1493,7 @@
         <v>8963</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="10" customFormat="1">
+    <row r="10" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="27">
         <v>43667</v>
       </c>
@@ -1524,7 +1529,7 @@
         <v>9803</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="36" customFormat="1">
+    <row r="11" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="27">
         <v>43681</v>
       </c>
@@ -1538,38 +1543,38 @@
         <v>26</v>
       </c>
       <c r="E11" s="28">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="F11" s="28">
         <v>35</v>
       </c>
       <c r="G11" s="28">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="H11" s="28" t="s">
         <v>12</v>
       </c>
       <c r="I11" s="28">
-        <v>700</v>
+        <v>1680</v>
       </c>
       <c r="J11" s="26" t="s">
         <v>30</v>
       </c>
       <c r="K11" s="18">
         <f t="shared" si="0"/>
-        <v>10503</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" s="40" customFormat="1">
-      <c r="A12" s="37">
+        <v>11483</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="31">
         <v>43689</v>
       </c>
-      <c r="B12" s="38"/>
-      <c r="C12" s="39"/>
-      <c r="D12" s="39"/>
-      <c r="E12" s="39"/>
-      <c r="F12" s="39"/>
-      <c r="G12" s="39"/>
+      <c r="B12" s="32"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
       <c r="H12" t="s">
         <v>32</v>
       </c>
@@ -1581,10 +1586,10 @@
       </c>
       <c r="K12" s="18">
         <f t="shared" si="0"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="29"/>
       <c r="B13" s="29"/>
       <c r="C13" s="29"/>
@@ -1597,7 +1602,7 @@
       <c r="J13" s="29"/>
       <c r="K13" s="29"/>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="29"/>
       <c r="B14" s="29"/>
       <c r="C14" s="29"/>
@@ -1629,15 +1634,15 @@
       <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="7" width="11.5" style="6"/>
-    <col min="8" max="8" width="23.6640625" style="6" customWidth="1"/>
-    <col min="9" max="16384" width="11.5" style="6"/>
+    <col min="1" max="7" width="11.42578125" style="6"/>
+    <col min="8" max="8" width="23.7109375" style="6" customWidth="1"/>
+    <col min="9" max="16384" width="11.42578125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="33" t="s">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="38" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
@@ -1658,12 +1663,12 @@
       <c r="G1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="35" t="s">
+      <c r="H1" s="40" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="34"/>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="39"/>
       <c r="B2" s="7" t="s">
         <v>18</v>
       </c>
@@ -1682,9 +1687,9 @@
       <c r="G2" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="35"/>
-    </row>
-    <row r="3" spans="1:8">
+      <c r="H2" s="40"/>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>43646</v>
       </c>

--- a/Accounts.xlsx
+++ b/Accounts.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="14235" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="14235" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Account" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="43">
   <si>
     <t>Date</t>
   </si>
@@ -128,13 +128,43 @@
   </si>
   <si>
     <t>Adjusted for Makaan</t>
+  </si>
+  <si>
+    <t>S. No.</t>
+  </si>
+  <si>
+    <t>Name</t>
+  </si>
+  <si>
+    <t>Number</t>
+  </si>
+  <si>
+    <t>Satinder Thekedar</t>
+  </si>
+  <si>
+    <t>Chand Mohammad</t>
+  </si>
+  <si>
+    <t>Chander Mal</t>
+  </si>
+  <si>
+    <t>Yogesh</t>
+  </si>
+  <si>
+    <t>Arun</t>
+  </si>
+  <si>
+    <t>Total Bolt</t>
+  </si>
+  <si>
+    <t>Missing</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -161,6 +191,12 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -357,7 +393,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -455,6 +491,9 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -471,6 +510,16 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -599,7 +648,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -634,7 +683,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -968,17 +1017,17 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="35" t="s">
+      <c r="A6" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="36"/>
-      <c r="C6" s="36"/>
-      <c r="D6" s="36"/>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="37"/>
+      <c r="B6" s="37"/>
+      <c r="C6" s="37"/>
+      <c r="D6" s="37"/>
+      <c r="E6" s="37"/>
+      <c r="F6" s="37"/>
+      <c r="G6" s="37"/>
+      <c r="H6" s="37"/>
+      <c r="I6" s="38"/>
       <c r="J6" s="11"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -1178,7 +1227,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
@@ -1628,21 +1677,27 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="7" width="11.42578125" style="6"/>
+    <col min="1" max="1" width="11.42578125" style="6"/>
+    <col min="2" max="2" width="6.42578125" style="43" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" style="43" customWidth="1"/>
+    <col min="5" max="7" width="11.42578125" style="6"/>
     <col min="8" max="8" width="23.7109375" style="6" customWidth="1"/>
-    <col min="9" max="16384" width="11.42578125" style="6"/>
+    <col min="9" max="10" width="11.42578125" style="6"/>
+    <col min="11" max="11" width="11.42578125" style="43"/>
+    <col min="12" max="16384" width="11.42578125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" s="39" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
@@ -1663,12 +1718,18 @@
       <c r="G1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="40" t="s">
+      <c r="H1" s="41" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="39"/>
+      <c r="J1" s="42" t="s">
+        <v>41</v>
+      </c>
+      <c r="K1" s="44">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="40"/>
       <c r="B2" s="7" t="s">
         <v>18</v>
       </c>
@@ -1687,17 +1748,23 @@
       <c r="G2" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="40"/>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="H2" s="41"/>
+      <c r="J2" s="42" t="s">
+        <v>42</v>
+      </c>
+      <c r="K2" s="44">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>43646</v>
       </c>
-      <c r="B3" s="9">
+      <c r="B3" s="35">
         <v>12</v>
       </c>
       <c r="C3" s="9"/>
-      <c r="D3" s="9">
+      <c r="D3" s="35">
         <v>10</v>
       </c>
       <c r="E3" s="9"/>
@@ -1708,6 +1775,107 @@
       <c r="H3" s="9">
         <v>77100</v>
       </c>
+      <c r="J3" s="42" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" s="44">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B4" s="44"/>
+      <c r="J4" s="42"/>
+      <c r="K4" s="44"/>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B5" s="45" t="s">
+        <v>33</v>
+      </c>
+      <c r="C5" s="42" t="s">
+        <v>34</v>
+      </c>
+      <c r="D5" s="44" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5" s="42"/>
+      <c r="F5" s="42"/>
+      <c r="G5" s="42"/>
+      <c r="H5" s="42"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B6" s="44">
+        <v>1</v>
+      </c>
+      <c r="C6" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="44">
+        <v>9654753654</v>
+      </c>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="42"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B7" s="44">
+        <v>2</v>
+      </c>
+      <c r="C7" s="42" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="44">
+        <v>9999006467</v>
+      </c>
+      <c r="E7" s="42"/>
+      <c r="F7" s="42"/>
+      <c r="G7" s="42"/>
+      <c r="H7" s="42"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B8" s="44">
+        <v>3</v>
+      </c>
+      <c r="C8" s="42" t="s">
+        <v>38</v>
+      </c>
+      <c r="D8" s="44">
+        <v>9560521439</v>
+      </c>
+      <c r="E8" s="42"/>
+      <c r="F8" s="42"/>
+      <c r="G8" s="42"/>
+      <c r="H8" s="42"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B9" s="44">
+        <v>4</v>
+      </c>
+      <c r="C9" s="42" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="44">
+        <v>8766304037</v>
+      </c>
+      <c r="E9" s="42"/>
+      <c r="F9" s="42"/>
+      <c r="G9" s="42"/>
+      <c r="H9" s="42"/>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B10" s="44">
+        <v>5</v>
+      </c>
+      <c r="C10" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="44">
+        <v>9654416298</v>
+      </c>
+      <c r="E10" s="42"/>
+      <c r="F10" s="42"/>
+      <c r="G10" s="42"/>
+      <c r="H10" s="42"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1715,6 +1883,7 @@
     <mergeCell ref="H1:H2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/Accounts.xlsx
+++ b/Accounts.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="14235" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="14235"/>
   </bookViews>
   <sheets>
     <sheet name="Account" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="47">
   <si>
     <t>Date</t>
   </si>
@@ -158,6 +158,18 @@
   </si>
   <si>
     <t>Missing</t>
+  </si>
+  <si>
+    <t>Hari om 28.8.19</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hari om </t>
+  </si>
+  <si>
+    <t>Farma (9x15)</t>
+  </si>
+  <si>
+    <t>3set</t>
   </si>
 </sst>
 </file>
@@ -494,24 +506,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -520,6 +514,24 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -870,8 +882,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1017,17 +1029,17 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="36" t="s">
+      <c r="A6" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="37"/>
-      <c r="C6" s="37"/>
-      <c r="D6" s="37"/>
-      <c r="E6" s="37"/>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="37"/>
-      <c r="I6" s="38"/>
+      <c r="B6" s="41"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="41"/>
+      <c r="E6" s="41"/>
+      <c r="F6" s="41"/>
+      <c r="G6" s="41"/>
+      <c r="H6" s="41"/>
+      <c r="I6" s="42"/>
       <c r="J6" s="11"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -1112,14 +1124,26 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="14"/>
+      <c r="A10" s="15">
+        <v>43705</v>
+      </c>
       <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="14"/>
-      <c r="E10" s="14"/>
-      <c r="F10" s="14"/>
+      <c r="C10" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E10" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="F10" s="14">
+        <v>35</v>
+      </c>
       <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
+      <c r="H10" s="14" t="s">
+        <v>12</v>
+      </c>
       <c r="I10" s="14"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
@@ -1679,25 +1703,26 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L7" sqref="L7"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.42578125" style="6"/>
-    <col min="2" max="2" width="6.42578125" style="43" customWidth="1"/>
+    <col min="2" max="2" width="6.42578125" style="37" customWidth="1"/>
     <col min="3" max="3" width="17.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" style="43" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" style="37" customWidth="1"/>
     <col min="5" max="7" width="11.42578125" style="6"/>
     <col min="8" max="8" width="23.7109375" style="6" customWidth="1"/>
-    <col min="9" max="10" width="11.42578125" style="6"/>
-    <col min="11" max="11" width="11.42578125" style="43"/>
+    <col min="9" max="9" width="11.42578125" style="6"/>
+    <col min="10" max="10" width="14.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" style="37"/>
     <col min="12" max="16384" width="11.42578125" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="43" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
@@ -1718,18 +1743,18 @@
       <c r="G1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="41" t="s">
+      <c r="H1" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="J1" s="42" t="s">
+      <c r="J1" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="K1" s="44">
+      <c r="K1" s="38">
         <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="40"/>
+      <c r="A2" s="44"/>
       <c r="B2" s="7" t="s">
         <v>18</v>
       </c>
@@ -1748,12 +1773,12 @@
       <c r="G2" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="41"/>
-      <c r="J2" s="42" t="s">
+      <c r="H2" s="45"/>
+      <c r="J2" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="K2" s="44">
-        <v>39</v>
+      <c r="K2" s="38">
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
@@ -1775,107 +1800,129 @@
       <c r="H3" s="9">
         <v>77100</v>
       </c>
-      <c r="J3" s="42" t="s">
+      <c r="J3" s="36" t="s">
+        <v>44</v>
+      </c>
+      <c r="K3" s="38">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="B4" s="38"/>
+      <c r="J4" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="K3" s="44">
+      <c r="K4" s="38">
         <v>75</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B4" s="44"/>
-      <c r="J4" s="42"/>
-      <c r="K4" s="44"/>
-    </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B5" s="45" t="s">
+      <c r="B5" s="39" t="s">
         <v>33</v>
       </c>
-      <c r="C5" s="42" t="s">
+      <c r="C5" s="36" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="44" t="s">
+      <c r="D5" s="38" t="s">
         <v>35</v>
       </c>
-      <c r="E5" s="42"/>
-      <c r="F5" s="42"/>
-      <c r="G5" s="42"/>
-      <c r="H5" s="42"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="36"/>
+      <c r="J5" s="36" t="s">
+        <v>43</v>
+      </c>
+      <c r="K5" s="38">
+        <v>40</v>
+      </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B6" s="44">
+      <c r="B6" s="38">
         <v>1</v>
       </c>
-      <c r="C6" s="42" t="s">
+      <c r="C6" s="36" t="s">
         <v>36</v>
       </c>
-      <c r="D6" s="44">
+      <c r="D6" s="38">
         <v>9654753654</v>
       </c>
-      <c r="E6" s="42"/>
-      <c r="F6" s="42"/>
-      <c r="G6" s="42"/>
-      <c r="H6" s="42"/>
+      <c r="E6" s="36"/>
+      <c r="F6" s="36"/>
+      <c r="G6" s="36"/>
+      <c r="H6" s="36"/>
+      <c r="J6" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="K6" s="38">
+        <v>35</v>
+      </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="44">
+      <c r="B7" s="38">
         <v>2</v>
       </c>
-      <c r="C7" s="42" t="s">
+      <c r="C7" s="36" t="s">
         <v>37</v>
       </c>
-      <c r="D7" s="44">
+      <c r="D7" s="38">
         <v>9999006467</v>
       </c>
-      <c r="E7" s="42"/>
-      <c r="F7" s="42"/>
-      <c r="G7" s="42"/>
-      <c r="H7" s="42"/>
+      <c r="E7" s="36"/>
+      <c r="F7" s="36"/>
+      <c r="G7" s="36"/>
+      <c r="H7" s="36"/>
+      <c r="J7" s="36"/>
+      <c r="K7" s="38"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B8" s="44">
+      <c r="B8" s="38">
         <v>3</v>
       </c>
-      <c r="C8" s="42" t="s">
+      <c r="C8" s="36" t="s">
         <v>38</v>
       </c>
-      <c r="D8" s="44">
+      <c r="D8" s="38">
         <v>9560521439</v>
       </c>
-      <c r="E8" s="42"/>
-      <c r="F8" s="42"/>
-      <c r="G8" s="42"/>
-      <c r="H8" s="42"/>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36"/>
+      <c r="H8" s="36"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="38"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B9" s="44">
+      <c r="B9" s="38">
         <v>4</v>
       </c>
-      <c r="C9" s="42" t="s">
+      <c r="C9" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="D9" s="44">
+      <c r="D9" s="38">
         <v>8766304037</v>
       </c>
-      <c r="E9" s="42"/>
-      <c r="F9" s="42"/>
-      <c r="G9" s="42"/>
-      <c r="H9" s="42"/>
+      <c r="E9" s="36"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="36"/>
+      <c r="H9" s="36"/>
+      <c r="J9" s="36"/>
+      <c r="K9" s="38"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B10" s="44">
+      <c r="B10" s="38">
         <v>5</v>
       </c>
-      <c r="C10" s="42" t="s">
+      <c r="C10" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="D10" s="44">
+      <c r="D10" s="38">
         <v>9654416298</v>
       </c>
-      <c r="E10" s="42"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="42"/>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="36"/>
     </row>
   </sheetData>
   <mergeCells count="2">

--- a/Accounts.xlsx
+++ b/Accounts.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="14235"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="14235" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Account" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="48">
   <si>
     <t>Date</t>
   </si>
@@ -170,6 +170,9 @@
   </si>
   <si>
     <t>3set</t>
+  </si>
+  <si>
+    <t>Farma (9X15)</t>
   </si>
 </sst>
 </file>
@@ -405,7 +408,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -533,6 +536,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="67">
@@ -882,8 +894,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A10:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1127,7 +1139,9 @@
       <c r="A10" s="15">
         <v>43705</v>
       </c>
-      <c r="B10" s="14"/>
+      <c r="B10" s="15">
+        <v>43710</v>
+      </c>
       <c r="C10" s="14" t="s">
         <v>4</v>
       </c>
@@ -1140,33 +1154,71 @@
       <c r="F10" s="14">
         <v>35</v>
       </c>
-      <c r="G10" s="14"/>
+      <c r="G10" s="14">
+        <v>5</v>
+      </c>
       <c r="H10" s="14" t="s">
         <v>12</v>
       </c>
-      <c r="I10" s="14"/>
+      <c r="I10" s="14">
+        <v>525</v>
+      </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="14"/>
-      <c r="B11" s="14"/>
-      <c r="C11" s="14"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="14"/>
-      <c r="G11" s="14"/>
-      <c r="H11" s="14"/>
-      <c r="I11" s="14"/>
+      <c r="A11" s="15">
+        <v>43711</v>
+      </c>
+      <c r="B11" s="15">
+        <v>43714</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" s="14">
+        <v>6</v>
+      </c>
+      <c r="F11" s="14">
+        <v>35</v>
+      </c>
+      <c r="G11" s="14">
+        <v>3</v>
+      </c>
+      <c r="H11" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="I11" s="14">
+        <v>630</v>
+      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="14"/>
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="14"/>
-      <c r="E12" s="14"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
+      <c r="A12" s="15">
+        <v>43730</v>
+      </c>
+      <c r="B12" s="15">
+        <v>43732</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E12" s="14">
+        <v>6</v>
+      </c>
+      <c r="F12" s="14">
+        <v>35</v>
+      </c>
+      <c r="G12" s="14">
+        <v>2</v>
+      </c>
       <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
+      <c r="I12" s="14">
+        <v>420</v>
+      </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="14"/>
@@ -1249,10 +1301,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K14"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1262,7 +1314,9 @@
     <col min="4" max="4" width="17.42578125" style="6" bestFit="1" customWidth="1"/>
     <col min="5" max="7" width="11.42578125" style="6"/>
     <col min="8" max="8" width="19.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="11.42578125" style="6"/>
+    <col min="9" max="9" width="11.42578125" style="6"/>
+    <col min="10" max="11" width="11.42578125" style="48"/>
+    <col min="12" max="16384" width="11.42578125" style="6"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="30" x14ac:dyDescent="0.25">
@@ -1662,31 +1716,136 @@
         <v>983</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A13" s="29"/>
-      <c r="B13" s="29"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="29"/>
-      <c r="E13" s="29"/>
-      <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
-      <c r="H13" s="29"/>
-      <c r="I13" s="29"/>
-      <c r="J13" s="29"/>
-      <c r="K13" s="29"/>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="29"/>
-      <c r="B14" s="29"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="29"/>
-      <c r="E14" s="29"/>
-      <c r="F14" s="29"/>
-      <c r="G14" s="29"/>
-      <c r="H14" s="29"/>
-      <c r="I14" s="29"/>
-      <c r="J14" s="29"/>
-      <c r="K14" s="29"/>
+    <row r="13" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="15">
+        <v>43705</v>
+      </c>
+      <c r="B13" s="15">
+        <v>43710</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="F13" s="14">
+        <v>35</v>
+      </c>
+      <c r="G13" s="14">
+        <v>5</v>
+      </c>
+      <c r="H13" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="I13" s="14">
+        <v>525</v>
+      </c>
+      <c r="J13" s="46" t="s">
+        <v>30</v>
+      </c>
+      <c r="K13" s="46">
+        <v>1508</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="15">
+        <v>43711</v>
+      </c>
+      <c r="B14" s="15">
+        <v>43714</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" s="14">
+        <v>6</v>
+      </c>
+      <c r="F14" s="14">
+        <v>35</v>
+      </c>
+      <c r="G14" s="14">
+        <v>3</v>
+      </c>
+      <c r="H14" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="I14" s="14">
+        <v>630</v>
+      </c>
+      <c r="J14" s="46" t="s">
+        <v>30</v>
+      </c>
+      <c r="K14" s="46">
+        <v>2138</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="15">
+        <v>43730</v>
+      </c>
+      <c r="B15" s="15">
+        <v>43732</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E15" s="14">
+        <v>6</v>
+      </c>
+      <c r="F15" s="14">
+        <v>35</v>
+      </c>
+      <c r="G15" s="14">
+        <v>2</v>
+      </c>
+      <c r="H15" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="I15" s="14">
+        <v>420</v>
+      </c>
+      <c r="J15" s="46" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" s="46">
+        <v>2558</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" s="29"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="29"/>
+      <c r="D16" s="29"/>
+      <c r="E16" s="29"/>
+      <c r="F16" s="29"/>
+      <c r="G16" s="29"/>
+      <c r="H16" s="29"/>
+      <c r="I16" s="29"/>
+      <c r="J16" s="47"/>
+      <c r="K16" s="47"/>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" s="29"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="29"/>
+      <c r="D17" s="29"/>
+      <c r="E17" s="29"/>
+      <c r="F17" s="29"/>
+      <c r="G17" s="29"/>
+      <c r="H17" s="29"/>
+      <c r="I17" s="29"/>
+      <c r="J17" s="47"/>
+      <c r="K17" s="47"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/Accounts.xlsx
+++ b/Accounts.xlsx
@@ -1,35 +1,30 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gaurav Aggarwal\Documents\FarmaBusinessAccount\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="20225"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="14235" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14240" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Account" sheetId="1" r:id="rId1"/>
     <sheet name="HariOm" sheetId="2" r:id="rId2"/>
     <sheet name="TotalFarme" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="49">
   <si>
     <t>Date</t>
   </si>
@@ -173,12 +168,15 @@
   </si>
   <si>
     <t>Farma (9X15)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -408,7 +406,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -519,6 +517,12 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -536,15 +540,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="67">
@@ -672,7 +667,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -707,7 +702,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -884,7 +879,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -898,16 +893,16 @@
       <selection activeCell="A10" sqref="A10:XFD12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="13.1640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="3" width="13.140625" style="10"/>
-    <col min="4" max="4" width="21.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="13.140625" style="10"/>
-    <col min="8" max="8" width="35.85546875" style="10" customWidth="1"/>
-    <col min="9" max="16384" width="13.140625" style="10"/>
+    <col min="1" max="3" width="13.1640625" style="10"/>
+    <col min="4" max="4" width="21.5" style="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="13.1640625" style="10"/>
+    <col min="8" max="8" width="35.83203125" style="10" customWidth="1"/>
+    <col min="9" max="16384" width="13.1640625" style="10"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -936,7 +931,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="A2" s="2">
         <v>43604</v>
       </c>
@@ -967,7 +962,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="A3" s="2">
         <v>43616</v>
       </c>
@@ -997,7 +992,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="A4" s="4">
         <v>43604</v>
       </c>
@@ -1026,7 +1021,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10">
       <c r="A5" s="12"/>
       <c r="B5" s="12"/>
       <c r="C5" s="12"/>
@@ -1040,21 +1035,21 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="40" t="s">
+    <row r="6" spans="1:10">
+      <c r="A6" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="41"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="42"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
+      <c r="I6" s="44"/>
       <c r="J6" s="11"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10">
       <c r="A7" s="15">
         <v>43667</v>
       </c>
@@ -1083,7 +1078,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="30" customHeight="1">
       <c r="A8" s="15">
         <v>43675</v>
       </c>
@@ -1106,7 +1101,7 @@
       </c>
       <c r="I8" s="14"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10">
       <c r="A9" s="15">
         <v>43681</v>
       </c>
@@ -1135,7 +1130,7 @@
         <v>1680</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10">
       <c r="A10" s="15">
         <v>43705</v>
       </c>
@@ -1164,7 +1159,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10">
       <c r="A11" s="15">
         <v>43711</v>
       </c>
@@ -1193,7 +1188,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10">
       <c r="A12" s="15">
         <v>43730</v>
       </c>
@@ -1220,7 +1215,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10">
       <c r="A13" s="14"/>
       <c r="B13" s="14"/>
       <c r="C13" s="14"/>
@@ -1231,7 +1226,7 @@
       <c r="H13" s="14"/>
       <c r="I13" s="14"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10">
       <c r="A14" s="14"/>
       <c r="B14" s="14"/>
       <c r="C14" s="14"/>
@@ -1242,7 +1237,7 @@
       <c r="H14" s="14"/>
       <c r="I14" s="14"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10">
       <c r="A15" s="14"/>
       <c r="B15" s="14"/>
       <c r="C15" s="14"/>
@@ -1253,7 +1248,7 @@
       <c r="H15" s="14"/>
       <c r="I15" s="14"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10">
       <c r="A16" s="14"/>
       <c r="B16" s="14"/>
       <c r="C16" s="14"/>
@@ -1264,7 +1259,7 @@
       <c r="H16" s="14"/>
       <c r="I16" s="14"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9">
       <c r="A17" s="14"/>
       <c r="B17" s="14"/>
       <c r="C17" s="14"/>
@@ -1275,7 +1270,7 @@
       <c r="H17" s="14"/>
       <c r="I17" s="14"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9">
       <c r="A18" s="14"/>
       <c r="B18" s="14"/>
       <c r="C18" s="14"/>
@@ -1301,25 +1296,25 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:K18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+      <selection activeCell="L15" sqref="L15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" style="6" customWidth="1"/>
-    <col min="2" max="3" width="11.42578125" style="6"/>
-    <col min="4" max="4" width="17.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="11.42578125" style="6"/>
-    <col min="8" max="8" width="19.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" style="6"/>
-    <col min="10" max="11" width="11.42578125" style="48"/>
-    <col min="12" max="16384" width="11.42578125" style="6"/>
+    <col min="1" max="1" width="13.33203125" style="6" customWidth="1"/>
+    <col min="2" max="3" width="11.5" style="6"/>
+    <col min="4" max="4" width="17.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="11.5" style="6"/>
+    <col min="8" max="8" width="19.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5" style="6"/>
+    <col min="10" max="11" width="11.5" style="41"/>
+    <col min="12" max="16384" width="11.5" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="28">
       <c r="A1" s="16" t="s">
         <v>0</v>
       </c>
@@ -1354,7 +1349,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="28">
       <c r="A2" s="17">
         <v>43604</v>
       </c>
@@ -1392,7 +1387,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11">
       <c r="A3" s="17">
         <v>43616</v>
       </c>
@@ -1429,7 +1424,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11">
       <c r="A4" s="17">
         <v>43604</v>
       </c>
@@ -1461,11 +1456,11 @@
         <v>30</v>
       </c>
       <c r="K4" s="18">
-        <f t="shared" ref="K4:K12" si="0">K3+I4</f>
+        <f t="shared" ref="K4:K15" si="0">K3+I4</f>
         <v>1305</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11">
       <c r="A5" s="19">
         <v>43638</v>
       </c>
@@ -1502,7 +1497,7 @@
         <v>1445</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
       <c r="A6" s="22">
         <v>43640</v>
       </c>
@@ -1539,7 +1534,7 @@
         <v>4805</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11">
       <c r="A7" s="25">
         <v>43638</v>
       </c>
@@ -1576,7 +1571,7 @@
         <v>6065</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11">
       <c r="A8" s="26"/>
       <c r="B8" s="26"/>
       <c r="C8" s="26"/>
@@ -1598,7 +1593,7 @@
         <v>5963</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11">
       <c r="A9" s="26"/>
       <c r="B9" s="26"/>
       <c r="C9" s="26"/>
@@ -1620,7 +1615,7 @@
         <v>8963</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" s="10" customFormat="1">
       <c r="A10" s="27">
         <v>43667</v>
       </c>
@@ -1656,7 +1651,7 @@
         <v>9803</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" s="30" customFormat="1">
       <c r="A11" s="27">
         <v>43681</v>
       </c>
@@ -1692,7 +1687,7 @@
         <v>11483</v>
       </c>
     </row>
-    <row r="12" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" s="34" customFormat="1">
       <c r="A12" s="31">
         <v>43689</v>
       </c>
@@ -1702,126 +1697,129 @@
       <c r="E12" s="33"/>
       <c r="F12" s="33"/>
       <c r="G12" s="33"/>
-      <c r="H12" t="s">
+      <c r="H12" s="32" t="s">
         <v>32</v>
       </c>
       <c r="I12" s="28">
-        <v>-10500</v>
+        <v>-10000</v>
       </c>
       <c r="J12" s="28" t="s">
         <v>31</v>
       </c>
       <c r="K12" s="18">
         <f t="shared" si="0"/>
-        <v>983</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="15">
+        <v>1483</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" s="10" customFormat="1">
+      <c r="A13" s="27">
         <v>43705</v>
       </c>
-      <c r="B13" s="15">
+      <c r="B13" s="27">
         <v>43710</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="D13" s="14" t="s">
+      <c r="D13" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="E13" s="14" t="s">
+      <c r="E13" s="28" t="s">
         <v>46</v>
       </c>
-      <c r="F13" s="14">
+      <c r="F13" s="28">
         <v>35</v>
       </c>
-      <c r="G13" s="14">
+      <c r="G13" s="28">
         <v>5</v>
       </c>
-      <c r="H13" s="14" t="s">
+      <c r="H13" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="I13" s="14">
+      <c r="I13" s="28">
         <v>525</v>
       </c>
-      <c r="J13" s="46" t="s">
+      <c r="J13" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="K13" s="46">
-        <v>1508</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="15">
+      <c r="K13" s="18">
+        <f t="shared" si="0"/>
+        <v>2008</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" s="10" customFormat="1">
+      <c r="A14" s="27">
         <v>43711</v>
       </c>
-      <c r="B14" s="15">
+      <c r="B14" s="27">
         <v>43714</v>
       </c>
-      <c r="C14" s="14" t="s">
+      <c r="C14" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="D14" s="14" t="s">
+      <c r="D14" s="28" t="s">
         <v>47</v>
       </c>
-      <c r="E14" s="14">
+      <c r="E14" s="28">
         <v>6</v>
       </c>
-      <c r="F14" s="14">
+      <c r="F14" s="28">
         <v>35</v>
       </c>
-      <c r="G14" s="14">
+      <c r="G14" s="28">
         <v>3</v>
       </c>
-      <c r="H14" s="14" t="s">
+      <c r="H14" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="I14" s="14">
+      <c r="I14" s="28">
         <v>630</v>
       </c>
-      <c r="J14" s="46" t="s">
+      <c r="J14" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="K14" s="46">
-        <v>2138</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="15">
+      <c r="K14" s="18">
+        <f t="shared" si="0"/>
+        <v>2638</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" s="10" customFormat="1">
+      <c r="A15" s="27">
         <v>43730</v>
       </c>
-      <c r="B15" s="15">
+      <c r="B15" s="27">
         <v>43732</v>
       </c>
-      <c r="C15" s="14" t="s">
+      <c r="C15" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="D15" s="14" t="s">
+      <c r="D15" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="E15" s="14">
+      <c r="E15" s="28">
         <v>6</v>
       </c>
-      <c r="F15" s="14">
+      <c r="F15" s="28">
         <v>35</v>
       </c>
-      <c r="G15" s="14">
+      <c r="G15" s="28">
         <v>2</v>
       </c>
-      <c r="H15" s="14" t="s">
+      <c r="H15" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="I15" s="14">
+      <c r="I15" s="28">
         <v>420</v>
       </c>
-      <c r="J15" s="46" t="s">
+      <c r="J15" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="K15" s="46">
-        <v>2558</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K15" s="18">
+        <f t="shared" si="0"/>
+        <v>3058</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11">
       <c r="A16" s="29"/>
       <c r="B16" s="29"/>
       <c r="C16" s="29"/>
@@ -1831,10 +1829,10 @@
       <c r="G16" s="29"/>
       <c r="H16" s="29"/>
       <c r="I16" s="29"/>
-      <c r="J16" s="47"/>
-      <c r="K16" s="47"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="J16" s="40"/>
+      <c r="K16" s="40"/>
+    </row>
+    <row r="17" spans="1:11">
       <c r="A17" s="29"/>
       <c r="B17" s="29"/>
       <c r="C17" s="29"/>
@@ -1844,12 +1842,16 @@
       <c r="G17" s="29"/>
       <c r="H17" s="29"/>
       <c r="I17" s="29"/>
-      <c r="J17" s="47"/>
-      <c r="K17" s="47"/>
+      <c r="J17" s="40"/>
+      <c r="K17" s="40"/>
+    </row>
+    <row r="18" spans="1:11">
+      <c r="K18" s="41" t="s">
+        <v>48</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -1866,22 +1868,22 @@
       <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="6"/>
-    <col min="2" max="2" width="6.42578125" style="37" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" style="37" customWidth="1"/>
-    <col min="5" max="7" width="11.42578125" style="6"/>
-    <col min="8" max="8" width="23.7109375" style="6" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" style="6"/>
-    <col min="10" max="10" width="14.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.42578125" style="37"/>
-    <col min="12" max="16384" width="11.42578125" style="6"/>
+    <col min="1" max="1" width="11.5" style="6"/>
+    <col min="2" max="2" width="6.5" style="37" customWidth="1"/>
+    <col min="3" max="3" width="17.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.6640625" style="37" customWidth="1"/>
+    <col min="5" max="7" width="11.5" style="6"/>
+    <col min="8" max="8" width="23.6640625" style="6" customWidth="1"/>
+    <col min="9" max="9" width="11.5" style="6"/>
+    <col min="10" max="10" width="14.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="11.5" style="37"/>
+    <col min="12" max="16384" width="11.5" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+    <row r="1" spans="1:11">
+      <c r="A1" s="45" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
@@ -1902,7 +1904,7 @@
       <c r="G1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="45" t="s">
+      <c r="H1" s="47" t="s">
         <v>27</v>
       </c>
       <c r="J1" s="36" t="s">
@@ -1912,8 +1914,8 @@
         <v>114</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="44"/>
+    <row r="2" spans="1:11">
+      <c r="A2" s="46"/>
       <c r="B2" s="7" t="s">
         <v>18</v>
       </c>
@@ -1932,7 +1934,7 @@
       <c r="G2" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="45"/>
+      <c r="H2" s="47"/>
       <c r="J2" s="36" t="s">
         <v>42</v>
       </c>
@@ -1940,7 +1942,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11">
       <c r="A3" s="8">
         <v>43646</v>
       </c>
@@ -1966,7 +1968,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11">
       <c r="B4" s="38"/>
       <c r="J4" s="36" t="s">
         <v>28</v>
@@ -1975,7 +1977,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11">
       <c r="B5" s="39" t="s">
         <v>33</v>
       </c>
@@ -1996,7 +1998,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
       <c r="B6" s="38">
         <v>1</v>
       </c>
@@ -2017,7 +2019,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11">
       <c r="B7" s="38">
         <v>2</v>
       </c>
@@ -2034,7 +2036,7 @@
       <c r="J7" s="36"/>
       <c r="K7" s="38"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11">
       <c r="B8" s="38">
         <v>3</v>
       </c>
@@ -2051,7 +2053,7 @@
       <c r="J8" s="36"/>
       <c r="K8" s="38"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11">
       <c r="B9" s="38">
         <v>4</v>
       </c>
@@ -2068,7 +2070,7 @@
       <c r="J9" s="36"/>
       <c r="K9" s="38"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11">
       <c r="B10" s="38">
         <v>5</v>
       </c>
@@ -2089,7 +2091,6 @@
     <mergeCell ref="H1:H2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/Accounts.xlsx
+++ b/Accounts.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="14235" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="14235" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Account" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="61">
   <si>
     <t>Date</t>
   </si>
@@ -173,6 +173,47 @@
   </si>
   <si>
     <t>Farma (9X15)</t>
+  </si>
+  <si>
+    <t>Dharam Nath</t>
+  </si>
+  <si>
+    <t>Farma(9x9)1set
+Farma(9x12)6set
+Farma(9x18)2 set</t>
+  </si>
+  <si>
+    <t>9 set (36 plate)</t>
+  </si>
+  <si>
+    <t>Add</t>
+  </si>
+  <si>
+    <t>Hari Om</t>
+  </si>
+  <si>
+    <t>Add 09-10-19</t>
+  </si>
+  <si>
+    <t>Dharamnath</t>
+  </si>
+  <si>
+    <t>Add 10-10-19</t>
+  </si>
+  <si>
+    <t>18 inch</t>
+  </si>
+  <si>
+    <t>sheet</t>
+  </si>
+  <si>
+    <t>plate</t>
+  </si>
+  <si>
+    <t>49.100x60/kg=2946</t>
+  </si>
+  <si>
+    <t>342kgx62/kg=21204</t>
   </si>
 </sst>
 </file>
@@ -408,7 +449,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="49">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -519,6 +560,18 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -537,15 +590,8 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="67">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -894,8 +940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A10" sqref="A10:XFD12"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="J11" sqref="A1:XFD1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1041,17 +1087,17 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="40" t="s">
+      <c r="A6" s="44" t="s">
         <v>20</v>
       </c>
-      <c r="B6" s="41"/>
-      <c r="C6" s="41"/>
-      <c r="D6" s="41"/>
-      <c r="E6" s="41"/>
-      <c r="F6" s="41"/>
-      <c r="G6" s="41"/>
-      <c r="H6" s="41"/>
-      <c r="I6" s="42"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="45"/>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45"/>
+      <c r="F6" s="45"/>
+      <c r="G6" s="45"/>
+      <c r="H6" s="45"/>
+      <c r="I6" s="46"/>
       <c r="J6" s="11"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -1220,15 +1266,27 @@
         <v>420</v>
       </c>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="14"/>
+    <row r="13" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="A13" s="15">
+        <v>43747</v>
+      </c>
       <c r="B13" s="14"/>
-      <c r="C13" s="14"/>
-      <c r="D13" s="14"/>
-      <c r="E13" s="14"/>
-      <c r="F13" s="14"/>
+      <c r="C13" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="D13" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="F13" s="14">
+        <v>30</v>
+      </c>
       <c r="G13" s="14"/>
-      <c r="H13" s="14"/>
+      <c r="H13" s="14" t="s">
+        <v>12</v>
+      </c>
       <c r="I13" s="14"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
@@ -1303,8 +1361,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1315,7 +1373,7 @@
     <col min="5" max="7" width="11.42578125" style="6"/>
     <col min="8" max="8" width="19.5703125" style="6" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.42578125" style="6"/>
-    <col min="10" max="11" width="11.42578125" style="48"/>
+    <col min="10" max="11" width="11.42578125" style="43"/>
     <col min="12" max="16384" width="11.42578125" style="6"/>
   </cols>
   <sheetData>
@@ -1744,10 +1802,10 @@
       <c r="I13" s="14">
         <v>525</v>
       </c>
-      <c r="J13" s="46" t="s">
+      <c r="J13" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="K13" s="46">
+      <c r="K13" s="41">
         <v>1508</v>
       </c>
     </row>
@@ -1779,10 +1837,10 @@
       <c r="I14" s="14">
         <v>630</v>
       </c>
-      <c r="J14" s="46" t="s">
+      <c r="J14" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="K14" s="46">
+      <c r="K14" s="41">
         <v>2138</v>
       </c>
     </row>
@@ -1814,10 +1872,10 @@
       <c r="I15" s="14">
         <v>420</v>
       </c>
-      <c r="J15" s="46" t="s">
+      <c r="J15" s="41" t="s">
         <v>30</v>
       </c>
-      <c r="K15" s="46">
+      <c r="K15" s="41">
         <v>2558</v>
       </c>
     </row>
@@ -1831,8 +1889,8 @@
       <c r="G16" s="29"/>
       <c r="H16" s="29"/>
       <c r="I16" s="29"/>
-      <c r="J16" s="47"/>
-      <c r="K16" s="47"/>
+      <c r="J16" s="42"/>
+      <c r="K16" s="42"/>
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="29"/>
@@ -1844,8 +1902,8 @@
       <c r="G17" s="29"/>
       <c r="H17" s="29"/>
       <c r="I17" s="29"/>
-      <c r="J17" s="47"/>
-      <c r="K17" s="47"/>
+      <c r="J17" s="42"/>
+      <c r="K17" s="42"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1860,10 +1918,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:M16"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1872,16 +1930,17 @@
     <col min="2" max="2" width="6.42578125" style="37" customWidth="1"/>
     <col min="3" max="3" width="17.42578125" style="6" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="13.7109375" style="37" customWidth="1"/>
-    <col min="5" max="7" width="11.42578125" style="6"/>
-    <col min="8" max="8" width="23.7109375" style="6" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" style="6"/>
-    <col min="10" max="10" width="14.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="11.42578125" style="37"/>
-    <col min="12" max="16384" width="11.42578125" style="6"/>
+    <col min="5" max="8" width="11.42578125" style="6"/>
+    <col min="9" max="9" width="18.140625" style="6" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="23.7109375" style="6" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" style="6"/>
+    <col min="12" max="12" width="14.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.42578125" style="37"/>
+    <col min="14" max="16384" width="11.42578125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="43" t="s">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
@@ -1902,18 +1961,24 @@
       <c r="G1" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="H1" s="45" t="s">
+      <c r="H1" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="I1" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="J1" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="J1" s="36" t="s">
+      <c r="L1" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="K1" s="38">
+      <c r="M1" s="38">
         <v>114</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="44"/>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" s="48"/>
       <c r="B2" s="7" t="s">
         <v>18</v>
       </c>
@@ -1932,15 +1997,21 @@
       <c r="G2" s="7" t="s">
         <v>19</v>
       </c>
-      <c r="H2" s="45"/>
-      <c r="J2" s="36" t="s">
+      <c r="H2" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="I2" s="7" t="s">
+        <v>57</v>
+      </c>
+      <c r="J2" s="49"/>
+      <c r="L2" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="K2" s="38">
+      <c r="M2" s="38">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" s="8">
         <v>43646</v>
       </c>
@@ -1949,33 +2020,56 @@
       </c>
       <c r="C3" s="9"/>
       <c r="D3" s="35">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E3" s="9"/>
       <c r="F3" s="9">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G3" s="9"/>
-      <c r="H3" s="9">
+      <c r="H3" s="40"/>
+      <c r="I3" s="40"/>
+      <c r="J3" s="9">
         <v>77100</v>
       </c>
-      <c r="J3" s="36" t="s">
+      <c r="L3" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="K3" s="38">
+      <c r="M3" s="38">
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B4" s="38"/>
-      <c r="J4" s="36" t="s">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" s="51">
+        <v>43748</v>
+      </c>
+      <c r="B4" s="40">
+        <v>2</v>
+      </c>
+      <c r="C4" s="50" t="s">
+        <v>59</v>
+      </c>
+      <c r="D4" s="40"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="50"/>
+      <c r="H4" s="50">
+        <v>8</v>
+      </c>
+      <c r="I4" s="50" t="s">
+        <v>60</v>
+      </c>
+      <c r="J4" s="50">
+        <v>24150</v>
+      </c>
+      <c r="L4" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="K4" s="38">
+      <c r="M4" s="38">
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B5" s="39" t="s">
         <v>33</v>
       </c>
@@ -1989,14 +2083,16 @@
       <c r="F5" s="36"/>
       <c r="G5" s="36"/>
       <c r="H5" s="36"/>
-      <c r="J5" s="36" t="s">
+      <c r="I5" s="36"/>
+      <c r="J5" s="36"/>
+      <c r="L5" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="K5" s="38">
+      <c r="M5" s="38">
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B6" s="38">
         <v>1</v>
       </c>
@@ -2010,14 +2106,16 @@
       <c r="F6" s="36"/>
       <c r="G6" s="36"/>
       <c r="H6" s="36"/>
-      <c r="J6" s="36" t="s">
+      <c r="I6" s="36"/>
+      <c r="J6" s="36"/>
+      <c r="L6" s="36" t="s">
         <v>28</v>
       </c>
-      <c r="K6" s="38">
+      <c r="M6" s="38">
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B7" s="38">
         <v>2</v>
       </c>
@@ -2031,10 +2129,16 @@
       <c r="F7" s="36"/>
       <c r="G7" s="36"/>
       <c r="H7" s="36"/>
+      <c r="I7" s="36"/>
       <c r="J7" s="36"/>
-      <c r="K7" s="38"/>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L7" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="M7" s="38">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B8" s="38">
         <v>3</v>
       </c>
@@ -2048,10 +2152,16 @@
       <c r="F8" s="36"/>
       <c r="G8" s="36"/>
       <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
       <c r="J8" s="36"/>
-      <c r="K8" s="38"/>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L8" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="M8" s="38">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B9" s="38">
         <v>4</v>
       </c>
@@ -2065,10 +2175,16 @@
       <c r="F9" s="36"/>
       <c r="G9" s="36"/>
       <c r="H9" s="36"/>
+      <c r="I9" s="36"/>
       <c r="J9" s="36"/>
-      <c r="K9" s="38"/>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="L9" s="36" t="s">
+        <v>28</v>
+      </c>
+      <c r="M9" s="38">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B10" s="38">
         <v>5</v>
       </c>
@@ -2082,11 +2198,59 @@
       <c r="F10" s="36"/>
       <c r="G10" s="36"/>
       <c r="H10" s="36"/>
+      <c r="I10" s="36"/>
+      <c r="J10" s="36"/>
+      <c r="L10" s="50" t="s">
+        <v>53</v>
+      </c>
+      <c r="M10" s="40">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L11" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="M11" s="40">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L12" s="50" t="s">
+        <v>55</v>
+      </c>
+      <c r="M12" s="40">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L13" s="50" t="s">
+        <v>54</v>
+      </c>
+      <c r="M13" s="40">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L14" s="50" t="s">
+        <v>28</v>
+      </c>
+      <c r="M14" s="40">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L15" s="50"/>
+      <c r="M15" s="40"/>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="L16" s="50"/>
+      <c r="M16" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="H1:H2"/>
+    <mergeCell ref="J1:J2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>

--- a/Accounts.xlsx
+++ b/Accounts.xlsx
@@ -1,35 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gaurav Aggarwal\Documents\FarmaBusinessAccount\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="20225"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="14235" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14240" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Account" sheetId="1" r:id="rId1"/>
     <sheet name="HariOm" sheetId="2" r:id="rId2"/>
-    <sheet name="TotalFarme" sheetId="3" r:id="rId3"/>
+    <sheet name="Thakedaar" sheetId="4" r:id="rId3"/>
+    <sheet name="Purchase" sheetId="5" r:id="rId4"/>
+    <sheet name="Bolts" sheetId="6" r:id="rId5"/>
+    <sheet name="TotalFarme" sheetId="3" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="151" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="62">
   <si>
     <t>Date</t>
   </si>
@@ -86,9 +84,6 @@
   </si>
   <si>
     <t xml:space="preserve">Plate </t>
-  </si>
-  <si>
-    <t>Sheet</t>
   </si>
   <si>
     <t>July</t>
@@ -204,22 +199,28 @@
     <t>18 inch</t>
   </si>
   <si>
-    <t>sheet</t>
-  </si>
-  <si>
     <t>plate</t>
   </si>
   <si>
-    <t>49.100x60/kg=2946</t>
-  </si>
-  <si>
-    <t>342kgx62/kg=21204</t>
+    <t>Rate(Per Kg)</t>
+  </si>
+  <si>
+    <t>Size (in inch)</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Weight            ( in kg)</t>
+  </si>
+  <si>
+    <t>Freight</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -380,7 +381,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="67">
+  <cellStyleXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -448,8 +449,36 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -467,15 +496,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -531,10 +551,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -546,9 +562,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -563,15 +576,10 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -582,18 +590,38 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
-  <cellStyles count="67">
+  <cellStyles count="95">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -627,6 +655,20 @@
     <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -660,6 +702,20 @@
     <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -718,7 +774,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -753,7 +809,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -930,7 +986,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -940,20 +996,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="J11" sqref="A1:XFD1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="13.1640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="3" width="13.140625" style="10"/>
-    <col min="4" max="4" width="21.42578125" style="10" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="13.140625" style="10"/>
-    <col min="8" max="8" width="35.85546875" style="10" customWidth="1"/>
-    <col min="9" max="16384" width="13.140625" style="10"/>
+    <col min="1" max="3" width="13.1640625" style="7"/>
+    <col min="4" max="4" width="21.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="13.1640625" style="7"/>
+    <col min="8" max="8" width="35.83203125" style="7" customWidth="1"/>
+    <col min="9" max="16384" width="13.1640625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -982,7 +1038,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="A2" s="2">
         <v>43604</v>
       </c>
@@ -1013,7 +1069,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="A3" s="2">
         <v>43616</v>
       </c>
@@ -1043,7 +1099,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="A4" s="4">
         <v>43604</v>
       </c>
@@ -1072,277 +1128,277 @@
         <v>150</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A5" s="12"/>
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="12"/>
-      <c r="G5" s="12"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="13">
+    <row r="5" spans="1:10">
+      <c r="A5" s="9"/>
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="10">
         <f>SUM(I2:I4)</f>
         <v>1305</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="44" t="s">
-        <v>20</v>
-      </c>
-      <c r="B6" s="45"/>
-      <c r="C6" s="45"/>
-      <c r="D6" s="45"/>
-      <c r="E6" s="45"/>
-      <c r="F6" s="45"/>
-      <c r="G6" s="45"/>
-      <c r="H6" s="45"/>
-      <c r="I6" s="46"/>
-      <c r="J6" s="11"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A7" s="15">
+    <row r="6" spans="1:10">
+      <c r="A6" s="37" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="38"/>
+      <c r="C6" s="38"/>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38"/>
+      <c r="F6" s="38"/>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38"/>
+      <c r="I6" s="39"/>
+      <c r="J6" s="8"/>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="12">
         <v>43667</v>
       </c>
-      <c r="B7" s="15">
+      <c r="B7" s="12">
         <v>43679</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="14" t="s">
+      <c r="D7" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="E7" s="11">
+        <v>2</v>
+      </c>
+      <c r="F7" s="11">
+        <v>35</v>
+      </c>
+      <c r="G7" s="11">
+        <v>12</v>
+      </c>
+      <c r="H7" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I7" s="11">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" ht="30" customHeight="1">
+      <c r="A8" s="12">
+        <v>43675</v>
+      </c>
+      <c r="B8" s="11"/>
+      <c r="C8" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="E7" s="14">
+      <c r="D8" s="11" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="11">
         <v>2</v>
       </c>
-      <c r="F7" s="14">
+      <c r="F8" s="11">
+        <v>40</v>
+      </c>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="I8" s="11"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="12">
+        <v>43681</v>
+      </c>
+      <c r="B9" s="12">
+        <v>43688</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>25</v>
+      </c>
+      <c r="E9" s="11">
+        <v>6</v>
+      </c>
+      <c r="F9" s="11">
         <v>35</v>
       </c>
-      <c r="G7" s="14">
+      <c r="G9" s="11">
+        <v>8</v>
+      </c>
+      <c r="H9" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="H7" s="14" t="s">
+      <c r="I9" s="11">
+        <v>1680</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="12">
+        <v>43705</v>
+      </c>
+      <c r="B10" s="12">
+        <v>43710</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E10" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="F10" s="11">
+        <v>35</v>
+      </c>
+      <c r="G10" s="11">
+        <v>5</v>
+      </c>
+      <c r="H10" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="14">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="15">
-        <v>43675</v>
-      </c>
-      <c r="B8" s="14"/>
-      <c r="C8" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="E8" s="14">
+      <c r="I10" s="11">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="12">
+        <v>43711</v>
+      </c>
+      <c r="B11" s="12">
+        <v>43714</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="E11" s="11">
+        <v>6</v>
+      </c>
+      <c r="F11" s="11">
+        <v>35</v>
+      </c>
+      <c r="G11" s="11">
+        <v>3</v>
+      </c>
+      <c r="H11" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="I11" s="11">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="12">
+        <v>43730</v>
+      </c>
+      <c r="B12" s="12">
+        <v>43732</v>
+      </c>
+      <c r="C12" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12" s="11">
+        <v>6</v>
+      </c>
+      <c r="F12" s="11">
+        <v>35</v>
+      </c>
+      <c r="G12" s="11">
         <v>2</v>
       </c>
-      <c r="F8" s="14">
-        <v>40</v>
-      </c>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="I8" s="14"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A9" s="15">
-        <v>43681</v>
-      </c>
-      <c r="B9" s="15">
-        <v>43688</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="D9" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="E9" s="14">
-        <v>6</v>
-      </c>
-      <c r="F9" s="14">
-        <v>35</v>
-      </c>
-      <c r="G9" s="14">
-        <v>8</v>
-      </c>
-      <c r="H9" s="14" t="s">
+      <c r="H12" s="11"/>
+      <c r="I12" s="11">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="42">
+      <c r="A13" s="12">
+        <v>43747</v>
+      </c>
+      <c r="B13" s="11"/>
+      <c r="C13" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>48</v>
+      </c>
+      <c r="E13" s="11" t="s">
+        <v>49</v>
+      </c>
+      <c r="F13" s="11">
+        <v>30</v>
+      </c>
+      <c r="G13" s="11"/>
+      <c r="H13" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="I9" s="14">
-        <v>1680</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A10" s="15">
-        <v>43705</v>
-      </c>
-      <c r="B10" s="15">
-        <v>43710</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="E10" s="14" t="s">
-        <v>46</v>
-      </c>
-      <c r="F10" s="14">
-        <v>35</v>
-      </c>
-      <c r="G10" s="14">
-        <v>5</v>
-      </c>
-      <c r="H10" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="I10" s="14">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="15">
-        <v>43711</v>
-      </c>
-      <c r="B11" s="15">
-        <v>43714</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="E11" s="14">
-        <v>6</v>
-      </c>
-      <c r="F11" s="14">
-        <v>35</v>
-      </c>
-      <c r="G11" s="14">
-        <v>3</v>
-      </c>
-      <c r="H11" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="I11" s="14">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="15">
-        <v>43730</v>
-      </c>
-      <c r="B12" s="15">
-        <v>43732</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="D12" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="E12" s="14">
-        <v>6</v>
-      </c>
-      <c r="F12" s="14">
-        <v>35</v>
-      </c>
-      <c r="G12" s="14">
-        <v>2</v>
-      </c>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="45" x14ac:dyDescent="0.25">
-      <c r="A13" s="15">
-        <v>43747</v>
-      </c>
-      <c r="B13" s="14"/>
-      <c r="C13" s="14" t="s">
-        <v>48</v>
-      </c>
-      <c r="D13" s="14" t="s">
-        <v>49</v>
-      </c>
-      <c r="E13" s="14" t="s">
-        <v>50</v>
-      </c>
-      <c r="F13" s="14">
-        <v>30</v>
-      </c>
-      <c r="G13" s="14"/>
-      <c r="H13" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="I13" s="14"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="14"/>
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="14"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="14"/>
-      <c r="B15" s="14"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="14"/>
-      <c r="E15" s="14"/>
-      <c r="F15" s="14"/>
-      <c r="G15" s="14"/>
-      <c r="H15" s="14"/>
-      <c r="I15" s="14"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="14"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="14"/>
-      <c r="E16" s="14"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="14"/>
-      <c r="B17" s="14"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="14"/>
-      <c r="E17" s="14"/>
-      <c r="F17" s="14"/>
-      <c r="G17" s="14"/>
-      <c r="H17" s="14"/>
-      <c r="I17" s="14"/>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="14"/>
-      <c r="B18" s="14"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="14"/>
-      <c r="E18" s="14"/>
-      <c r="F18" s="14"/>
-      <c r="G18" s="14"/>
-      <c r="H18" s="14"/>
-      <c r="I18" s="14"/>
+      <c r="I13" s="11"/>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="11"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
+      <c r="E14" s="11"/>
+      <c r="F14" s="11"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="11"/>
+      <c r="I14" s="11"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="11"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="11"/>
+      <c r="D15" s="11"/>
+      <c r="E15" s="11"/>
+      <c r="F15" s="11"/>
+      <c r="G15" s="11"/>
+      <c r="H15" s="11"/>
+      <c r="I15" s="11"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="11"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="11"/>
+      <c r="D16" s="11"/>
+      <c r="E16" s="11"/>
+      <c r="F16" s="11"/>
+      <c r="G16" s="11"/>
+      <c r="H16" s="11"/>
+      <c r="I16" s="11"/>
+    </row>
+    <row r="17" spans="1:9">
+      <c r="A17" s="11"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="11"/>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="11"/>
+      <c r="H17" s="11"/>
+      <c r="I17" s="11"/>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="11"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1361,553 +1417,550 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" style="6" customWidth="1"/>
-    <col min="2" max="3" width="11.42578125" style="6"/>
-    <col min="4" max="4" width="17.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="11.42578125" style="6"/>
-    <col min="8" max="8" width="19.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" style="6"/>
-    <col min="10" max="11" width="11.42578125" style="43"/>
-    <col min="12" max="16384" width="11.42578125" style="6"/>
+    <col min="1" max="1" width="13.33203125" style="29" customWidth="1"/>
+    <col min="2" max="3" width="11.5" style="29"/>
+    <col min="4" max="4" width="17.5" style="29" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="11.5" style="29"/>
+    <col min="8" max="8" width="19.5" style="29" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="11.5" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="16" t="s">
+    <row r="1" spans="1:11" ht="28">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="16" t="s">
+      <c r="B1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D1" s="16" t="s">
+      <c r="D1" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="16" t="s">
+      <c r="E1" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="16" t="s">
+      <c r="F1" s="13" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="16" t="s">
+      <c r="G1" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="H1" s="16" t="s">
+      <c r="H1" s="13" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="16" t="s">
+      <c r="I1" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="J1" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="K1" s="16" t="s">
+      <c r="J1" s="13" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="17">
+      <c r="K1" s="13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="28">
+      <c r="A2" s="14">
         <v>43604</v>
       </c>
-      <c r="B2" s="17">
+      <c r="B2" s="14">
         <v>43622</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="18" t="s">
+      <c r="D2" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E2" s="18">
+      <c r="E2" s="15">
         <v>1</v>
       </c>
-      <c r="F2" s="18">
+      <c r="F2" s="15">
         <v>35</v>
       </c>
-      <c r="G2" s="18">
+      <c r="G2" s="15">
         <f>(B2-A2)+1</f>
         <v>19</v>
       </c>
-      <c r="H2" s="18" t="s">
+      <c r="H2" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="I2" s="18">
+      <c r="I2" s="15">
         <f>35*G2</f>
         <v>665</v>
       </c>
-      <c r="J2" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="K2" s="24">
+      <c r="J2" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" s="21">
         <f>I2</f>
         <v>665</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="17">
+    <row r="3" spans="1:11">
+      <c r="A3" s="14">
         <v>43616</v>
       </c>
-      <c r="B3" s="17">
+      <c r="B3" s="14">
         <v>43622</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E3" s="18">
+      <c r="E3" s="15">
         <v>2</v>
       </c>
-      <c r="F3" s="18">
+      <c r="F3" s="15">
         <v>35</v>
       </c>
-      <c r="G3" s="18">
+      <c r="G3" s="15">
         <f>(B3-A3)+1</f>
         <v>7</v>
       </c>
-      <c r="H3" s="18" t="s">
+      <c r="H3" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="18">
+      <c r="I3" s="15">
         <v>490</v>
       </c>
-      <c r="J3" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="K3" s="18">
+      <c r="J3" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" s="15">
         <f>K2+I3</f>
         <v>1155</v>
       </c>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="17">
+    <row r="4" spans="1:11">
+      <c r="A4" s="14">
         <v>43604</v>
       </c>
-      <c r="B4" s="17">
+      <c r="B4" s="14">
         <v>43622</v>
       </c>
-      <c r="C4" s="18" t="s">
+      <c r="C4" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="18" t="s">
+      <c r="D4" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="E4" s="18" t="s">
+      <c r="E4" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="18" t="s">
+      <c r="F4" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="G4" s="18" t="s">
+      <c r="G4" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="H4" s="18" t="s">
+      <c r="H4" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="I4" s="18">
+      <c r="I4" s="15">
         <v>150</v>
       </c>
-      <c r="J4" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="K4" s="18">
+      <c r="J4" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" s="15">
         <f t="shared" ref="K4:K12" si="0">K3+I4</f>
         <v>1305</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="19">
+    <row r="5" spans="1:11">
+      <c r="A5" s="16">
         <v>43638</v>
       </c>
-      <c r="B5" s="19">
+      <c r="B5" s="16">
         <v>43640</v>
       </c>
-      <c r="C5" s="20" t="s">
+      <c r="C5" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="D5" s="20" t="s">
+      <c r="D5" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="E5" s="21">
+      <c r="E5" s="18">
         <v>2</v>
       </c>
-      <c r="F5" s="21">
+      <c r="F5" s="18">
         <v>35</v>
       </c>
-      <c r="G5" s="21">
+      <c r="G5" s="18">
         <v>2</v>
       </c>
-      <c r="H5" s="20" t="s">
+      <c r="H5" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="I5" s="21">
+      <c r="I5" s="18">
         <f>G5*F5*E5</f>
         <v>140</v>
       </c>
-      <c r="J5" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="K5" s="18">
+      <c r="J5" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="K5" s="15">
         <f t="shared" si="0"/>
         <v>1445</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="22">
+    <row r="6" spans="1:11">
+      <c r="A6" s="19">
         <v>43640</v>
       </c>
-      <c r="B6" s="22">
+      <c r="B6" s="19">
         <v>43664</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="D6" s="23" t="s">
+      <c r="D6" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="E6" s="24">
+      <c r="E6" s="21">
         <v>4</v>
       </c>
-      <c r="F6" s="24">
+      <c r="F6" s="21">
         <v>35</v>
       </c>
-      <c r="G6" s="24">
+      <c r="G6" s="21">
         <v>24</v>
       </c>
-      <c r="H6" s="23" t="s">
+      <c r="H6" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="I6" s="21">
+      <c r="I6" s="18">
         <f t="shared" ref="I6:I7" si="1">G6*F6*E6</f>
         <v>3360</v>
       </c>
-      <c r="J6" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="K6" s="18">
+      <c r="J6" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="K6" s="15">
         <f t="shared" si="0"/>
         <v>4805</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="25">
+    <row r="7" spans="1:11">
+      <c r="A7" s="22">
         <v>43638</v>
       </c>
-      <c r="B7" s="25">
+      <c r="B7" s="22">
         <v>43656</v>
       </c>
-      <c r="C7" s="26" t="s">
+      <c r="C7" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="D7" s="26" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" s="26">
+      <c r="D7" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="23">
         <v>2</v>
       </c>
-      <c r="F7" s="26">
+      <c r="F7" s="23">
         <v>35</v>
       </c>
-      <c r="G7" s="26">
+      <c r="G7" s="23">
         <v>18</v>
       </c>
-      <c r="H7" s="26" t="s">
+      <c r="H7" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="I7" s="21">
+      <c r="I7" s="18">
         <f t="shared" si="1"/>
         <v>1260</v>
       </c>
-      <c r="J7" s="18" t="s">
-        <v>30</v>
-      </c>
-      <c r="K7" s="18">
+      <c r="J7" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="K7" s="15">
         <f t="shared" si="0"/>
         <v>6065</v>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="26"/>
-      <c r="B8" s="26"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26" t="s">
+    <row r="8" spans="1:11">
+      <c r="A8" s="23"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="I8" s="26">
+      <c r="I8" s="23">
         <v>-102</v>
       </c>
-      <c r="J8" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="K8" s="18">
+      <c r="J8" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="K8" s="15">
         <f t="shared" si="0"/>
         <v>5963</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="26"/>
-      <c r="B9" s="26"/>
-      <c r="C9" s="26"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26" t="s">
-        <v>22</v>
-      </c>
-      <c r="I9" s="26">
+    <row r="9" spans="1:11">
+      <c r="A9" s="23"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="I9" s="23">
         <v>3000</v>
       </c>
-      <c r="J9" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="K9" s="18">
+      <c r="J9" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="K9" s="15">
         <f t="shared" si="0"/>
         <v>8963</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="27">
+    <row r="10" spans="1:11" s="49" customFormat="1">
+      <c r="A10" s="24">
         <v>43667</v>
       </c>
-      <c r="B10" s="27">
+      <c r="B10" s="24">
         <v>43679</v>
       </c>
-      <c r="C10" s="28" t="s">
+      <c r="C10" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="D10" s="28" t="s">
-        <v>23</v>
-      </c>
-      <c r="E10" s="28">
+      <c r="D10" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="25">
         <v>2</v>
       </c>
-      <c r="F10" s="28">
+      <c r="F10" s="25">
         <v>35</v>
       </c>
-      <c r="G10" s="28">
+      <c r="G10" s="25">
         <v>12</v>
       </c>
-      <c r="H10" s="28" t="s">
+      <c r="H10" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="I10" s="28">
+      <c r="I10" s="25">
         <v>840</v>
       </c>
-      <c r="J10" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="K10" s="18">
+      <c r="J10" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="K10" s="15">
         <f t="shared" si="0"/>
         <v>9803</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="30" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="27">
+    <row r="11" spans="1:11" s="49" customFormat="1">
+      <c r="A11" s="24">
         <v>43681</v>
       </c>
-      <c r="B11" s="27">
+      <c r="B11" s="24">
         <v>43688</v>
       </c>
-      <c r="C11" s="28" t="s">
+      <c r="C11" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="D11" s="28" t="s">
-        <v>26</v>
-      </c>
-      <c r="E11" s="28">
+      <c r="D11" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="25">
         <v>6</v>
       </c>
-      <c r="F11" s="28">
+      <c r="F11" s="25">
         <v>35</v>
       </c>
-      <c r="G11" s="28">
+      <c r="G11" s="25">
         <v>8</v>
       </c>
-      <c r="H11" s="28" t="s">
+      <c r="H11" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="I11" s="28">
+      <c r="I11" s="25">
         <v>1680</v>
       </c>
-      <c r="J11" s="26" t="s">
-        <v>30</v>
-      </c>
-      <c r="K11" s="18">
+      <c r="J11" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="K11" s="15">
         <f t="shared" si="0"/>
         <v>11483</v>
       </c>
     </row>
-    <row r="12" spans="1:11" s="34" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="31">
+    <row r="12" spans="1:11">
+      <c r="A12" s="26">
         <v>43689</v>
       </c>
-      <c r="B12" s="32"/>
-      <c r="C12" s="33"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="33"/>
-      <c r="G12" s="33"/>
-      <c r="H12" t="s">
-        <v>32</v>
-      </c>
-      <c r="I12" s="28">
+      <c r="B12" s="27"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="I12" s="25">
         <v>-10500</v>
       </c>
-      <c r="J12" s="28" t="s">
-        <v>31</v>
-      </c>
-      <c r="K12" s="18">
+      <c r="J12" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="K12" s="15">
         <f t="shared" si="0"/>
         <v>983</v>
       </c>
     </row>
-    <row r="13" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="15">
+    <row r="13" spans="1:11" s="49" customFormat="1">
+      <c r="A13" s="24">
         <v>43705</v>
       </c>
-      <c r="B13" s="15">
+      <c r="B13" s="24">
         <v>43710</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C13" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="D13" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="E13" s="14" t="s">
+      <c r="D13" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="25">
+        <v>3</v>
+      </c>
+      <c r="F13" s="25">
+        <v>35</v>
+      </c>
+      <c r="G13" s="25">
+        <v>5</v>
+      </c>
+      <c r="H13" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="I13" s="25">
+        <v>525</v>
+      </c>
+      <c r="J13" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="K13" s="17">
+        <v>1508</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" s="49" customFormat="1">
+      <c r="A14" s="24">
+        <v>43711</v>
+      </c>
+      <c r="B14" s="24">
+        <v>43714</v>
+      </c>
+      <c r="C14" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="25" t="s">
         <v>46</v>
       </c>
-      <c r="F13" s="14">
+      <c r="E14" s="25">
+        <v>6</v>
+      </c>
+      <c r="F14" s="25">
         <v>35</v>
       </c>
-      <c r="G13" s="14">
-        <v>5</v>
-      </c>
-      <c r="H13" s="14" t="s">
+      <c r="G14" s="25">
+        <v>3</v>
+      </c>
+      <c r="H14" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="I13" s="14">
-        <v>525</v>
-      </c>
-      <c r="J13" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="K13" s="41">
-        <v>1508</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="15">
-        <v>43711</v>
-      </c>
-      <c r="B14" s="15">
-        <v>43714</v>
-      </c>
-      <c r="C14" s="14" t="s">
+      <c r="I14" s="25">
+        <v>630</v>
+      </c>
+      <c r="J14" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="K14" s="17">
+        <v>2138</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" s="49" customFormat="1">
+      <c r="A15" s="24">
+        <v>43730</v>
+      </c>
+      <c r="B15" s="24">
+        <v>43732</v>
+      </c>
+      <c r="C15" s="25" t="s">
         <v>4</v>
       </c>
-      <c r="D14" s="14" t="s">
-        <v>47</v>
-      </c>
-      <c r="E14" s="14">
+      <c r="D15" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" s="25">
         <v>6</v>
       </c>
-      <c r="F14" s="14">
+      <c r="F15" s="25">
         <v>35</v>
       </c>
-      <c r="G14" s="14">
-        <v>3</v>
-      </c>
-      <c r="H14" s="14" t="s">
+      <c r="G15" s="25">
+        <v>2</v>
+      </c>
+      <c r="H15" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="I14" s="14">
-        <v>630</v>
-      </c>
-      <c r="J14" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="K14" s="41">
-        <v>2138</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="15">
-        <v>43730</v>
-      </c>
-      <c r="B15" s="15">
-        <v>43732</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" s="14" t="s">
-        <v>45</v>
-      </c>
-      <c r="E15" s="14">
-        <v>6</v>
-      </c>
-      <c r="F15" s="14">
-        <v>35</v>
-      </c>
-      <c r="G15" s="14">
-        <v>2</v>
-      </c>
-      <c r="H15" s="14" t="s">
-        <v>12</v>
-      </c>
-      <c r="I15" s="14">
+      <c r="I15" s="25">
         <v>420</v>
       </c>
-      <c r="J15" s="41" t="s">
-        <v>30</v>
-      </c>
-      <c r="K15" s="41">
+      <c r="J15" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="K15" s="17">
         <v>2558</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="29"/>
-      <c r="B16" s="29"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29"/>
-      <c r="E16" s="29"/>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29"/>
-      <c r="H16" s="29"/>
-      <c r="I16" s="29"/>
-      <c r="J16" s="42"/>
-      <c r="K16" s="42"/>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A17" s="29"/>
-      <c r="B17" s="29"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="29"/>
-      <c r="E17" s="29"/>
-      <c r="F17" s="29"/>
-      <c r="G17" s="29"/>
-      <c r="H17" s="29"/>
-      <c r="I17" s="29"/>
-      <c r="J17" s="42"/>
-      <c r="K17" s="42"/>
+    <row r="16" spans="1:11">
+      <c r="A16" s="28"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="28"/>
+      <c r="J16" s="28"/>
+      <c r="K16" s="28"/>
+    </row>
+    <row r="17" spans="1:11">
+      <c r="A17" s="28"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="28"/>
+      <c r="K17" s="28"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -1918,342 +1971,590 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M16"/>
+  <dimension ref="A1:I6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="32">
+        <v>1</v>
+      </c>
+      <c r="B2" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="32">
+        <v>9654753654</v>
+      </c>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="32">
+        <v>2</v>
+      </c>
+      <c r="B3" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="32">
+        <v>9999006467</v>
+      </c>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="32">
+        <v>3</v>
+      </c>
+      <c r="B4" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="32">
+        <v>9560521439</v>
+      </c>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="32">
+        <v>4</v>
+      </c>
+      <c r="B5" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="32">
+        <v>8766304037</v>
+      </c>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="32">
+        <v>5</v>
+      </c>
+      <c r="B6" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="32">
+        <v>9654416298</v>
+      </c>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:F15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="6" max="6" width="16.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" ht="41" customHeight="1">
+      <c r="A1" s="46" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="46" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="46" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" s="46" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" s="47" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="22">
+        <v>43646</v>
+      </c>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="48" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2" s="48"/>
+      <c r="F2" s="23">
+        <v>77100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="22">
+        <v>43748</v>
+      </c>
+      <c r="B3" s="45">
+        <v>60</v>
+      </c>
+      <c r="C3" s="23">
+        <v>49.1</v>
+      </c>
+      <c r="D3" s="23">
+        <v>2946</v>
+      </c>
+      <c r="E3" s="23">
+        <v>0</v>
+      </c>
+      <c r="F3" s="23">
+        <f>D3+F2+E3</f>
+        <v>80046</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="22">
+        <v>43748</v>
+      </c>
+      <c r="B4" s="45">
+        <v>62</v>
+      </c>
+      <c r="C4" s="23">
+        <v>342</v>
+      </c>
+      <c r="D4" s="23">
+        <v>21204</v>
+      </c>
+      <c r="E4" s="23">
+        <v>200</v>
+      </c>
+      <c r="F4" s="23">
+        <f>D4+F3+E4</f>
+        <v>101450</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="D15" s="36"/>
+      <c r="E15" s="50"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:H15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="2" spans="1:8">
+      <c r="A2" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="B2" s="32">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="30"/>
+      <c r="B3" s="32"/>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="32">
+        <v>24</v>
+      </c>
+      <c r="G4" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4" s="32">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="B5" s="32">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="B6" s="32">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7" s="32">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="B8" s="32">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="B9" s="32">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="B10" s="32">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="B11" s="35">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="B12" s="35">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="B13" s="35">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="B14" s="35">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="35">
+        <v>23</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I14" sqref="H1:I14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="6"/>
-    <col min="2" max="2" width="6.42578125" style="37" customWidth="1"/>
-    <col min="3" max="3" width="17.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.7109375" style="37" customWidth="1"/>
-    <col min="5" max="8" width="11.42578125" style="6"/>
-    <col min="9" max="9" width="18.140625" style="6" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="23.7109375" style="6" customWidth="1"/>
-    <col min="11" max="11" width="11.42578125" style="6"/>
-    <col min="12" max="12" width="14.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.42578125" style="37"/>
-    <col min="14" max="16384" width="11.42578125" style="6"/>
+    <col min="1" max="1" width="11.5" style="6"/>
+    <col min="2" max="2" width="6.5" style="31" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" style="31" customWidth="1"/>
+    <col min="4" max="5" width="11.5" style="6"/>
+    <col min="6" max="6" width="23.6640625" style="6" customWidth="1"/>
+    <col min="7" max="7" width="11.5" style="6"/>
+    <col min="8" max="8" width="14.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5" style="31"/>
+    <col min="10" max="16384" width="11.5" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A1" s="47" t="s">
+    <row r="1" spans="1:9">
+      <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="D1" s="41" t="s">
+        <v>16</v>
+      </c>
+      <c r="E1" s="41" t="s">
+        <v>55</v>
+      </c>
+      <c r="F1" s="42" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1" s="32">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="43"/>
+      <c r="B2" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="C2" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="41" t="s">
+        <v>18</v>
+      </c>
+      <c r="E2" s="41" t="s">
+        <v>56</v>
+      </c>
+      <c r="F2" s="42"/>
+      <c r="H2" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="I2" s="32">
         <v>15</v>
       </c>
-      <c r="D1" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="E1" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F1" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="H1" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="I1" s="7" t="s">
-        <v>56</v>
-      </c>
-      <c r="J1" s="49" t="s">
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="44">
+        <v>43646</v>
+      </c>
+      <c r="B3" s="45">
+        <v>12</v>
+      </c>
+      <c r="C3" s="45">
+        <v>8</v>
+      </c>
+      <c r="D3" s="45">
+        <v>12</v>
+      </c>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45">
+        <v>77100</v>
+      </c>
+      <c r="H3" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="I3" s="32">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="44">
+        <v>43748</v>
+      </c>
+      <c r="B4" s="45">
+        <v>2</v>
+      </c>
+      <c r="C4" s="45"/>
+      <c r="D4" s="45"/>
+      <c r="E4" s="45">
+        <v>8</v>
+      </c>
+      <c r="F4" s="45">
+        <v>24150</v>
+      </c>
+      <c r="H4" s="30" t="s">
         <v>27</v>
       </c>
-      <c r="L1" s="36" t="s">
-        <v>41</v>
-      </c>
-      <c r="M1" s="38">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A2" s="48"/>
-      <c r="B2" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C2" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="D2" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="J2" s="49"/>
-      <c r="L2" s="36" t="s">
+      <c r="I4" s="32">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="B5" s="6"/>
+      <c r="C5" s="6"/>
+      <c r="H5" s="30" t="s">
         <v>42</v>
       </c>
-      <c r="M2" s="38">
+      <c r="I5" s="32">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+      <c r="H6" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6" s="32">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+      <c r="H7" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="I7" s="32">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+      <c r="H8" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="I8" s="32">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+      <c r="H9" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="I9" s="32">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A3" s="8">
-        <v>43646</v>
-      </c>
-      <c r="B3" s="35">
-        <v>12</v>
-      </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="35">
-        <v>8</v>
-      </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9">
-        <v>12</v>
-      </c>
-      <c r="G3" s="9"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
-      <c r="J3" s="9">
-        <v>77100</v>
-      </c>
-      <c r="L3" s="36" t="s">
-        <v>44</v>
-      </c>
-      <c r="M3" s="38">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A4" s="51">
-        <v>43748</v>
-      </c>
-      <c r="B4" s="40">
-        <v>2</v>
-      </c>
-      <c r="C4" s="50" t="s">
-        <v>59</v>
-      </c>
-      <c r="D4" s="40"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="50"/>
-      <c r="H4" s="50">
-        <v>8</v>
-      </c>
-      <c r="I4" s="50" t="s">
-        <v>60</v>
-      </c>
-      <c r="J4" s="50">
-        <v>24150</v>
-      </c>
-      <c r="L4" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="M4" s="38">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B5" s="39" t="s">
-        <v>33</v>
-      </c>
-      <c r="C5" s="36" t="s">
-        <v>34</v>
-      </c>
-      <c r="D5" s="38" t="s">
-        <v>35</v>
-      </c>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="36"/>
-      <c r="J5" s="36"/>
-      <c r="L5" s="36" t="s">
-        <v>43</v>
-      </c>
-      <c r="M5" s="38">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B6" s="38">
-        <v>1</v>
-      </c>
-      <c r="C6" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" s="38">
-        <v>9654753654</v>
-      </c>
-      <c r="E6" s="36"/>
-      <c r="F6" s="36"/>
-      <c r="G6" s="36"/>
-      <c r="H6" s="36"/>
-      <c r="I6" s="36"/>
-      <c r="J6" s="36"/>
-      <c r="L6" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="M6" s="38">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B7" s="38">
-        <v>2</v>
-      </c>
-      <c r="C7" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" s="38">
-        <v>9999006467</v>
-      </c>
-      <c r="E7" s="36"/>
-      <c r="F7" s="36"/>
-      <c r="G7" s="36"/>
-      <c r="H7" s="36"/>
-      <c r="I7" s="36"/>
-      <c r="J7" s="36"/>
-      <c r="L7" s="36" t="s">
-        <v>51</v>
-      </c>
-      <c r="M7" s="38">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B8" s="38">
-        <v>3</v>
-      </c>
-      <c r="C8" s="36" t="s">
-        <v>38</v>
-      </c>
-      <c r="D8" s="38">
-        <v>9560521439</v>
-      </c>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="36"/>
-      <c r="H8" s="36"/>
-      <c r="I8" s="36"/>
-      <c r="J8" s="36"/>
-      <c r="L8" s="36" t="s">
+    <row r="10" spans="1:9">
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+      <c r="H10" s="36" t="s">
         <v>52</v>
       </c>
-      <c r="M8" s="38">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B9" s="38">
-        <v>4</v>
-      </c>
-      <c r="C9" s="36" t="s">
-        <v>39</v>
-      </c>
-      <c r="D9" s="38">
-        <v>8766304037</v>
-      </c>
-      <c r="E9" s="36"/>
-      <c r="F9" s="36"/>
-      <c r="G9" s="36"/>
-      <c r="H9" s="36"/>
-      <c r="I9" s="36"/>
-      <c r="J9" s="36"/>
-      <c r="L9" s="36" t="s">
-        <v>28</v>
-      </c>
-      <c r="M9" s="38">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="B10" s="38">
-        <v>5</v>
-      </c>
-      <c r="C10" s="36" t="s">
-        <v>40</v>
-      </c>
-      <c r="D10" s="38">
-        <v>9654416298</v>
-      </c>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="36"/>
-      <c r="H10" s="36"/>
-      <c r="I10" s="36"/>
-      <c r="J10" s="36"/>
-      <c r="L10" s="50" t="s">
+      <c r="I10" s="34">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+      <c r="H11" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="M10" s="40">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="L11" s="50" t="s">
+      <c r="I11" s="34">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="H12" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="M11" s="40">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="L12" s="50" t="s">
-        <v>55</v>
-      </c>
-      <c r="M12" s="40">
+      <c r="I12" s="34">
         <v>73</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="L13" s="50" t="s">
-        <v>54</v>
-      </c>
-      <c r="M13" s="40">
+    <row r="13" spans="1:9">
+      <c r="H13" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="I13" s="34">
         <v>73</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="L14" s="50" t="s">
-        <v>28</v>
-      </c>
-      <c r="M14" s="40">
+    <row r="14" spans="1:9">
+      <c r="H14" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="I14" s="34">
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="L15" s="50"/>
-      <c r="M15" s="40"/>
-    </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="L16" s="50"/>
-      <c r="M16" s="40"/>
+    <row r="15" spans="1:9">
+      <c r="I15" s="6"/>
+    </row>
+    <row r="16" spans="1:9">
+      <c r="I16" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A1:A2"/>
-    <mergeCell ref="J1:J2"/>
+    <mergeCell ref="F1:F2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>

--- a/Accounts.xlsx
+++ b/Accounts.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="20225"/>
-  <workbookPr autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gaurav Aggarwal\Documents\FarmaBusinessAccount\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14240" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="14235"/>
   </bookViews>
   <sheets>
     <sheet name="Account" sheetId="1" r:id="rId1"/>
@@ -14,20 +19,20 @@
     <sheet name="Bolts" sheetId="6" r:id="rId5"/>
     <sheet name="TotalFarme" sheetId="3" r:id="rId6"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="64">
   <si>
     <t>Date</t>
   </si>
@@ -215,12 +220,18 @@
   </si>
   <si>
     <t>Freight</t>
+  </si>
+  <si>
+    <t>FOLDING</t>
+  </si>
+  <si>
+    <t>s</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -478,7 +489,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -580,6 +591,28 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -592,34 +625,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" quotePrefix="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="14" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="95">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -986,7 +1006,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -996,20 +1016,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="13.1640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="13.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="13.1640625" style="7"/>
-    <col min="4" max="4" width="21.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="13.1640625" style="7"/>
-    <col min="8" max="8" width="35.83203125" style="7" customWidth="1"/>
-    <col min="9" max="16384" width="13.1640625" style="7"/>
+    <col min="1" max="3" width="13.140625" style="7"/>
+    <col min="4" max="4" width="21.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="13.140625" style="7"/>
+    <col min="8" max="8" width="35.85546875" style="7" customWidth="1"/>
+    <col min="9" max="16384" width="13.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1038,7 +1058,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>43604</v>
       </c>
@@ -1069,7 +1089,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>43616</v>
       </c>
@@ -1099,7 +1119,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>43604</v>
       </c>
@@ -1128,7 +1148,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -1142,21 +1162,21 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="37" t="s">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="38"/>
-      <c r="C6" s="38"/>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38"/>
-      <c r="F6" s="38"/>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38"/>
-      <c r="I6" s="39"/>
+      <c r="B6" s="46"/>
+      <c r="C6" s="46"/>
+      <c r="D6" s="46"/>
+      <c r="E6" s="46"/>
+      <c r="F6" s="46"/>
+      <c r="G6" s="46"/>
+      <c r="H6" s="46"/>
+      <c r="I6" s="47"/>
       <c r="J6" s="8"/>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
         <v>43667</v>
       </c>
@@ -1185,7 +1205,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="30" customHeight="1">
+    <row r="8" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
         <v>43675</v>
       </c>
@@ -1208,7 +1228,7 @@
       </c>
       <c r="I8" s="11"/>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
         <v>43681</v>
       </c>
@@ -1237,7 +1257,7 @@
         <v>1680</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
         <v>43705</v>
       </c>
@@ -1266,7 +1286,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
         <v>43711</v>
       </c>
@@ -1295,7 +1315,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
         <v>43730</v>
       </c>
@@ -1318,11 +1338,11 @@
         <v>2</v>
       </c>
       <c r="H12" s="11"/>
-      <c r="I12" s="11">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="42">
+      <c r="I12" s="11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="12">
         <v>43747</v>
       </c>
@@ -1345,7 +1365,7 @@
       </c>
       <c r="I13" s="11"/>
     </row>
-    <row r="14" spans="1:10">
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="11"/>
       <c r="B14" s="11"/>
       <c r="C14" s="11"/>
@@ -1356,7 +1376,7 @@
       <c r="H14" s="11"/>
       <c r="I14" s="11"/>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="11"/>
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
@@ -1367,7 +1387,7 @@
       <c r="H15" s="11"/>
       <c r="I15" s="11"/>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="11"/>
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
@@ -1378,7 +1398,7 @@
       <c r="H16" s="11"/>
       <c r="I16" s="11"/>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="11"/>
       <c r="B17" s="11"/>
       <c r="C17" s="11"/>
@@ -1389,7 +1409,7 @@
       <c r="H17" s="11"/>
       <c r="I17" s="11"/>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="11"/>
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
@@ -1417,21 +1437,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" style="29" customWidth="1"/>
-    <col min="2" max="3" width="11.5" style="29"/>
-    <col min="4" max="4" width="17.5" style="29" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="11.5" style="29"/>
-    <col min="8" max="8" width="19.5" style="29" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="11.5" style="29"/>
+    <col min="1" max="1" width="13.28515625" style="29" customWidth="1"/>
+    <col min="2" max="3" width="11.42578125" style="29"/>
+    <col min="4" max="4" width="17.42578125" style="29" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="11.42578125" style="29"/>
+    <col min="8" max="8" width="19.42578125" style="29" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="11.42578125" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="28">
+    <row r="1" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -1466,7 +1486,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="28">
+    <row r="2" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="14">
         <v>43604</v>
       </c>
@@ -1504,7 +1524,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="14">
         <v>43616</v>
       </c>
@@ -1541,7 +1561,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="14">
         <v>43604</v>
       </c>
@@ -1577,7 +1597,7 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16">
         <v>43638</v>
       </c>
@@ -1614,7 +1634,7 @@
         <v>1445</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="19">
         <v>43640</v>
       </c>
@@ -1651,7 +1671,7 @@
         <v>4805</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="22">
         <v>43638</v>
       </c>
@@ -1688,7 +1708,7 @@
         <v>6065</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="23"/>
       <c r="B8" s="23"/>
       <c r="C8" s="23"/>
@@ -1710,7 +1730,7 @@
         <v>5963</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="23"/>
       <c r="C9" s="23"/>
@@ -1732,7 +1752,7 @@
         <v>8963</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="49" customFormat="1">
+    <row r="10" spans="1:11" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="24">
         <v>43667</v>
       </c>
@@ -1768,7 +1788,7 @@
         <v>9803</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="49" customFormat="1">
+    <row r="11" spans="1:11" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="24">
         <v>43681</v>
       </c>
@@ -1804,7 +1824,7 @@
         <v>11483</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="26">
         <v>43689</v>
       </c>
@@ -1818,17 +1838,17 @@
         <v>31</v>
       </c>
       <c r="I12" s="25">
-        <v>-10500</v>
+        <v>-10000</v>
       </c>
       <c r="J12" s="25" t="s">
         <v>30</v>
       </c>
       <c r="K12" s="15">
         <f t="shared" si="0"/>
-        <v>983</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" s="49" customFormat="1">
+        <v>1483</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="24">
         <v>43705</v>
       </c>
@@ -1860,10 +1880,10 @@
         <v>29</v>
       </c>
       <c r="K13" s="17">
-        <v>1508</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" s="49" customFormat="1">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="24">
         <v>43711</v>
       </c>
@@ -1895,10 +1915,10 @@
         <v>29</v>
       </c>
       <c r="K14" s="17">
-        <v>2138</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" s="49" customFormat="1">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="24">
         <v>43730</v>
       </c>
@@ -1930,37 +1950,51 @@
         <v>29</v>
       </c>
       <c r="K15" s="17">
-        <v>2558</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11">
-      <c r="A16" s="28"/>
-      <c r="B16" s="28"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="28"/>
-      <c r="J16" s="28"/>
-      <c r="K16" s="28"/>
-    </row>
-    <row r="17" spans="1:11">
-      <c r="A17" s="28"/>
-      <c r="B17" s="28"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="28"/>
-      <c r="J17" s="28"/>
-      <c r="K17" s="28"/>
+        <v>420</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="52">
+        <v>43755</v>
+      </c>
+      <c r="B16" s="51"/>
+      <c r="C16" s="51" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="51" t="s">
+        <v>62</v>
+      </c>
+      <c r="E16" s="51"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="51"/>
+      <c r="I16" s="51">
+        <v>1000</v>
+      </c>
+      <c r="J16" s="51"/>
+      <c r="K16" s="51">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" s="53" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="51"/>
+      <c r="B17" s="51"/>
+      <c r="C17" s="51"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="51"/>
+      <c r="G17" s="51"/>
+      <c r="H17" s="51"/>
+      <c r="I17" s="51"/>
+      <c r="J17" s="51"/>
+      <c r="K17" s="51">
+        <f>SUM(K12:K16)</f>
+        <v>4058</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -1977,12 +2011,12 @@
       <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="33" t="s">
         <v>32</v>
       </c>
@@ -1999,7 +2033,7 @@
       <c r="H1" s="30"/>
       <c r="I1" s="30"/>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="32">
         <v>1</v>
       </c>
@@ -2016,7 +2050,7 @@
       <c r="H2" s="30"/>
       <c r="I2" s="30"/>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="32">
         <v>2</v>
       </c>
@@ -2033,7 +2067,7 @@
       <c r="H3" s="30"/>
       <c r="I3" s="30"/>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="32">
         <v>3</v>
       </c>
@@ -2050,7 +2084,7 @@
       <c r="H4" s="30"/>
       <c r="I4" s="30"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="32">
         <v>4</v>
       </c>
@@ -2067,7 +2101,7 @@
       <c r="H5" s="30"/>
       <c r="I5" s="30"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="32">
         <v>5</v>
       </c>
@@ -2102,50 +2136,50 @@
       <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="16.5" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="41" customHeight="1">
-      <c r="A1" s="46" t="s">
+    <row r="1" spans="1:6" ht="41.1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="46" t="s">
+      <c r="B1" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="C1" s="46" t="s">
+      <c r="C1" s="40" t="s">
         <v>60</v>
       </c>
-      <c r="D1" s="46" t="s">
+      <c r="D1" s="40" t="s">
         <v>58</v>
       </c>
       <c r="E1" s="27" t="s">
         <v>61</v>
       </c>
-      <c r="F1" s="47" t="s">
+      <c r="F1" s="41" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="22">
         <v>43646</v>
       </c>
       <c r="B2" s="23"/>
       <c r="C2" s="23"/>
-      <c r="D2" s="48" t="s">
+      <c r="D2" s="42" t="s">
         <v>59</v>
       </c>
-      <c r="E2" s="48"/>
+      <c r="E2" s="42"/>
       <c r="F2" s="23">
         <v>77100</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="22">
         <v>43748</v>
       </c>
-      <c r="B3" s="45">
+      <c r="B3" s="39">
         <v>60</v>
       </c>
       <c r="C3" s="23">
@@ -2162,11 +2196,11 @@
         <v>80046</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="22">
         <v>43748</v>
       </c>
-      <c r="B4" s="45">
+      <c r="B4" s="39">
         <v>62</v>
       </c>
       <c r="C4" s="23">
@@ -2183,9 +2217,9 @@
         <v>101450</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D15" s="36"/>
-      <c r="E15" s="50"/>
+      <c r="E15" s="44"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2202,13 +2236,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="30" t="s">
         <v>40</v>
       </c>
@@ -2216,11 +2250,11 @@
         <v>114</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="30"/>
       <c r="B3" s="32"/>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="30" t="s">
         <v>43</v>
       </c>
@@ -2234,7 +2268,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="30" t="s">
         <v>27</v>
       </c>
@@ -2242,7 +2276,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="30" t="s">
         <v>42</v>
       </c>
@@ -2250,7 +2284,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="30" t="s">
         <v>27</v>
       </c>
@@ -2258,7 +2292,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="8" spans="1:8">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="30" t="s">
         <v>50</v>
       </c>
@@ -2266,7 +2300,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:8">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="30" t="s">
         <v>51</v>
       </c>
@@ -2274,7 +2308,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="10" spans="1:8">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="30" t="s">
         <v>27</v>
       </c>
@@ -2282,7 +2316,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:8">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="36" t="s">
         <v>52</v>
       </c>
@@ -2290,7 +2324,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="12" spans="1:8">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="36" t="s">
         <v>53</v>
       </c>
@@ -2298,7 +2332,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="13" spans="1:8">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="36" t="s">
         <v>54</v>
       </c>
@@ -2306,7 +2340,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="14" spans="1:8">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="36" t="s">
         <v>53</v>
       </c>
@@ -2314,7 +2348,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="15" spans="1:8">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="36" t="s">
         <v>27</v>
       </c>
@@ -2341,36 +2375,36 @@
       <selection activeCell="I14" sqref="H1:I14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5" style="6"/>
-    <col min="2" max="2" width="6.5" style="31" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" style="31" customWidth="1"/>
-    <col min="4" max="5" width="11.5" style="6"/>
-    <col min="6" max="6" width="23.6640625" style="6" customWidth="1"/>
-    <col min="7" max="7" width="11.5" style="6"/>
-    <col min="8" max="8" width="14.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5" style="31"/>
-    <col min="10" max="16384" width="11.5" style="6"/>
+    <col min="1" max="1" width="11.42578125" style="6"/>
+    <col min="2" max="2" width="6.42578125" style="31" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" style="31" customWidth="1"/>
+    <col min="4" max="5" width="11.42578125" style="6"/>
+    <col min="6" max="6" width="23.7109375" style="6" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" style="6"/>
+    <col min="8" max="8" width="14.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" style="31"/>
+    <col min="10" max="16384" width="11.42578125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="40" t="s">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="48" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="41" t="s">
+      <c r="B1" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="C1" s="41" t="s">
+      <c r="C1" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="41" t="s">
+      <c r="D1" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="E1" s="41" t="s">
+      <c r="E1" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="F1" s="42" t="s">
+      <c r="F1" s="50" t="s">
         <v>26</v>
       </c>
       <c r="H1" s="30" t="s">
@@ -2380,21 +2414,21 @@
         <v>114</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="43"/>
-      <c r="B2" s="41" t="s">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="49"/>
+      <c r="B2" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="41" t="s">
+      <c r="C2" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="41" t="s">
+      <c r="D2" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="E2" s="41" t="s">
+      <c r="E2" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="F2" s="42"/>
+      <c r="F2" s="50"/>
       <c r="H2" s="30" t="s">
         <v>41</v>
       </c>
@@ -2402,21 +2436,21 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="44">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="38">
         <v>43646</v>
       </c>
-      <c r="B3" s="45">
+      <c r="B3" s="39">
         <v>12</v>
       </c>
-      <c r="C3" s="45">
+      <c r="C3" s="39">
         <v>8</v>
       </c>
-      <c r="D3" s="45">
+      <c r="D3" s="39">
         <v>12</v>
       </c>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45">
+      <c r="E3" s="39"/>
+      <c r="F3" s="39">
         <v>77100</v>
       </c>
       <c r="H3" s="30" t="s">
@@ -2426,19 +2460,19 @@
         <v>24</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="44">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="38">
         <v>43748</v>
       </c>
-      <c r="B4" s="45">
+      <c r="B4" s="39">
         <v>2</v>
       </c>
-      <c r="C4" s="45"/>
-      <c r="D4" s="45"/>
-      <c r="E4" s="45">
+      <c r="C4" s="39"/>
+      <c r="D4" s="39"/>
+      <c r="E4" s="39">
         <v>8</v>
       </c>
-      <c r="F4" s="45">
+      <c r="F4" s="39">
         <v>24150</v>
       </c>
       <c r="H4" s="30" t="s">
@@ -2448,7 +2482,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B5" s="6"/>
       <c r="C5" s="6"/>
       <c r="H5" s="30" t="s">
@@ -2458,7 +2492,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
       <c r="H6" s="30" t="s">
@@ -2468,7 +2502,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
       <c r="H7" s="30" t="s">
@@ -2478,7 +2512,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:9">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
       <c r="H8" s="30" t="s">
@@ -2488,7 +2522,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
       <c r="H9" s="30" t="s">
@@ -2498,7 +2532,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:9">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
       <c r="H10" s="36" t="s">
@@ -2508,7 +2542,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="11" spans="1:9">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
       <c r="H11" s="36" t="s">
@@ -2518,7 +2552,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H12" s="36" t="s">
         <v>54</v>
       </c>
@@ -2526,7 +2560,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H13" s="36" t="s">
         <v>53</v>
       </c>
@@ -2534,7 +2568,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="14" spans="1:9">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="H14" s="36" t="s">
         <v>27</v>
       </c>
@@ -2542,10 +2576,10 @@
         <v>23</v>
       </c>
     </row>
-    <row r="15" spans="1:9">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I15" s="6"/>
     </row>
-    <row r="16" spans="1:9">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I16" s="6"/>
     </row>
   </sheetData>

--- a/Accounts.xlsx
+++ b/Accounts.xlsx
@@ -1,38 +1,34 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gaurav Aggarwal\Documents\FarmaBusinessAccount\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="20225"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="14235"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14240" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Account" sheetId="1" r:id="rId1"/>
-    <sheet name="HariOm" sheetId="2" r:id="rId2"/>
-    <sheet name="Thakedaar" sheetId="4" r:id="rId3"/>
-    <sheet name="Purchase" sheetId="5" r:id="rId4"/>
-    <sheet name="Bolts" sheetId="6" r:id="rId5"/>
-    <sheet name="TotalFarme" sheetId="3" r:id="rId6"/>
+    <sheet name="Thakedaar" sheetId="4" r:id="rId2"/>
+    <sheet name="Purchase" sheetId="5" r:id="rId3"/>
+    <sheet name="Bolts" sheetId="6" r:id="rId4"/>
+    <sheet name="TotalFarme" sheetId="3" r:id="rId5"/>
+    <sheet name="HariOm" sheetId="2" r:id="rId6"/>
+    <sheet name="DharamNath" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="72">
   <si>
     <t>Date</t>
   </si>
@@ -225,13 +221,37 @@
     <t>FOLDING</t>
   </si>
   <si>
-    <t>s</t>
+    <t xml:space="preserve">Number </t>
+  </si>
+  <si>
+    <t>Price</t>
+  </si>
+  <si>
+    <t>With Whom</t>
+  </si>
+  <si>
+    <t>Inventory</t>
+  </si>
+  <si>
+    <t>HariOm</t>
+  </si>
+  <si>
+    <t>Length</t>
+  </si>
+  <si>
+    <t>Radius</t>
+  </si>
+  <si>
+    <t>Farma</t>
+  </si>
+  <si>
+    <t>Bolts</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -270,7 +290,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -295,8 +315,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -391,8 +417,17 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="95">
+  <cellStyleXfs count="109">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -488,8 +523,22 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -613,6 +662,18 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -631,17 +692,18 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="95">
+  <cellStyles count="109">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -689,6 +751,13 @@
     <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -736,6 +805,13 @@
     <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -1006,7 +1082,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1016,20 +1092,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="13.1640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="3" width="13.140625" style="7"/>
-    <col min="4" max="4" width="21.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="13.140625" style="7"/>
-    <col min="8" max="8" width="35.85546875" style="7" customWidth="1"/>
-    <col min="9" max="16384" width="13.140625" style="7"/>
+    <col min="1" max="3" width="13.1640625" style="7"/>
+    <col min="4" max="4" width="21.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="13.1640625" style="7"/>
+    <col min="8" max="8" width="35.83203125" style="7" customWidth="1"/>
+    <col min="9" max="16384" width="13.1640625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1058,7 +1134,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="A2" s="2">
         <v>43604</v>
       </c>
@@ -1089,7 +1165,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="A3" s="2">
         <v>43616</v>
       </c>
@@ -1119,7 +1195,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="A4" s="4">
         <v>43604</v>
       </c>
@@ -1148,7 +1224,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -1162,21 +1238,21 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="45" t="s">
+    <row r="6" spans="1:10">
+      <c r="A6" s="49" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="46"/>
-      <c r="C6" s="46"/>
-      <c r="D6" s="46"/>
-      <c r="E6" s="46"/>
-      <c r="F6" s="46"/>
-      <c r="G6" s="46"/>
-      <c r="H6" s="46"/>
-      <c r="I6" s="47"/>
+      <c r="B6" s="50"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="50"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="51"/>
       <c r="J6" s="8"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10">
       <c r="A7" s="12">
         <v>43667</v>
       </c>
@@ -1205,7 +1281,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="30" customHeight="1">
       <c r="A8" s="12">
         <v>43675</v>
       </c>
@@ -1228,7 +1304,7 @@
       </c>
       <c r="I8" s="11"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10">
       <c r="A9" s="12">
         <v>43681</v>
       </c>
@@ -1257,7 +1333,7 @@
         <v>1680</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10">
       <c r="A10" s="12">
         <v>43705</v>
       </c>
@@ -1286,7 +1362,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10">
       <c r="A11" s="12">
         <v>43711</v>
       </c>
@@ -1315,7 +1391,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10">
       <c r="A12" s="12">
         <v>43730</v>
       </c>
@@ -1338,11 +1414,11 @@
         <v>2</v>
       </c>
       <c r="H12" s="11"/>
-      <c r="I12" s="11" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+      <c r="I12" s="11">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" ht="42">
       <c r="A13" s="12">
         <v>43747</v>
       </c>
@@ -1365,7 +1441,7 @@
       </c>
       <c r="I13" s="11"/>
     </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10">
       <c r="A14" s="11"/>
       <c r="B14" s="11"/>
       <c r="C14" s="11"/>
@@ -1376,7 +1452,7 @@
       <c r="H14" s="11"/>
       <c r="I14" s="11"/>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10">
       <c r="A15" s="11"/>
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
@@ -1387,7 +1463,7 @@
       <c r="H15" s="11"/>
       <c r="I15" s="11"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10">
       <c r="A16" s="11"/>
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
@@ -1398,7 +1474,7 @@
       <c r="H16" s="11"/>
       <c r="I16" s="11"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9">
       <c r="A17" s="11"/>
       <c r="B17" s="11"/>
       <c r="C17" s="11"/>
@@ -1409,7 +1485,7 @@
       <c r="H17" s="11"/>
       <c r="I17" s="11"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9">
       <c r="A18" s="11"/>
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
@@ -1435,566 +1511,121 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="N8" sqref="N8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" style="29" customWidth="1"/>
-    <col min="2" max="3" width="11.42578125" style="29"/>
-    <col min="4" max="4" width="17.42578125" style="29" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="11.42578125" style="29"/>
-    <col min="8" max="8" width="19.42578125" style="29" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="11.42578125" style="29"/>
+    <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>7</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" s="13" t="s">
+    <row r="1" spans="1:9">
+      <c r="A1" s="33" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" s="30" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" s="32" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="32">
         <v>1</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="B2" s="30" t="s">
+        <v>35</v>
+      </c>
+      <c r="C2" s="32">
+        <v>9654753654</v>
+      </c>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
+      <c r="F2" s="30"/>
+      <c r="G2" s="30"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="30"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="32">
         <v>2</v>
       </c>
-      <c r="F1" s="13" t="s">
-        <v>6</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>11</v>
-      </c>
-      <c r="H1" s="13" t="s">
+      <c r="B3" s="30" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" s="32">
+        <v>9999006467</v>
+      </c>
+      <c r="D3" s="30"/>
+      <c r="E3" s="30"/>
+      <c r="F3" s="30"/>
+      <c r="G3" s="30"/>
+      <c r="H3" s="30"/>
+      <c r="I3" s="30"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="32">
+        <v>3</v>
+      </c>
+      <c r="B4" s="30" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="32">
+        <v>9560521439</v>
+      </c>
+      <c r="D4" s="30"/>
+      <c r="E4" s="30"/>
+      <c r="F4" s="30"/>
+      <c r="G4" s="30"/>
+      <c r="H4" s="30"/>
+      <c r="I4" s="30"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="32">
+        <v>4</v>
+      </c>
+      <c r="B5" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" s="32">
+        <v>8766304037</v>
+      </c>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="32">
         <v>5</v>
       </c>
-      <c r="I1" s="13" t="s">
-        <v>10</v>
-      </c>
-      <c r="J1" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="K1" s="13" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" ht="30" x14ac:dyDescent="0.25">
-      <c r="A2" s="14">
-        <v>43604</v>
-      </c>
-      <c r="B2" s="14">
-        <v>43622</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="E2" s="15">
-        <v>1</v>
-      </c>
-      <c r="F2" s="15">
-        <v>35</v>
-      </c>
-      <c r="G2" s="15">
-        <f>(B2-A2)+1</f>
-        <v>19</v>
-      </c>
-      <c r="H2" s="15" t="s">
-        <v>9</v>
-      </c>
-      <c r="I2" s="15">
-        <f>35*G2</f>
-        <v>665</v>
-      </c>
-      <c r="J2" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="K2" s="21">
-        <f>I2</f>
-        <v>665</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="14">
-        <v>43616</v>
-      </c>
-      <c r="B3" s="14">
-        <v>43622</v>
-      </c>
-      <c r="C3" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="D3" s="15" t="s">
-        <v>3</v>
-      </c>
-      <c r="E3" s="15">
-        <v>2</v>
-      </c>
-      <c r="F3" s="15">
-        <v>35</v>
-      </c>
-      <c r="G3" s="15">
-        <f>(B3-A3)+1</f>
-        <v>7</v>
-      </c>
-      <c r="H3" s="15" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" s="15">
-        <v>490</v>
-      </c>
-      <c r="J3" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="K3" s="15">
-        <f>K2+I3</f>
-        <v>1155</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A4" s="14">
-        <v>43604</v>
-      </c>
-      <c r="B4" s="14">
-        <v>43622</v>
-      </c>
-      <c r="C4" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="E4" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="F4" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="G4" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="H4" s="15" t="s">
-        <v>13</v>
-      </c>
-      <c r="I4" s="15">
-        <v>150</v>
-      </c>
-      <c r="J4" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="K4" s="15">
-        <f t="shared" ref="K4:K12" si="0">K3+I4</f>
-        <v>1305</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A5" s="16">
-        <v>43638</v>
-      </c>
-      <c r="B5" s="16">
-        <v>43640</v>
-      </c>
-      <c r="C5" s="17" t="s">
-        <v>4</v>
-      </c>
-      <c r="D5" s="17" t="s">
-        <v>3</v>
-      </c>
-      <c r="E5" s="18">
-        <v>2</v>
-      </c>
-      <c r="F5" s="18">
-        <v>35</v>
-      </c>
-      <c r="G5" s="18">
-        <v>2</v>
-      </c>
-      <c r="H5" s="17" t="s">
-        <v>14</v>
-      </c>
-      <c r="I5" s="18">
-        <f>G5*F5*E5</f>
-        <v>140</v>
-      </c>
-      <c r="J5" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="K5" s="15">
-        <f t="shared" si="0"/>
-        <v>1445</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A6" s="19">
-        <v>43640</v>
-      </c>
-      <c r="B6" s="19">
-        <v>43664</v>
-      </c>
-      <c r="C6" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="D6" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" s="21">
-        <v>4</v>
-      </c>
-      <c r="F6" s="21">
-        <v>35</v>
-      </c>
-      <c r="G6" s="21">
-        <v>24</v>
-      </c>
-      <c r="H6" s="20" t="s">
-        <v>14</v>
-      </c>
-      <c r="I6" s="18">
-        <f t="shared" ref="I6:I7" si="1">G6*F6*E6</f>
-        <v>3360</v>
-      </c>
-      <c r="J6" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="K6" s="15">
-        <f t="shared" si="0"/>
-        <v>4805</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A7" s="22">
-        <v>43638</v>
-      </c>
-      <c r="B7" s="22">
-        <v>43656</v>
-      </c>
-      <c r="C7" s="23" t="s">
-        <v>4</v>
-      </c>
-      <c r="D7" s="23" t="s">
-        <v>20</v>
-      </c>
-      <c r="E7" s="23">
-        <v>2</v>
-      </c>
-      <c r="F7" s="23">
-        <v>35</v>
-      </c>
-      <c r="G7" s="23">
-        <v>18</v>
-      </c>
-      <c r="H7" s="23" t="s">
-        <v>14</v>
-      </c>
-      <c r="I7" s="18">
-        <f t="shared" si="1"/>
-        <v>1260</v>
-      </c>
-      <c r="J7" s="15" t="s">
-        <v>29</v>
-      </c>
-      <c r="K7" s="15">
-        <f t="shared" si="0"/>
-        <v>6065</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A8" s="23"/>
-      <c r="B8" s="23"/>
-      <c r="C8" s="23"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23" t="s">
-        <v>5</v>
-      </c>
-      <c r="I8" s="23">
-        <v>-102</v>
-      </c>
-      <c r="J8" s="23" t="s">
-        <v>30</v>
-      </c>
-      <c r="K8" s="15">
-        <f t="shared" si="0"/>
-        <v>5963</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="23"/>
-      <c r="B9" s="23"/>
-      <c r="C9" s="23"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23" t="s">
-        <v>21</v>
-      </c>
-      <c r="I9" s="23">
-        <v>3000</v>
-      </c>
-      <c r="J9" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="K9" s="15">
-        <f t="shared" si="0"/>
-        <v>8963</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="24">
-        <v>43667</v>
-      </c>
-      <c r="B10" s="24">
-        <v>43679</v>
-      </c>
-      <c r="C10" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="D10" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="E10" s="25">
-        <v>2</v>
-      </c>
-      <c r="F10" s="25">
-        <v>35</v>
-      </c>
-      <c r="G10" s="25">
-        <v>12</v>
-      </c>
-      <c r="H10" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="I10" s="25">
-        <v>840</v>
-      </c>
-      <c r="J10" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="K10" s="15">
-        <f t="shared" si="0"/>
-        <v>9803</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="24">
-        <v>43681</v>
-      </c>
-      <c r="B11" s="24">
-        <v>43688</v>
-      </c>
-      <c r="C11" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="D11" s="25" t="s">
-        <v>25</v>
-      </c>
-      <c r="E11" s="25">
-        <v>6</v>
-      </c>
-      <c r="F11" s="25">
-        <v>35</v>
-      </c>
-      <c r="G11" s="25">
-        <v>8</v>
-      </c>
-      <c r="H11" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="I11" s="25">
-        <v>1680</v>
-      </c>
-      <c r="J11" s="23" t="s">
-        <v>29</v>
-      </c>
-      <c r="K11" s="15">
-        <f t="shared" si="0"/>
-        <v>11483</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A12" s="26">
-        <v>43689</v>
-      </c>
-      <c r="B12" s="27"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="27" t="s">
-        <v>31</v>
-      </c>
-      <c r="I12" s="25">
-        <v>-10000</v>
-      </c>
-      <c r="J12" s="25" t="s">
-        <v>30</v>
-      </c>
-      <c r="K12" s="15">
-        <f t="shared" si="0"/>
-        <v>1483</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="24">
-        <v>43705</v>
-      </c>
-      <c r="B13" s="24">
-        <v>43710</v>
-      </c>
-      <c r="C13" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="D13" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="E13" s="25">
-        <v>3</v>
-      </c>
-      <c r="F13" s="25">
-        <v>35</v>
-      </c>
-      <c r="G13" s="25">
-        <v>5</v>
-      </c>
-      <c r="H13" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="I13" s="25">
-        <v>525</v>
-      </c>
-      <c r="J13" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="K13" s="17">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="24">
-        <v>43711</v>
-      </c>
-      <c r="B14" s="24">
-        <v>43714</v>
-      </c>
-      <c r="C14" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="D14" s="25" t="s">
-        <v>46</v>
-      </c>
-      <c r="E14" s="25">
-        <v>6</v>
-      </c>
-      <c r="F14" s="25">
-        <v>35</v>
-      </c>
-      <c r="G14" s="25">
-        <v>3</v>
-      </c>
-      <c r="H14" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="I14" s="25">
-        <v>630</v>
-      </c>
-      <c r="J14" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="K14" s="17">
-        <v>630</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" s="43" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="24">
-        <v>43730</v>
-      </c>
-      <c r="B15" s="24">
-        <v>43732</v>
-      </c>
-      <c r="C15" s="25" t="s">
-        <v>4</v>
-      </c>
-      <c r="D15" s="25" t="s">
-        <v>44</v>
-      </c>
-      <c r="E15" s="25">
-        <v>6</v>
-      </c>
-      <c r="F15" s="25">
-        <v>35</v>
-      </c>
-      <c r="G15" s="25">
-        <v>2</v>
-      </c>
-      <c r="H15" s="25" t="s">
-        <v>12</v>
-      </c>
-      <c r="I15" s="25">
-        <v>420</v>
-      </c>
-      <c r="J15" s="17" t="s">
-        <v>29</v>
-      </c>
-      <c r="K15" s="17">
-        <v>420</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" s="53" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="52">
-        <v>43755</v>
-      </c>
-      <c r="B16" s="51"/>
-      <c r="C16" s="51" t="s">
-        <v>4</v>
-      </c>
-      <c r="D16" s="51" t="s">
-        <v>62</v>
-      </c>
-      <c r="E16" s="51"/>
-      <c r="F16" s="51"/>
-      <c r="G16" s="51"/>
-      <c r="H16" s="51"/>
-      <c r="I16" s="51">
-        <v>1000</v>
-      </c>
-      <c r="J16" s="51"/>
-      <c r="K16" s="51">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" s="53" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="51"/>
-      <c r="B17" s="51"/>
-      <c r="C17" s="51"/>
-      <c r="D17" s="51"/>
-      <c r="E17" s="51"/>
-      <c r="F17" s="51"/>
-      <c r="G17" s="51"/>
-      <c r="H17" s="51"/>
-      <c r="I17" s="51"/>
-      <c r="J17" s="51"/>
-      <c r="K17" s="51">
-        <f>SUM(K12:K16)</f>
-        <v>4058</v>
-      </c>
+      <c r="B6" s="30" t="s">
+        <v>39</v>
+      </c>
+      <c r="C6" s="32">
+        <v>9654416298</v>
+      </c>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -2005,118 +1636,98 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="33" t="s">
-        <v>32</v>
-      </c>
-      <c r="B1" s="30" t="s">
-        <v>33</v>
-      </c>
-      <c r="C1" s="32" t="s">
-        <v>34</v>
-      </c>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="32">
-        <v>1</v>
-      </c>
-      <c r="B2" s="30" t="s">
-        <v>35</v>
-      </c>
-      <c r="C2" s="32">
-        <v>9654753654</v>
-      </c>
-      <c r="D2" s="30"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="30"/>
-      <c r="H2" s="30"/>
-      <c r="I2" s="30"/>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="32">
-        <v>2</v>
-      </c>
-      <c r="B3" s="30" t="s">
-        <v>36</v>
-      </c>
-      <c r="C3" s="32">
-        <v>9999006467</v>
-      </c>
-      <c r="D3" s="30"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="30"/>
-      <c r="H3" s="30"/>
-      <c r="I3" s="30"/>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="32">
-        <v>3</v>
-      </c>
-      <c r="B4" s="30" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4" s="32">
-        <v>9560521439</v>
-      </c>
-      <c r="D4" s="30"/>
-      <c r="E4" s="30"/>
-      <c r="F4" s="30"/>
-      <c r="G4" s="30"/>
-      <c r="H4" s="30"/>
-      <c r="I4" s="30"/>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="32">
-        <v>4</v>
-      </c>
-      <c r="B5" s="30" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5" s="32">
-        <v>8766304037</v>
-      </c>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30"/>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="32">
-        <v>5</v>
-      </c>
-      <c r="B6" s="30" t="s">
-        <v>39</v>
-      </c>
-      <c r="C6" s="32">
-        <v>9654416298</v>
-      </c>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
+    <row r="1" spans="1:6" ht="41" customHeight="1">
+      <c r="A1" s="40" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="40" t="s">
+        <v>57</v>
+      </c>
+      <c r="C1" s="40" t="s">
+        <v>60</v>
+      </c>
+      <c r="D1" s="40" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" s="27" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" s="41" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="22">
+        <v>43646</v>
+      </c>
+      <c r="B2" s="23">
+        <v>65</v>
+      </c>
+      <c r="C2" s="23"/>
+      <c r="D2" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="E2" s="42"/>
+      <c r="F2" s="23">
+        <v>77100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="22">
+        <v>43748</v>
+      </c>
+      <c r="B3" s="39">
+        <v>60</v>
+      </c>
+      <c r="C3" s="23">
+        <v>49.1</v>
+      </c>
+      <c r="D3" s="23">
+        <v>2946</v>
+      </c>
+      <c r="E3" s="23">
+        <v>0</v>
+      </c>
+      <c r="F3" s="23">
+        <f>D3+F2+E3</f>
+        <v>80046</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" s="22">
+        <v>43748</v>
+      </c>
+      <c r="B4" s="39">
+        <v>62</v>
+      </c>
+      <c r="C4" s="23">
+        <v>342</v>
+      </c>
+      <c r="D4" s="23">
+        <v>21204</v>
+      </c>
+      <c r="E4" s="23">
+        <v>200</v>
+      </c>
+      <c r="F4" s="23">
+        <f>D4+F3+E4</f>
+        <v>101450</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="D15" s="36"/>
+      <c r="E15" s="44"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2130,96 +1741,161 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F15"/>
+  <dimension ref="A1:N25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="6" max="6" width="16.42578125" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="41.1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
+    <row r="1" spans="1:14">
+      <c r="A1" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="40" t="s">
-        <v>57</v>
-      </c>
-      <c r="C1" s="40" t="s">
-        <v>60</v>
-      </c>
-      <c r="D1" s="40" t="s">
-        <v>58</v>
-      </c>
-      <c r="E1" s="27" t="s">
-        <v>61</v>
-      </c>
-      <c r="F1" s="41" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" s="22">
-        <v>43646</v>
-      </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="42" t="s">
-        <v>59</v>
-      </c>
-      <c r="E2" s="42"/>
-      <c r="F2" s="23">
-        <v>77100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" s="22">
-        <v>43748</v>
-      </c>
-      <c r="B3" s="39">
-        <v>60</v>
-      </c>
-      <c r="C3" s="23">
-        <v>49.1</v>
-      </c>
-      <c r="D3" s="23">
-        <v>2946</v>
-      </c>
-      <c r="E3" s="23">
-        <v>0</v>
-      </c>
-      <c r="F3" s="23">
-        <f>D3+F2+E3</f>
-        <v>80046</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" s="22">
-        <v>43748</v>
-      </c>
-      <c r="B4" s="39">
-        <v>62</v>
-      </c>
-      <c r="C4" s="23">
-        <v>342</v>
-      </c>
-      <c r="D4" s="23">
-        <v>21204</v>
-      </c>
-      <c r="E4" s="23">
-        <v>200</v>
-      </c>
-      <c r="F4" s="23">
-        <f>D4+F3+E4</f>
-        <v>101450</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="D15" s="36"/>
-      <c r="E15" s="44"/>
+      <c r="B1" s="55" t="s">
+        <v>63</v>
+      </c>
+      <c r="C1" s="55" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="G4" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="H4" s="32">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="55" t="s">
+        <v>65</v>
+      </c>
+      <c r="B6" s="55" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14">
+      <c r="M12" s="30" t="s">
+        <v>40</v>
+      </c>
+      <c r="N12" s="32">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14">
+      <c r="M13" s="30"/>
+      <c r="N13" s="32"/>
+    </row>
+    <row r="14" spans="1:14">
+      <c r="M14" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="N14" s="32">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14">
+      <c r="M15" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="N15" s="32">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14">
+      <c r="M16" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="N16" s="32">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="17" spans="13:14">
+      <c r="M17" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="N17" s="32">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="13:14">
+      <c r="M18" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="N18" s="32">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="13:14">
+      <c r="M19" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="N19" s="32">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="20" spans="13:14">
+      <c r="M20" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="N20" s="32">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="13:14">
+      <c r="M21" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="N21" s="35">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="22" spans="13:14">
+      <c r="M22" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="N22" s="35">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23" spans="13:14">
+      <c r="M23" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="N23" s="35">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="24" spans="13:14">
+      <c r="M24" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="N24" s="35">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="25" spans="13:14">
+      <c r="M25" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="N25" s="35">
+        <v>23</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2234,131 +1910,296 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:H15"/>
+  <dimension ref="A1:K36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="H1" sqref="H1:K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <cols>
+    <col min="1" max="1" width="11.5" style="6"/>
+    <col min="2" max="2" width="6.5" style="31" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" style="31" customWidth="1"/>
+    <col min="4" max="5" width="11.5" style="6"/>
+    <col min="6" max="6" width="23.6640625" style="6" customWidth="1"/>
+    <col min="7" max="7" width="11.5" style="6"/>
+    <col min="8" max="8" width="14.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5" style="31"/>
+    <col min="10" max="16384" width="11.5" style="6"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="30" t="s">
+    <row r="1" spans="1:11">
+      <c r="A1" s="58" t="s">
+        <v>70</v>
+      </c>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="H1" s="58" t="s">
+        <v>71</v>
+      </c>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
+      <c r="K1" s="58"/>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="D2" s="37" t="s">
+        <v>16</v>
+      </c>
+      <c r="E2" s="37" t="s">
+        <v>55</v>
+      </c>
+      <c r="F2" s="54" t="s">
+        <v>26</v>
+      </c>
+      <c r="H2" s="52" t="s">
+        <v>0</v>
+      </c>
+      <c r="I2" s="37" t="s">
+        <v>68</v>
+      </c>
+      <c r="J2" s="37" t="s">
+        <v>69</v>
+      </c>
+      <c r="K2" s="56" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="53"/>
+      <c r="B3" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="C3" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="37" t="s">
+        <v>56</v>
+      </c>
+      <c r="F3" s="54"/>
+      <c r="H3" s="53"/>
+      <c r="I3" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="37" t="s">
+        <v>18</v>
+      </c>
+      <c r="K3" s="57"/>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="38">
+        <v>43646</v>
+      </c>
+      <c r="B4" s="39">
+        <v>12</v>
+      </c>
+      <c r="C4" s="39">
+        <v>8</v>
+      </c>
+      <c r="D4" s="39">
+        <v>12</v>
+      </c>
+      <c r="E4" s="39"/>
+      <c r="F4" s="39">
+        <v>77100</v>
+      </c>
+      <c r="H4" s="38"/>
+      <c r="I4" s="45"/>
+      <c r="J4" s="45"/>
+      <c r="K4" s="45"/>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="38">
+        <v>43748</v>
+      </c>
+      <c r="B5" s="39">
+        <v>2</v>
+      </c>
+      <c r="C5" s="39"/>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39">
+        <v>8</v>
+      </c>
+      <c r="F5" s="39">
+        <v>24150</v>
+      </c>
+      <c r="H5" s="38"/>
+      <c r="I5" s="45"/>
+      <c r="J5" s="45"/>
+      <c r="K5" s="45"/>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="B6" s="6"/>
+      <c r="C6" s="6"/>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="B7" s="6"/>
+      <c r="C7" s="6"/>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="B8" s="6"/>
+      <c r="C8" s="6"/>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="B10" s="6"/>
+      <c r="C10" s="6"/>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="B11" s="6"/>
+      <c r="C11" s="6"/>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="B12" s="6"/>
+      <c r="C12" s="6"/>
+    </row>
+    <row r="16" spans="1:11">
+      <c r="I16" s="6"/>
+    </row>
+    <row r="17" spans="6:9">
+      <c r="I17" s="6"/>
+    </row>
+    <row r="23" spans="6:9">
+      <c r="F23" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="B2" s="32">
+      <c r="G23" s="32">
         <v>114</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" s="30"/>
-      <c r="B3" s="32"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" s="30" t="s">
+    <row r="24" spans="6:9">
+      <c r="F24" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="G24" s="32">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="25" spans="6:9">
+      <c r="F25" s="30" t="s">
         <v>43</v>
       </c>
-      <c r="B4" s="32">
+      <c r="G25" s="32">
         <v>24</v>
       </c>
-      <c r="G4" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="H4" s="32">
+    </row>
+    <row r="26" spans="6:9">
+      <c r="F26" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="G26" s="32">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="27" spans="6:9">
+      <c r="F27" s="30" t="s">
+        <v>42</v>
+      </c>
+      <c r="G27" s="32">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="6:9">
+      <c r="F28" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="G28" s="32">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="29" spans="6:9">
+      <c r="F29" s="30" t="s">
+        <v>50</v>
+      </c>
+      <c r="G29" s="32">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="30" spans="6:9">
+      <c r="F30" s="30" t="s">
+        <v>51</v>
+      </c>
+      <c r="G30" s="32">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="31" spans="6:9">
+      <c r="F31" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="G31" s="32">
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" s="30" t="s">
+    <row r="32" spans="6:9">
+      <c r="F32" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="G32" s="34">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="33" spans="6:7">
+      <c r="F33" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="G33" s="34">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="34" spans="6:7">
+      <c r="F34" s="36" t="s">
+        <v>54</v>
+      </c>
+      <c r="G34" s="34">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="35" spans="6:7">
+      <c r="F35" s="36" t="s">
+        <v>53</v>
+      </c>
+      <c r="G35" s="34">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="36" spans="6:7">
+      <c r="F36" s="36" t="s">
         <v>27</v>
       </c>
-      <c r="B5" s="32">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="B6" s="32">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7" s="32">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="B8" s="32">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="B9" s="32">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="B10" s="32">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" s="36" t="s">
-        <v>52</v>
-      </c>
-      <c r="B11" s="35">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12" s="36" t="s">
-        <v>53</v>
-      </c>
-      <c r="B12" s="35">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13" s="36" t="s">
-        <v>54</v>
-      </c>
-      <c r="B13" s="35">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="36" t="s">
-        <v>53</v>
-      </c>
-      <c r="B14" s="35">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15" s="36" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" s="35">
+      <c r="G36" s="34">
         <v>23</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="H2:H3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="H1:K1"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -2369,224 +2210,566 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:K17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I14" sqref="H1:I14"/>
+      <selection sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="6"/>
-    <col min="2" max="2" width="6.42578125" style="31" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" style="31" customWidth="1"/>
-    <col min="4" max="5" width="11.42578125" style="6"/>
-    <col min="6" max="6" width="23.7109375" style="6" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" style="6"/>
-    <col min="8" max="8" width="14.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" style="31"/>
-    <col min="10" max="16384" width="11.42578125" style="6"/>
+    <col min="1" max="1" width="13.33203125" style="29" customWidth="1"/>
+    <col min="2" max="3" width="11.5" style="29"/>
+    <col min="4" max="4" width="17.5" style="29" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="11.5" style="29"/>
+    <col min="8" max="8" width="19.5" style="29" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="11.5" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" s="48" t="s">
+    <row r="1" spans="1:11" ht="28">
+      <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" s="37" t="s">
-        <v>16</v>
-      </c>
-      <c r="E1" s="37" t="s">
-        <v>55</v>
-      </c>
-      <c r="F1" s="50" t="s">
-        <v>26</v>
-      </c>
-      <c r="H1" s="30" t="s">
-        <v>40</v>
-      </c>
-      <c r="I1" s="32">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A2" s="49"/>
-      <c r="B2" s="37" t="s">
+      <c r="B1" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="28">
+      <c r="A2" s="14">
+        <v>43604</v>
+      </c>
+      <c r="B2" s="14">
+        <v>43622</v>
+      </c>
+      <c r="C2" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="15">
+        <v>1</v>
+      </c>
+      <c r="F2" s="15">
+        <v>35</v>
+      </c>
+      <c r="G2" s="15">
+        <f>(B2-A2)+1</f>
+        <v>19</v>
+      </c>
+      <c r="H2" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="15">
+        <f>35*G2</f>
+        <v>665</v>
+      </c>
+      <c r="J2" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="K2" s="21">
+        <f>I2</f>
+        <v>665</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="14">
+        <v>43616</v>
+      </c>
+      <c r="B3" s="14">
+        <v>43622</v>
+      </c>
+      <c r="C3" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D3" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="E3" s="15">
+        <v>2</v>
+      </c>
+      <c r="F3" s="15">
+        <v>35</v>
+      </c>
+      <c r="G3" s="15">
+        <f>(B3-A3)+1</f>
+        <v>7</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="I3" s="15">
+        <v>490</v>
+      </c>
+      <c r="J3" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="K3" s="15">
+        <f>K2+I3</f>
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="14">
+        <v>43604</v>
+      </c>
+      <c r="B4" s="14">
+        <v>43622</v>
+      </c>
+      <c r="C4" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="H4" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="I4" s="15">
+        <v>150</v>
+      </c>
+      <c r="J4" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="K4" s="15">
+        <f t="shared" ref="K4:K12" si="0">K3+I4</f>
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="16">
+        <v>43638</v>
+      </c>
+      <c r="B5" s="16">
+        <v>43640</v>
+      </c>
+      <c r="C5" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="D5" s="17" t="s">
+        <v>3</v>
+      </c>
+      <c r="E5" s="18">
+        <v>2</v>
+      </c>
+      <c r="F5" s="18">
+        <v>35</v>
+      </c>
+      <c r="G5" s="18">
+        <v>2</v>
+      </c>
+      <c r="H5" s="17" t="s">
+        <v>14</v>
+      </c>
+      <c r="I5" s="18">
+        <f>G5*F5*E5</f>
+        <v>140</v>
+      </c>
+      <c r="J5" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="K5" s="15">
+        <f t="shared" si="0"/>
+        <v>1445</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="19">
+        <v>43640</v>
+      </c>
+      <c r="B6" s="19">
+        <v>43664</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="D6" s="20" t="s">
+        <v>3</v>
+      </c>
+      <c r="E6" s="21">
+        <v>4</v>
+      </c>
+      <c r="F6" s="21">
+        <v>35</v>
+      </c>
+      <c r="G6" s="21">
+        <v>24</v>
+      </c>
+      <c r="H6" s="20" t="s">
+        <v>14</v>
+      </c>
+      <c r="I6" s="18">
+        <f t="shared" ref="I6:I7" si="1">G6*F6*E6</f>
+        <v>3360</v>
+      </c>
+      <c r="J6" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="K6" s="15">
+        <f t="shared" si="0"/>
+        <v>4805</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="22">
+        <v>43638</v>
+      </c>
+      <c r="B7" s="22">
+        <v>43656</v>
+      </c>
+      <c r="C7" s="23" t="s">
+        <v>4</v>
+      </c>
+      <c r="D7" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="E7" s="23">
+        <v>2</v>
+      </c>
+      <c r="F7" s="23">
+        <v>35</v>
+      </c>
+      <c r="G7" s="23">
         <v>18</v>
       </c>
-      <c r="C2" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="D2" s="37" t="s">
-        <v>18</v>
-      </c>
-      <c r="E2" s="37" t="s">
-        <v>56</v>
-      </c>
-      <c r="F2" s="50"/>
-      <c r="H2" s="30" t="s">
-        <v>41</v>
-      </c>
-      <c r="I2" s="32">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" s="38">
-        <v>43646</v>
-      </c>
-      <c r="B3" s="39">
+      <c r="H7" s="23" t="s">
+        <v>14</v>
+      </c>
+      <c r="I7" s="18">
+        <f t="shared" si="1"/>
+        <v>1260</v>
+      </c>
+      <c r="J7" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="K7" s="15">
+        <f t="shared" si="0"/>
+        <v>6065</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="23"/>
+      <c r="B8" s="23"/>
+      <c r="C8" s="23"/>
+      <c r="D8" s="23"/>
+      <c r="E8" s="23"/>
+      <c r="F8" s="23"/>
+      <c r="G8" s="23"/>
+      <c r="H8" s="23" t="s">
+        <v>5</v>
+      </c>
+      <c r="I8" s="23">
+        <v>-102</v>
+      </c>
+      <c r="J8" s="23" t="s">
+        <v>30</v>
+      </c>
+      <c r="K8" s="15">
+        <f t="shared" si="0"/>
+        <v>5963</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="23"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="23"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="23"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="23"/>
+      <c r="H9" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="I9" s="23">
+        <v>3000</v>
+      </c>
+      <c r="J9" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="K9" s="15">
+        <f t="shared" si="0"/>
+        <v>8963</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" s="43" customFormat="1">
+      <c r="A10" s="24">
+        <v>43667</v>
+      </c>
+      <c r="B10" s="24">
+        <v>43679</v>
+      </c>
+      <c r="C10" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="D10" s="25" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="25">
+        <v>2</v>
+      </c>
+      <c r="F10" s="25">
+        <v>35</v>
+      </c>
+      <c r="G10" s="25">
         <v>12</v>
       </c>
-      <c r="C3" s="39">
+      <c r="H10" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="I10" s="25">
+        <v>840</v>
+      </c>
+      <c r="J10" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="K10" s="15">
+        <f t="shared" si="0"/>
+        <v>9803</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" s="43" customFormat="1">
+      <c r="A11" s="24">
+        <v>43681</v>
+      </c>
+      <c r="B11" s="24">
+        <v>43688</v>
+      </c>
+      <c r="C11" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="D11" s="25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E11" s="25">
+        <v>6</v>
+      </c>
+      <c r="F11" s="25">
+        <v>35</v>
+      </c>
+      <c r="G11" s="25">
         <v>8</v>
       </c>
-      <c r="D3" s="39">
+      <c r="H11" s="25" t="s">
         <v>12</v>
       </c>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39">
-        <v>77100</v>
-      </c>
-      <c r="H3" s="30" t="s">
-        <v>43</v>
-      </c>
-      <c r="I3" s="32">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="38">
-        <v>43748</v>
-      </c>
-      <c r="B4" s="39">
+      <c r="I11" s="25">
+        <v>1680</v>
+      </c>
+      <c r="J11" s="23" t="s">
+        <v>29</v>
+      </c>
+      <c r="K11" s="15">
+        <f t="shared" si="0"/>
+        <v>11483</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" s="26">
+        <v>43689</v>
+      </c>
+      <c r="B12" s="27"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="27" t="s">
+        <v>31</v>
+      </c>
+      <c r="I12" s="25">
+        <v>-10000</v>
+      </c>
+      <c r="J12" s="25" t="s">
+        <v>30</v>
+      </c>
+      <c r="K12" s="15">
+        <f t="shared" si="0"/>
+        <v>1483</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" s="43" customFormat="1">
+      <c r="A13" s="24">
+        <v>43705</v>
+      </c>
+      <c r="B13" s="24">
+        <v>43710</v>
+      </c>
+      <c r="C13" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="E13" s="25">
+        <v>3</v>
+      </c>
+      <c r="F13" s="25">
+        <v>35</v>
+      </c>
+      <c r="G13" s="25">
+        <v>5</v>
+      </c>
+      <c r="H13" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="I13" s="25">
+        <v>525</v>
+      </c>
+      <c r="J13" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="K13" s="17">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" s="43" customFormat="1">
+      <c r="A14" s="24">
+        <v>43711</v>
+      </c>
+      <c r="B14" s="24">
+        <v>43714</v>
+      </c>
+      <c r="C14" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="D14" s="25" t="s">
+        <v>46</v>
+      </c>
+      <c r="E14" s="25">
+        <v>6</v>
+      </c>
+      <c r="F14" s="25">
+        <v>35</v>
+      </c>
+      <c r="G14" s="25">
+        <v>3</v>
+      </c>
+      <c r="H14" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="I14" s="25">
+        <v>630</v>
+      </c>
+      <c r="J14" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="K14" s="17">
+        <v>630</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" s="43" customFormat="1">
+      <c r="A15" s="24">
+        <v>43730</v>
+      </c>
+      <c r="B15" s="24">
+        <v>43732</v>
+      </c>
+      <c r="C15" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15" s="25" t="s">
+        <v>44</v>
+      </c>
+      <c r="E15" s="25">
+        <v>6</v>
+      </c>
+      <c r="F15" s="25">
+        <v>35</v>
+      </c>
+      <c r="G15" s="25">
         <v>2</v>
       </c>
-      <c r="C4" s="39"/>
-      <c r="D4" s="39"/>
-      <c r="E4" s="39">
-        <v>8</v>
-      </c>
-      <c r="F4" s="39">
-        <v>24150</v>
-      </c>
-      <c r="H4" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="I4" s="32">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="6"/>
-      <c r="C5" s="6"/>
-      <c r="H5" s="30" t="s">
-        <v>42</v>
-      </c>
-      <c r="I5" s="32">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B6" s="6"/>
-      <c r="C6" s="6"/>
-      <c r="H6" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="I6" s="32">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="H7" s="30" t="s">
-        <v>50</v>
-      </c>
-      <c r="I7" s="32">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B8" s="6"/>
-      <c r="C8" s="6"/>
-      <c r="H8" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="I8" s="32">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="6"/>
-      <c r="C9" s="6"/>
-      <c r="H9" s="30" t="s">
-        <v>27</v>
-      </c>
-      <c r="I9" s="32">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="6"/>
-      <c r="C10" s="6"/>
-      <c r="H10" s="36" t="s">
-        <v>52</v>
-      </c>
-      <c r="I10" s="34">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="B11" s="6"/>
-      <c r="C11" s="6"/>
-      <c r="H11" s="36" t="s">
-        <v>53</v>
-      </c>
-      <c r="I11" s="34">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H12" s="36" t="s">
-        <v>54</v>
-      </c>
-      <c r="I12" s="34">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H13" s="36" t="s">
-        <v>53</v>
-      </c>
-      <c r="I13" s="34">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="H14" s="36" t="s">
-        <v>27</v>
-      </c>
-      <c r="I14" s="34">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I15" s="6"/>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I16" s="6"/>
+      <c r="H15" s="25" t="s">
+        <v>12</v>
+      </c>
+      <c r="I15" s="25">
+        <v>420</v>
+      </c>
+      <c r="J15" s="17" t="s">
+        <v>29</v>
+      </c>
+      <c r="K15" s="17">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" s="48" customFormat="1">
+      <c r="A16" s="47">
+        <v>43755</v>
+      </c>
+      <c r="B16" s="47">
+        <v>43759</v>
+      </c>
+      <c r="C16" s="46" t="s">
+        <v>4</v>
+      </c>
+      <c r="D16" s="46" t="s">
+        <v>62</v>
+      </c>
+      <c r="E16" s="46"/>
+      <c r="F16" s="46"/>
+      <c r="G16" s="46"/>
+      <c r="H16" s="46"/>
+      <c r="I16" s="46">
+        <v>1000</v>
+      </c>
+      <c r="J16" s="46"/>
+      <c r="K16" s="46">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" s="48" customFormat="1">
+      <c r="A17" s="46"/>
+      <c r="B17" s="46"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="46"/>
+      <c r="H17" s="46"/>
+      <c r="I17" s="46"/>
+      <c r="J17" s="46"/>
+      <c r="K17" s="46">
+        <f>SUM(K12:K16)</f>
+        <v>4058</v>
+      </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A1:A2"/>
-    <mergeCell ref="F1:F2"/>
-  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293"/>
   <extLst>
@@ -2595,4 +2778,59 @@
     </ext>
   </extLst>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:K1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D25" sqref="D25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="1:11" ht="28">
+      <c r="A1" s="13" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" s="13" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="13" t="s">
+        <v>6</v>
+      </c>
+      <c r="G1" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>5</v>
+      </c>
+      <c r="I1" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" s="13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
 </file>
--- a/Accounts.xlsx
+++ b/Accounts.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="20225"/>
-  <workbookPr autoCompressPictures="0"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr autoCompressPictures="0" defaultThemeVersion="164011"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gaurav Aggarwal\Documents\FarmaBusinessAccount\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14240" activeTab="6"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="14235" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Account" sheetId="1" r:id="rId1"/>
@@ -15,20 +20,20 @@
     <sheet name="HariOm" sheetId="2" r:id="rId6"/>
     <sheet name="DharamNath" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="140001" concurrentCalc="0"/>
+  <calcPr calcId="162913" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+      <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="190" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="75">
   <si>
     <t>Date</t>
   </si>
@@ -246,12 +251,21 @@
   </si>
   <si>
     <t>Bolts</t>
+  </si>
+  <si>
+    <t>Mohan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Faram (12x18) </t>
+  </si>
+  <si>
+    <t>4 set (plate size 15-18)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -538,7 +552,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -674,6 +688,7 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -692,7 +707,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -702,6 +716,7 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="109">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -870,7 +885,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -905,7 +920,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1082,7 +1097,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1092,20 +1107,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="13.1640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="13.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="13.1640625" style="7"/>
-    <col min="4" max="4" width="21.5" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="13.1640625" style="7"/>
-    <col min="8" max="8" width="35.83203125" style="7" customWidth="1"/>
-    <col min="9" max="16384" width="13.1640625" style="7"/>
+    <col min="1" max="3" width="13.140625" style="7"/>
+    <col min="4" max="4" width="21.42578125" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="13.140625" style="7"/>
+    <col min="8" max="8" width="35.85546875" style="7" customWidth="1"/>
+    <col min="9" max="16384" width="13.140625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1134,7 +1149,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>43604</v>
       </c>
@@ -1165,7 +1180,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>43616</v>
       </c>
@@ -1195,7 +1210,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="4" spans="1:10">
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="4">
         <v>43604</v>
       </c>
@@ -1224,7 +1239,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -1238,21 +1253,21 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="49" t="s">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" s="50" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="50"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="50"/>
-      <c r="G6" s="50"/>
-      <c r="H6" s="50"/>
-      <c r="I6" s="51"/>
+      <c r="B6" s="51"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="51"/>
+      <c r="H6" s="51"/>
+      <c r="I6" s="52"/>
       <c r="J6" s="8"/>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
         <v>43667</v>
       </c>
@@ -1281,7 +1296,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="30" customHeight="1">
+    <row r="8" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
         <v>43675</v>
       </c>
@@ -1304,7 +1319,7 @@
       </c>
       <c r="I8" s="11"/>
     </row>
-    <row r="9" spans="1:10">
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
         <v>43681</v>
       </c>
@@ -1333,7 +1348,7 @@
         <v>1680</v>
       </c>
     </row>
-    <row r="10" spans="1:10">
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="12">
         <v>43705</v>
       </c>
@@ -1362,7 +1377,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" s="12">
         <v>43711</v>
       </c>
@@ -1391,7 +1406,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" s="12">
         <v>43730</v>
       </c>
@@ -1418,7 +1433,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="42">
+    <row r="13" spans="1:10" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="12">
         <v>43747</v>
       </c>
@@ -1441,18 +1456,30 @@
       </c>
       <c r="I13" s="11"/>
     </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="11"/>
+    <row r="14" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+      <c r="A14" s="12">
+        <v>43768</v>
+      </c>
       <c r="B14" s="11"/>
-      <c r="C14" s="11"/>
-      <c r="D14" s="11"/>
-      <c r="E14" s="11"/>
-      <c r="F14" s="11"/>
+      <c r="C14" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="E14" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="F14" s="11">
+        <v>40</v>
+      </c>
       <c r="G14" s="11"/>
-      <c r="H14" s="11"/>
+      <c r="H14" s="11" t="s">
+        <v>12</v>
+      </c>
       <c r="I14" s="11"/>
     </row>
-    <row r="15" spans="1:10">
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="11"/>
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
@@ -1463,7 +1490,7 @@
       <c r="H15" s="11"/>
       <c r="I15" s="11"/>
     </row>
-    <row r="16" spans="1:10">
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" s="11"/>
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
@@ -1474,7 +1501,7 @@
       <c r="H16" s="11"/>
       <c r="I16" s="11"/>
     </row>
-    <row r="17" spans="1:9">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" s="11"/>
       <c r="B17" s="11"/>
       <c r="C17" s="11"/>
@@ -1485,7 +1512,7 @@
       <c r="H17" s="11"/>
       <c r="I17" s="11"/>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" s="11"/>
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
@@ -1517,12 +1544,12 @@
       <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="33" t="s">
         <v>32</v>
       </c>
@@ -1539,7 +1566,7 @@
       <c r="H1" s="30"/>
       <c r="I1" s="30"/>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" s="32">
         <v>1</v>
       </c>
@@ -1556,7 +1583,7 @@
       <c r="H2" s="30"/>
       <c r="I2" s="30"/>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" s="32">
         <v>2</v>
       </c>
@@ -1573,7 +1600,7 @@
       <c r="H3" s="30"/>
       <c r="I3" s="30"/>
     </row>
-    <row r="4" spans="1:9">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" s="32">
         <v>3</v>
       </c>
@@ -1590,7 +1617,7 @@
       <c r="H4" s="30"/>
       <c r="I4" s="30"/>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" s="32">
         <v>4</v>
       </c>
@@ -1607,7 +1634,7 @@
       <c r="H5" s="30"/>
       <c r="I5" s="30"/>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" s="32">
         <v>5</v>
       </c>
@@ -1642,12 +1669,12 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="6" max="6" width="16.5" customWidth="1"/>
+    <col min="6" max="6" width="16.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="41" customHeight="1">
+    <row r="1" spans="1:6" ht="41.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
@@ -1667,7 +1694,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="22">
         <v>43646</v>
       </c>
@@ -1683,7 +1710,7 @@
         <v>77100</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="22">
         <v>43748</v>
       </c>
@@ -1704,7 +1731,7 @@
         <v>80046</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="22">
         <v>43748</v>
       </c>
@@ -1725,7 +1752,7 @@
         <v>101450</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="D15" s="36"/>
       <c r="E15" s="44"/>
     </row>
@@ -1743,22 +1770,58 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N25"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="13" max="13" width="14.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:14">
-      <c r="A1" s="55" t="s">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="49" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="55" t="s">
+      <c r="B1" s="49" t="s">
         <v>63</v>
       </c>
-      <c r="C1" s="55" t="s">
+      <c r="C1" s="49" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:14">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="59">
+        <v>43705</v>
+      </c>
+      <c r="B2">
+        <v>114</v>
+      </c>
+      <c r="C2">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="59">
+        <v>43747</v>
+      </c>
+      <c r="B3">
+        <v>88</v>
+      </c>
+      <c r="C3">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="59">
+        <v>43748</v>
+      </c>
+      <c r="B4">
+        <v>43</v>
+      </c>
+      <c r="C4">
+        <v>105</v>
+      </c>
       <c r="G4" s="30" t="s">
         <v>41</v>
       </c>
@@ -1766,30 +1829,47 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:14">
-      <c r="A6" s="55" t="s">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="49" t="s">
         <v>65</v>
       </c>
-      <c r="B6" s="55" t="s">
+      <c r="B6" s="49" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="8" spans="1:14">
+      <c r="B7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="9" spans="1:14">
+      <c r="B8">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="12" spans="1:14">
+      <c r="B9">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>72</v>
+      </c>
+      <c r="B10">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="M12" s="30" t="s">
         <v>40</v>
       </c>
@@ -1797,11 +1877,11 @@
         <v>114</v>
       </c>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="M13" s="30"/>
       <c r="N13" s="32"/>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="M14" s="30" t="s">
         <v>43</v>
       </c>
@@ -1809,7 +1889,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:14">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="M15" s="30" t="s">
         <v>27</v>
       </c>
@@ -1817,7 +1897,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="16" spans="1:14">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="M16" s="30" t="s">
         <v>42</v>
       </c>
@@ -1825,7 +1905,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="13:14">
+    <row r="17" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M17" s="30" t="s">
         <v>27</v>
       </c>
@@ -1833,7 +1913,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="13:14">
+    <row r="18" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M18" s="30" t="s">
         <v>50</v>
       </c>
@@ -1841,7 +1921,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="13:14">
+    <row r="19" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M19" s="30" t="s">
         <v>51</v>
       </c>
@@ -1849,7 +1929,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="13:14">
+    <row r="20" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M20" s="30" t="s">
         <v>27</v>
       </c>
@@ -1857,7 +1937,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="13:14">
+    <row r="21" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M21" s="36" t="s">
         <v>52</v>
       </c>
@@ -1865,7 +1945,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="22" spans="13:14">
+    <row r="22" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M22" s="36" t="s">
         <v>53</v>
       </c>
@@ -1873,23 +1953,23 @@
         <v>80</v>
       </c>
     </row>
-    <row r="23" spans="13:14">
+    <row r="23" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M23" s="36" t="s">
         <v>54</v>
       </c>
       <c r="N23" s="35">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="24" spans="13:14">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M24" s="36" t="s">
         <v>53</v>
       </c>
       <c r="N24" s="35">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="25" spans="13:14">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="13:14" x14ac:dyDescent="0.25">
       <c r="M25" s="36" t="s">
         <v>27</v>
       </c>
@@ -1916,20 +1996,20 @@
       <selection activeCell="H1" sqref="H1:K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.5" style="6"/>
-    <col min="2" max="2" width="6.5" style="31" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" style="31" customWidth="1"/>
-    <col min="4" max="5" width="11.5" style="6"/>
-    <col min="6" max="6" width="23.6640625" style="6" customWidth="1"/>
-    <col min="7" max="7" width="11.5" style="6"/>
-    <col min="8" max="8" width="14.5" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.5" style="31"/>
-    <col min="10" max="16384" width="11.5" style="6"/>
+    <col min="1" max="1" width="11.42578125" style="6"/>
+    <col min="2" max="2" width="6.42578125" style="31" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" style="31" customWidth="1"/>
+    <col min="4" max="5" width="11.42578125" style="6"/>
+    <col min="6" max="6" width="23.7109375" style="6" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" style="6"/>
+    <col min="8" max="8" width="14.42578125" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" style="31"/>
+    <col min="10" max="16384" width="11.42578125" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" s="58" t="s">
         <v>70</v>
       </c>
@@ -1945,8 +2025,8 @@
       <c r="J1" s="58"/>
       <c r="K1" s="58"/>
     </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="52" t="s">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" s="53" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="37" t="s">
@@ -1961,10 +2041,10 @@
       <c r="E2" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="F2" s="54" t="s">
+      <c r="F2" s="55" t="s">
         <v>26</v>
       </c>
-      <c r="H2" s="52" t="s">
+      <c r="H2" s="53" t="s">
         <v>0</v>
       </c>
       <c r="I2" s="37" t="s">
@@ -1977,8 +2057,8 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="53"/>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" s="54"/>
       <c r="B3" s="37" t="s">
         <v>18</v>
       </c>
@@ -1991,8 +2071,8 @@
       <c r="E3" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="F3" s="54"/>
-      <c r="H3" s="53"/>
+      <c r="F3" s="55"/>
+      <c r="H3" s="54"/>
       <c r="I3" s="37" t="s">
         <v>18</v>
       </c>
@@ -2001,7 +2081,7 @@
       </c>
       <c r="K3" s="57"/>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="38">
         <v>43646</v>
       </c>
@@ -2023,7 +2103,7 @@
       <c r="J4" s="45"/>
       <c r="K4" s="45"/>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="38">
         <v>43748</v>
       </c>
@@ -2043,41 +2123,41 @@
       <c r="J5" s="45"/>
       <c r="K5" s="45"/>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="I16" s="6"/>
     </row>
-    <row r="17" spans="6:9">
+    <row r="17" spans="6:9" x14ac:dyDescent="0.25">
       <c r="I17" s="6"/>
     </row>
-    <row r="23" spans="6:9">
+    <row r="23" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F23" s="30" t="s">
         <v>40</v>
       </c>
@@ -2085,7 +2165,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="24" spans="6:9">
+    <row r="24" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F24" s="30" t="s">
         <v>41</v>
       </c>
@@ -2093,7 +2173,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="6:9">
+    <row r="25" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F25" s="30" t="s">
         <v>43</v>
       </c>
@@ -2101,7 +2181,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="6:9">
+    <row r="26" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F26" s="30" t="s">
         <v>27</v>
       </c>
@@ -2109,7 +2189,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="27" spans="6:9">
+    <row r="27" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F27" s="30" t="s">
         <v>42</v>
       </c>
@@ -2117,7 +2197,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="6:9">
+    <row r="28" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F28" s="30" t="s">
         <v>27</v>
       </c>
@@ -2125,7 +2205,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="6:9">
+    <row r="29" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F29" s="30" t="s">
         <v>50</v>
       </c>
@@ -2133,7 +2213,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="6:9">
+    <row r="30" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F30" s="30" t="s">
         <v>51</v>
       </c>
@@ -2141,7 +2221,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="6:9">
+    <row r="31" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F31" s="30" t="s">
         <v>27</v>
       </c>
@@ -2149,7 +2229,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="6:9">
+    <row r="32" spans="6:9" x14ac:dyDescent="0.25">
       <c r="F32" s="36" t="s">
         <v>52</v>
       </c>
@@ -2157,7 +2237,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="33" spans="6:7">
+    <row r="33" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F33" s="36" t="s">
         <v>53</v>
       </c>
@@ -2165,7 +2245,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="34" spans="6:7">
+    <row r="34" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F34" s="36" t="s">
         <v>54</v>
       </c>
@@ -2173,7 +2253,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="35" spans="6:7">
+    <row r="35" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F35" s="36" t="s">
         <v>53</v>
       </c>
@@ -2181,7 +2261,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="36" spans="6:7">
+    <row r="36" spans="6:7" x14ac:dyDescent="0.25">
       <c r="F36" s="36" t="s">
         <v>27</v>
       </c>
@@ -2216,17 +2296,17 @@
       <selection sqref="A1:K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="13.33203125" style="29" customWidth="1"/>
-    <col min="2" max="3" width="11.5" style="29"/>
-    <col min="4" max="4" width="17.5" style="29" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="11.5" style="29"/>
-    <col min="8" max="8" width="19.5" style="29" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="11.5" style="29"/>
+    <col min="1" max="1" width="13.28515625" style="29" customWidth="1"/>
+    <col min="2" max="3" width="11.42578125" style="29"/>
+    <col min="4" max="4" width="17.42578125" style="29" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="11.42578125" style="29"/>
+    <col min="8" max="8" width="19.42578125" style="29" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="11.42578125" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="28">
+    <row r="1" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -2261,7 +2341,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="28">
+    <row r="2" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="14">
         <v>43604</v>
       </c>
@@ -2299,7 +2379,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="14">
         <v>43616</v>
       </c>
@@ -2336,7 +2416,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="14">
         <v>43604</v>
       </c>
@@ -2372,7 +2452,7 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16">
         <v>43638</v>
       </c>
@@ -2409,7 +2489,7 @@
         <v>1445</v>
       </c>
     </row>
-    <row r="6" spans="1:11">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="19">
         <v>43640</v>
       </c>
@@ -2446,7 +2526,7 @@
         <v>4805</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="22">
         <v>43638</v>
       </c>
@@ -2483,7 +2563,7 @@
         <v>6065</v>
       </c>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" s="23"/>
       <c r="B8" s="23"/>
       <c r="C8" s="23"/>
@@ -2505,7 +2585,7 @@
         <v>5963</v>
       </c>
     </row>
-    <row r="9" spans="1:11">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="23"/>
       <c r="C9" s="23"/>
@@ -2527,7 +2607,7 @@
         <v>8963</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="43" customFormat="1">
+    <row r="10" spans="1:11" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A10" s="24">
         <v>43667</v>
       </c>
@@ -2563,7 +2643,7 @@
         <v>9803</v>
       </c>
     </row>
-    <row r="11" spans="1:11" s="43" customFormat="1">
+    <row r="11" spans="1:11" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A11" s="24">
         <v>43681</v>
       </c>
@@ -2599,7 +2679,7 @@
         <v>11483</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="26">
         <v>43689</v>
       </c>
@@ -2623,7 +2703,7 @@
         <v>1483</v>
       </c>
     </row>
-    <row r="13" spans="1:11" s="43" customFormat="1">
+    <row r="13" spans="1:11" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="24">
         <v>43705</v>
       </c>
@@ -2658,7 +2738,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="14" spans="1:11" s="43" customFormat="1">
+    <row r="14" spans="1:11" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A14" s="24">
         <v>43711</v>
       </c>
@@ -2693,7 +2773,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="15" spans="1:11" s="43" customFormat="1">
+    <row r="15" spans="1:11" s="43" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="24">
         <v>43730</v>
       </c>
@@ -2728,7 +2808,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="16" spans="1:11" s="48" customFormat="1">
+    <row r="16" spans="1:11" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="47">
         <v>43755</v>
       </c>
@@ -2753,7 +2833,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="17" spans="1:11" s="48" customFormat="1">
+    <row r="17" spans="1:11" s="48" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A17" s="46"/>
       <c r="B17" s="46"/>
       <c r="C17" s="46"/>
@@ -2784,13 +2864,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:K1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="28">
+    <row r="1" spans="1:11" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>

--- a/Accounts.xlsx
+++ b/Accounts.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="14235" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="14235"/>
   </bookViews>
   <sheets>
     <sheet name="Account" sheetId="1" r:id="rId1"/>
@@ -689,6 +689,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -716,7 +717,6 @@
     <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="109">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -1107,8 +1107,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F16" sqref="F16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="13.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1254,17 +1254,17 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="50" t="s">
+      <c r="A6" s="51" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="51"/>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="51"/>
-      <c r="G6" s="51"/>
-      <c r="H6" s="51"/>
-      <c r="I6" s="52"/>
+      <c r="B6" s="52"/>
+      <c r="C6" s="52"/>
+      <c r="D6" s="52"/>
+      <c r="E6" s="52"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="52"/>
+      <c r="H6" s="52"/>
+      <c r="I6" s="53"/>
       <c r="J6" s="8"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
@@ -1437,7 +1437,9 @@
       <c r="A13" s="12">
         <v>43747</v>
       </c>
-      <c r="B13" s="11"/>
+      <c r="B13" s="12">
+        <v>43750</v>
+      </c>
       <c r="C13" s="11" t="s">
         <v>47</v>
       </c>
@@ -1450,17 +1452,23 @@
       <c r="F13" s="11">
         <v>30</v>
       </c>
-      <c r="G13" s="11"/>
+      <c r="G13" s="11">
+        <v>810</v>
+      </c>
       <c r="H13" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="I13" s="11"/>
+      <c r="I13" s="11">
+        <v>810</v>
+      </c>
     </row>
     <row r="14" spans="1:10" ht="30" x14ac:dyDescent="0.25">
       <c r="A14" s="12">
         <v>43768</v>
       </c>
-      <c r="B14" s="11"/>
+      <c r="B14" s="12">
+        <v>43775</v>
+      </c>
       <c r="C14" s="11" t="s">
         <v>72</v>
       </c>
@@ -1473,11 +1481,15 @@
       <c r="F14" s="11">
         <v>40</v>
       </c>
-      <c r="G14" s="11"/>
+      <c r="G14" s="11">
+        <v>7</v>
+      </c>
       <c r="H14" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="I14" s="11"/>
+      <c r="I14" s="11">
+        <v>1120</v>
+      </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" s="11"/>
@@ -1666,7 +1678,7 @@
   <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1770,8 +1782,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:N25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+    <sheetView topLeftCell="A265" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1791,7 +1803,7 @@
       </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A2" s="59">
+      <c r="A2" s="50">
         <v>43705</v>
       </c>
       <c r="B2">
@@ -1802,7 +1814,7 @@
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A3" s="59">
+      <c r="A3" s="50">
         <v>43747</v>
       </c>
       <c r="B3">
@@ -1813,7 +1825,7 @@
       </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A4" s="59">
+      <c r="A4" s="50">
         <v>43748</v>
       </c>
       <c r="B4">
@@ -1827,6 +1839,12 @@
       </c>
       <c r="H4" s="32">
         <v>15</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <f>SUM(B2:B4)</f>
+        <v>245</v>
       </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.25">
@@ -1850,7 +1868,7 @@
         <v>66</v>
       </c>
       <c r="B8">
-        <v>190</v>
+        <v>180</v>
       </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.25">
@@ -1867,6 +1885,12 @@
       </c>
       <c r="B10">
         <v>40</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <f>SUM(B7:B10)</f>
+        <v>245</v>
       </c>
     </row>
     <row r="12" spans="1:14" x14ac:dyDescent="0.25">
@@ -2010,23 +2034,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A1" s="58" t="s">
+      <c r="A1" s="59" t="s">
         <v>70</v>
       </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="H1" s="58" t="s">
+      <c r="B1" s="59"/>
+      <c r="C1" s="59"/>
+      <c r="D1" s="59"/>
+      <c r="E1" s="59"/>
+      <c r="F1" s="59"/>
+      <c r="H1" s="59" t="s">
         <v>71</v>
       </c>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
-      <c r="K1" s="58"/>
+      <c r="I1" s="59"/>
+      <c r="J1" s="59"/>
+      <c r="K1" s="59"/>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" s="53" t="s">
+      <c r="A2" s="54" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="37" t="s">
@@ -2041,10 +2065,10 @@
       <c r="E2" s="37" t="s">
         <v>55</v>
       </c>
-      <c r="F2" s="55" t="s">
+      <c r="F2" s="56" t="s">
         <v>26</v>
       </c>
-      <c r="H2" s="53" t="s">
+      <c r="H2" s="54" t="s">
         <v>0</v>
       </c>
       <c r="I2" s="37" t="s">
@@ -2053,12 +2077,12 @@
       <c r="J2" s="37" t="s">
         <v>69</v>
       </c>
-      <c r="K2" s="56" t="s">
+      <c r="K2" s="57" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A3" s="54"/>
+      <c r="A3" s="55"/>
       <c r="B3" s="37" t="s">
         <v>18</v>
       </c>
@@ -2071,15 +2095,15 @@
       <c r="E3" s="37" t="s">
         <v>56</v>
       </c>
-      <c r="F3" s="55"/>
-      <c r="H3" s="54"/>
+      <c r="F3" s="56"/>
+      <c r="H3" s="55"/>
       <c r="I3" s="37" t="s">
         <v>18</v>
       </c>
       <c r="J3" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="K3" s="57"/>
+      <c r="K3" s="58"/>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" s="38">

--- a/Accounts.xlsx
+++ b/Accounts.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr autoCompressPictures="0" defaultThemeVersion="164011"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gaurav Aggarwal\Documents\FarmaBusinessAccount\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="20225"/>
+  <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25605" windowHeight="14235"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="14240" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="Account" sheetId="1" r:id="rId1"/>
@@ -20,20 +15,20 @@
     <sheet name="HariOm" sheetId="2" r:id="rId6"/>
     <sheet name="DharamNath" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="162913" concurrentCalc="0"/>
+  <calcPr calcId="140001" concurrentCalc="0"/>
   <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
-      <mx:ArchID Flags="2"/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="93">
   <si>
     <t>Date</t>
   </si>
@@ -260,12 +255,66 @@
   </si>
   <si>
     <t>4 set (plate size 15-18)</t>
+  </si>
+  <si>
+    <t>Items</t>
+  </si>
+  <si>
+    <t>Rate per day</t>
+  </si>
+  <si>
+    <t>Rent per day</t>
+  </si>
+  <si>
+    <t>No. of days</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>3ft.x10</t>
+  </si>
+  <si>
+    <t>5ft.x10</t>
+  </si>
+  <si>
+    <t>10ft.x8</t>
+  </si>
+  <si>
+    <t>Jaali x3</t>
+  </si>
+  <si>
+    <t>3ft.x2</t>
+  </si>
+  <si>
+    <t>5ft.x2</t>
+  </si>
+  <si>
+    <t>10ft.x6</t>
+  </si>
+  <si>
+    <t>3ft.x8</t>
+  </si>
+  <si>
+    <t>5ft.x8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jaali </t>
+  </si>
+  <si>
+    <t>3ft.x6</t>
+  </si>
+  <si>
+    <t>Jaali x4</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -552,7 +601,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -716,6 +765,9 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="109">
@@ -885,7 +937,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -920,7 +972,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1097,7 +1149,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1107,20 +1159,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="13.1640625" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="3" width="13.140625" style="7"/>
-    <col min="4" max="4" width="21.42578125" style="7" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="13.140625" style="7"/>
-    <col min="8" max="8" width="35.85546875" style="7" customWidth="1"/>
-    <col min="9" max="16384" width="13.140625" style="7"/>
+    <col min="1" max="3" width="13.1640625" style="7"/>
+    <col min="4" max="4" width="21.5" style="7" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="13.1640625" style="7"/>
+    <col min="8" max="8" width="35.83203125" style="7" customWidth="1"/>
+    <col min="9" max="16384" width="13.1640625" style="7"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1149,7 +1201,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10">
       <c r="A2" s="2">
         <v>43604</v>
       </c>
@@ -1180,7 +1232,7 @@
         <v>665</v>
       </c>
     </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:10">
       <c r="A3" s="2">
         <v>43616</v>
       </c>
@@ -1210,7 +1262,7 @@
         <v>490</v>
       </c>
     </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10">
       <c r="A4" s="4">
         <v>43604</v>
       </c>
@@ -1239,7 +1291,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:10">
       <c r="A5" s="9"/>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
@@ -1253,7 +1305,7 @@
         <v>1305</v>
       </c>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10">
       <c r="A6" s="51" t="s">
         <v>19</v>
       </c>
@@ -1267,7 +1319,7 @@
       <c r="I6" s="53"/>
       <c r="J6" s="8"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:10">
       <c r="A7" s="12">
         <v>43667</v>
       </c>
@@ -1296,7 +1348,7 @@
         <v>840</v>
       </c>
     </row>
-    <row r="8" spans="1:10" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:10" ht="30" customHeight="1">
       <c r="A8" s="12">
         <v>43675</v>
       </c>
@@ -1319,7 +1371,7 @@
       </c>
       <c r="I8" s="11"/>
     </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:10">
       <c r="A9" s="12">
         <v>43681</v>
       </c>
@@ -1348,7 +1400,7 @@
         <v>1680</v>
       </c>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:10">
       <c r="A10" s="12">
         <v>43705</v>
       </c>
@@ -1377,7 +1429,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:10">
       <c r="A11" s="12">
         <v>43711</v>
       </c>
@@ -1406,7 +1458,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:10">
       <c r="A12" s="12">
         <v>43730</v>
       </c>
@@ -1433,7 +1485,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="45" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:10" ht="42">
       <c r="A13" s="12">
         <v>43747</v>
       </c>
@@ -1462,7 +1514,7 @@
         <v>810</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:10" ht="28">
       <c r="A14" s="12">
         <v>43768</v>
       </c>
@@ -1491,7 +1543,7 @@
         <v>1120</v>
       </c>
     </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:10">
       <c r="A15" s="11"/>
       <c r="B15" s="11"/>
       <c r="C15" s="11"/>
@@ -1502,7 +1554,7 @@
       <c r="H15" s="11"/>
       <c r="I15" s="11"/>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:10">
       <c r="A16" s="11"/>
       <c r="B16" s="11"/>
       <c r="C16" s="11"/>
@@ -1513,7 +1565,7 @@
       <c r="H16" s="11"/>
       <c r="I16" s="11"/>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9">
       <c r="A17" s="11"/>
       <c r="B17" s="11"/>
       <c r="C17" s="11"/>
@@ -1524,7 +1576,7 @@
       <c r="H17" s="11"/>
       <c r="I17" s="11"/>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9">
       <c r="A18" s="11"/>
       <c r="B18" s="11"/>
       <c r="C18" s="11"/>
@@ -1556,12 +1608,12 @@
       <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="2" max="2" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="15.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" s="33" t="s">
         <v>32</v>
       </c>
@@ -1578,7 +1630,7 @@
       <c r="H1" s="30"/>
       <c r="I1" s="30"/>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2" s="32">
         <v>1</v>
       </c>
@@ -1595,7 +1647,7 @@
       <c r="H2" s="30"/>
       <c r="I2" s="30"/>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="A3" s="32">
         <v>2</v>
       </c>
@@ -1612,7 +1664,7 @@
       <c r="H3" s="30"/>
       <c r="I3" s="30"/>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9">
       <c r="A4" s="32">
         <v>3</v>
       </c>
@@ -1629,7 +1681,7 @@
       <c r="H4" s="30"/>
       <c r="I4" s="30"/>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9">
       <c r="A5" s="32">
         <v>4</v>
       </c>
@@ -1646,7 +1698,7 @@
       <c r="H5" s="30"/>
       <c r="I5" s="30"/>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="A6" s="32">
         <v>5</v>
       </c>
@@ -1681,12 +1733,12 @@
       <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="6" max="6" width="16.42578125" customWidth="1"/>
+    <col min="6" max="6" width="16.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="41.1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="41" customHeight="1">
       <c r="A1" s="40" t="s">
         <v>0</v>
       </c>
@@ -1706,7 +1758,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6">
       <c r="A2" s="22">
         <v>43646</v>
       </c>
@@ -1722,7 +1774,7 @@
         <v>77100</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6">
       <c r="A3" s="22">
         <v>43748</v>
       </c>
@@ -1743,7 +1795,7 @@
         <v>80046</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6">
       <c r="A4" s="22">
         <v>43748</v>
       </c>
@@ -1764,7 +1816,7 @@
         <v>101450</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:6">
       <c r="D15" s="36"/>
       <c r="E15" s="44"/>
     </row>
@@ -1786,12 +1838,12 @@
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="13" max="13" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="14.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14">
       <c r="A1" s="49" t="s">
         <v>0</v>
       </c>
@@ -1802,7 +1854,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14">
       <c r="A2" s="50">
         <v>43705</v>
       </c>
@@ -1813,7 +1865,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14">
       <c r="A3" s="50">
         <v>43747</v>
       </c>
@@ -1824,7 +1876,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14">
       <c r="A4" s="50">
         <v>43748</v>
       </c>
@@ -1841,13 +1893,13 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14">
       <c r="B5">
         <f>SUM(B2:B4)</f>
         <v>245</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14">
       <c r="A6" s="49" t="s">
         <v>65</v>
       </c>
@@ -1855,7 +1907,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14">
       <c r="A7" t="s">
         <v>67</v>
       </c>
@@ -1863,7 +1915,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14">
       <c r="A8" t="s">
         <v>66</v>
       </c>
@@ -1871,7 +1923,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14">
       <c r="A9" t="s">
         <v>41</v>
       </c>
@@ -1879,7 +1931,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14">
       <c r="A10" t="s">
         <v>72</v>
       </c>
@@ -1887,13 +1939,13 @@
         <v>40</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14">
       <c r="B11">
         <f>SUM(B7:B10)</f>
         <v>245</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14">
       <c r="M12" s="30" t="s">
         <v>40</v>
       </c>
@@ -1901,11 +1953,11 @@
         <v>114</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14">
       <c r="M13" s="30"/>
       <c r="N13" s="32"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:14">
       <c r="M14" s="30" t="s">
         <v>43</v>
       </c>
@@ -1913,7 +1965,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14">
       <c r="M15" s="30" t="s">
         <v>27</v>
       </c>
@@ -1921,7 +1973,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:14">
       <c r="M16" s="30" t="s">
         <v>42</v>
       </c>
@@ -1929,7 +1981,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="17" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="17" spans="13:14">
       <c r="M17" s="30" t="s">
         <v>27</v>
       </c>
@@ -1937,7 +1989,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="18" spans="13:14">
       <c r="M18" s="30" t="s">
         <v>50</v>
       </c>
@@ -1945,7 +1997,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="19" spans="13:14">
       <c r="M19" s="30" t="s">
         <v>51</v>
       </c>
@@ -1953,7 +2005,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="20" spans="13:14">
       <c r="M20" s="30" t="s">
         <v>27</v>
       </c>
@@ -1961,7 +2013,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="21" spans="13:14">
       <c r="M21" s="36" t="s">
         <v>52</v>
       </c>
@@ -1969,7 +2021,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="22" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="22" spans="13:14">
       <c r="M22" s="36" t="s">
         <v>53</v>
       </c>
@@ -1977,7 +2029,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="23" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="23" spans="13:14">
       <c r="M23" s="36" t="s">
         <v>54</v>
       </c>
@@ -1985,7 +2037,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="24" spans="13:14">
       <c r="M24" s="36" t="s">
         <v>53</v>
       </c>
@@ -1993,7 +2045,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="13:14" x14ac:dyDescent="0.25">
+    <row r="25" spans="13:14">
       <c r="M25" s="36" t="s">
         <v>27</v>
       </c>
@@ -2003,7 +2055,6 @@
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -2020,20 +2071,20 @@
       <selection activeCell="H1" sqref="H1:K1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="11.42578125" style="6"/>
-    <col min="2" max="2" width="6.42578125" style="31" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" style="31" customWidth="1"/>
-    <col min="4" max="5" width="11.42578125" style="6"/>
-    <col min="6" max="6" width="23.7109375" style="6" customWidth="1"/>
-    <col min="7" max="7" width="11.42578125" style="6"/>
-    <col min="8" max="8" width="14.42578125" style="6" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.42578125" style="31"/>
-    <col min="10" max="16384" width="11.42578125" style="6"/>
+    <col min="1" max="1" width="11.5" style="6"/>
+    <col min="2" max="2" width="6.5" style="31" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" style="31" customWidth="1"/>
+    <col min="4" max="5" width="11.5" style="6"/>
+    <col min="6" max="6" width="23.6640625" style="6" customWidth="1"/>
+    <col min="7" max="7" width="11.5" style="6"/>
+    <col min="8" max="8" width="14.5" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5" style="31"/>
+    <col min="10" max="16384" width="11.5" style="6"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11">
       <c r="A1" s="59" t="s">
         <v>70</v>
       </c>
@@ -2049,7 +2100,7 @@
       <c r="J1" s="59"/>
       <c r="K1" s="59"/>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11">
       <c r="A2" s="54" t="s">
         <v>0</v>
       </c>
@@ -2081,7 +2132,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11">
       <c r="A3" s="55"/>
       <c r="B3" s="37" t="s">
         <v>18</v>
@@ -2105,7 +2156,7 @@
       </c>
       <c r="K3" s="58"/>
     </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11">
       <c r="A4" s="38">
         <v>43646</v>
       </c>
@@ -2127,7 +2178,7 @@
       <c r="J4" s="45"/>
       <c r="K4" s="45"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11">
       <c r="A5" s="38">
         <v>43748</v>
       </c>
@@ -2147,41 +2198,41 @@
       <c r="J5" s="45"/>
       <c r="K5" s="45"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11">
       <c r="B6" s="6"/>
       <c r="C6" s="6"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11">
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11">
       <c r="B8" s="6"/>
       <c r="C8" s="6"/>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11">
       <c r="B9" s="6"/>
       <c r="C9" s="6"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11">
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11">
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11">
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11">
       <c r="I16" s="6"/>
     </row>
-    <row r="17" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="6:9">
       <c r="I17" s="6"/>
     </row>
-    <row r="23" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="6:9">
       <c r="F23" s="30" t="s">
         <v>40</v>
       </c>
@@ -2189,7 +2240,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="24" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="6:9">
       <c r="F24" s="30" t="s">
         <v>41</v>
       </c>
@@ -2197,7 +2248,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="6:9">
       <c r="F25" s="30" t="s">
         <v>43</v>
       </c>
@@ -2205,7 +2256,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="26" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="6:9">
       <c r="F26" s="30" t="s">
         <v>27</v>
       </c>
@@ -2213,7 +2264,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="27" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="6:9">
       <c r="F27" s="30" t="s">
         <v>42</v>
       </c>
@@ -2221,7 +2272,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="28" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="6:9">
       <c r="F28" s="30" t="s">
         <v>27</v>
       </c>
@@ -2229,7 +2280,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="6:9">
       <c r="F29" s="30" t="s">
         <v>50</v>
       </c>
@@ -2237,7 +2288,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="30" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="6:9">
       <c r="F30" s="30" t="s">
         <v>51</v>
       </c>
@@ -2245,7 +2296,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="6:9">
       <c r="F31" s="30" t="s">
         <v>27</v>
       </c>
@@ -2253,7 +2304,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="6:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="6:9">
       <c r="F32" s="36" t="s">
         <v>52</v>
       </c>
@@ -2261,7 +2312,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="33" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="6:7">
       <c r="F33" s="36" t="s">
         <v>53</v>
       </c>
@@ -2269,7 +2320,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="34" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="6:7">
       <c r="F34" s="36" t="s">
         <v>54</v>
       </c>
@@ -2277,7 +2328,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="35" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="35" spans="6:7">
       <c r="F35" s="36" t="s">
         <v>53</v>
       </c>
@@ -2285,7 +2336,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="36" spans="6:7" x14ac:dyDescent="0.25">
+    <row r="36" spans="6:7">
       <c r="F36" s="36" t="s">
         <v>27</v>
       </c>
@@ -2303,7 +2354,6 @@
     <mergeCell ref="H1:K1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -2314,23 +2364,21 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:S18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:K1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="13.28515625" style="29" customWidth="1"/>
-    <col min="2" max="3" width="11.42578125" style="29"/>
-    <col min="4" max="4" width="17.42578125" style="29" bestFit="1" customWidth="1"/>
-    <col min="5" max="7" width="11.42578125" style="29"/>
-    <col min="8" max="8" width="19.42578125" style="29" bestFit="1" customWidth="1"/>
-    <col min="9" max="16384" width="11.42578125" style="29"/>
+    <col min="1" max="1" width="13.33203125" style="29" customWidth="1"/>
+    <col min="2" max="3" width="11.5" style="29"/>
+    <col min="4" max="4" width="17.5" style="29" bestFit="1" customWidth="1"/>
+    <col min="5" max="7" width="11.5" style="29"/>
+    <col min="8" max="8" width="19.5" style="29" bestFit="1" customWidth="1"/>
+    <col min="9" max="16384" width="11.5" style="29"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19" ht="28">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -2364,8 +2412,29 @@
       <c r="K1" s="13" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+      <c r="M1" s="60" t="s">
+        <v>0</v>
+      </c>
+      <c r="N1" s="60" t="s">
+        <v>75</v>
+      </c>
+      <c r="O1" s="60" t="s">
+        <v>76</v>
+      </c>
+      <c r="P1" s="60" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" s="60" t="s">
+        <v>77</v>
+      </c>
+      <c r="R1" s="60" t="s">
+        <v>78</v>
+      </c>
+      <c r="S1" s="60" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" ht="28">
       <c r="A2" s="14">
         <v>43604</v>
       </c>
@@ -2402,8 +2471,31 @@
         <f>I2</f>
         <v>665</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M2" s="19">
+        <v>43884</v>
+      </c>
+      <c r="N2" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="O2" s="21">
+        <v>2</v>
+      </c>
+      <c r="P2" s="21">
+        <f>Q2/O2</f>
+        <v>10</v>
+      </c>
+      <c r="Q2" s="21">
+        <v>20</v>
+      </c>
+      <c r="R2" s="21">
+        <v>38</v>
+      </c>
+      <c r="S2" s="21">
+        <f>R2*Q2</f>
+        <v>760</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="14">
         <v>43616</v>
       </c>
@@ -2439,8 +2531,29 @@
         <f>K2+I3</f>
         <v>1155</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M3" s="21"/>
+      <c r="N3" s="21" t="s">
+        <v>81</v>
+      </c>
+      <c r="O3" s="21">
+        <v>3</v>
+      </c>
+      <c r="P3" s="21">
+        <f t="shared" ref="P3:P17" si="0">Q3/O3</f>
+        <v>10</v>
+      </c>
+      <c r="Q3" s="21">
+        <v>30</v>
+      </c>
+      <c r="R3" s="21">
+        <v>38</v>
+      </c>
+      <c r="S3" s="21">
+        <f t="shared" ref="S3:S17" si="1">R3*Q3</f>
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="14">
         <v>43604</v>
       </c>
@@ -2472,11 +2585,32 @@
         <v>29</v>
       </c>
       <c r="K4" s="15">
-        <f t="shared" ref="K4:K12" si="0">K3+I4</f>
+        <f t="shared" ref="K4:K12" si="2">K3+I4</f>
         <v>1305</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M4" s="21"/>
+      <c r="N4" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="O4" s="21">
+        <v>4</v>
+      </c>
+      <c r="P4" s="21">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="Q4" s="21">
+        <v>32</v>
+      </c>
+      <c r="R4" s="21">
+        <v>38</v>
+      </c>
+      <c r="S4" s="21">
+        <f t="shared" si="1"/>
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="16">
         <v>43638</v>
       </c>
@@ -2509,11 +2643,32 @@
         <v>29</v>
       </c>
       <c r="K5" s="15">
+        <f t="shared" si="2"/>
+        <v>1445</v>
+      </c>
+      <c r="M5" s="21"/>
+      <c r="N5" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="O5" s="21">
+        <v>5</v>
+      </c>
+      <c r="P5" s="21">
         <f t="shared" si="0"/>
-        <v>1445</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="Q5" s="21">
+        <v>15</v>
+      </c>
+      <c r="R5" s="21">
+        <v>38</v>
+      </c>
+      <c r="S5" s="21">
+        <f t="shared" si="1"/>
+        <v>570</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="19">
         <v>43640</v>
       </c>
@@ -2539,18 +2694,41 @@
         <v>14</v>
       </c>
       <c r="I6" s="18">
-        <f t="shared" ref="I6:I7" si="1">G6*F6*E6</f>
+        <f t="shared" ref="I6:I7" si="3">G6*F6*E6</f>
         <v>3360</v>
       </c>
       <c r="J6" s="15" t="s">
         <v>29</v>
       </c>
       <c r="K6" s="15">
+        <f t="shared" si="2"/>
+        <v>4805</v>
+      </c>
+      <c r="M6" s="19">
+        <v>43885</v>
+      </c>
+      <c r="N6" s="21" t="s">
+        <v>84</v>
+      </c>
+      <c r="O6" s="21">
+        <v>2</v>
+      </c>
+      <c r="P6" s="21">
         <f t="shared" si="0"/>
-        <v>4805</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="Q6" s="21">
+        <v>4</v>
+      </c>
+      <c r="R6" s="21">
+        <v>37</v>
+      </c>
+      <c r="S6" s="21">
+        <f t="shared" si="1"/>
+        <v>148</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="22">
         <v>43638</v>
       </c>
@@ -2576,18 +2754,39 @@
         <v>14</v>
       </c>
       <c r="I7" s="18">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1260</v>
       </c>
       <c r="J7" s="15" t="s">
         <v>29</v>
       </c>
       <c r="K7" s="15">
+        <f t="shared" si="2"/>
+        <v>6065</v>
+      </c>
+      <c r="M7" s="21"/>
+      <c r="N7" s="21" t="s">
+        <v>85</v>
+      </c>
+      <c r="O7" s="21">
+        <v>3</v>
+      </c>
+      <c r="P7" s="21">
         <f t="shared" si="0"/>
-        <v>6065</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+        <v>2</v>
+      </c>
+      <c r="Q7" s="21">
+        <v>6</v>
+      </c>
+      <c r="R7" s="21">
+        <v>37</v>
+      </c>
+      <c r="S7" s="21">
+        <f t="shared" si="1"/>
+        <v>222</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="23"/>
       <c r="B8" s="23"/>
       <c r="C8" s="23"/>
@@ -2605,11 +2804,32 @@
         <v>30</v>
       </c>
       <c r="K8" s="15">
+        <f t="shared" si="2"/>
+        <v>5963</v>
+      </c>
+      <c r="M8" s="21"/>
+      <c r="N8" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="O8" s="21">
+        <v>4</v>
+      </c>
+      <c r="P8" s="21">
         <f t="shared" si="0"/>
-        <v>5963</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+        <v>6</v>
+      </c>
+      <c r="Q8" s="21">
+        <v>24</v>
+      </c>
+      <c r="R8" s="21">
+        <v>37</v>
+      </c>
+      <c r="S8" s="21">
+        <f t="shared" si="1"/>
+        <v>888</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="23"/>
       <c r="B9" s="23"/>
       <c r="C9" s="23"/>
@@ -2627,11 +2847,32 @@
         <v>29</v>
       </c>
       <c r="K9" s="15">
+        <f t="shared" si="2"/>
+        <v>8963</v>
+      </c>
+      <c r="M9" s="21"/>
+      <c r="N9" s="21" t="s">
+        <v>83</v>
+      </c>
+      <c r="O9" s="21">
+        <v>5</v>
+      </c>
+      <c r="P9" s="21">
         <f t="shared" si="0"/>
-        <v>8963</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" s="43" customFormat="1" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+      <c r="Q9" s="21">
+        <v>15</v>
+      </c>
+      <c r="R9" s="21">
+        <v>37</v>
+      </c>
+      <c r="S9" s="21">
+        <f t="shared" si="1"/>
+        <v>555</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" s="43" customFormat="1">
       <c r="A10" s="24">
         <v>43667</v>
       </c>
@@ -2663,11 +2904,34 @@
         <v>29</v>
       </c>
       <c r="K10" s="15">
+        <f t="shared" si="2"/>
+        <v>9803</v>
+      </c>
+      <c r="M10" s="19">
+        <v>43891</v>
+      </c>
+      <c r="N10" s="21" t="s">
+        <v>87</v>
+      </c>
+      <c r="O10" s="21">
+        <v>2</v>
+      </c>
+      <c r="P10" s="21">
         <f t="shared" si="0"/>
-        <v>9803</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" s="43" customFormat="1" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="Q10" s="21">
+        <v>16</v>
+      </c>
+      <c r="R10" s="21">
+        <v>31</v>
+      </c>
+      <c r="S10" s="21">
+        <f t="shared" si="1"/>
+        <v>496</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" s="43" customFormat="1">
       <c r="A11" s="24">
         <v>43681</v>
       </c>
@@ -2699,11 +2963,32 @@
         <v>29</v>
       </c>
       <c r="K11" s="15">
+        <f t="shared" si="2"/>
+        <v>11483</v>
+      </c>
+      <c r="M11" s="21"/>
+      <c r="N11" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="O11" s="21">
+        <v>3</v>
+      </c>
+      <c r="P11" s="21">
         <f t="shared" si="0"/>
-        <v>11483</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="Q11" s="21">
+        <v>24</v>
+      </c>
+      <c r="R11" s="21">
+        <v>31</v>
+      </c>
+      <c r="S11" s="21">
+        <f t="shared" si="1"/>
+        <v>744</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="26">
         <v>43689</v>
       </c>
@@ -2723,11 +3008,32 @@
         <v>30</v>
       </c>
       <c r="K12" s="15">
+        <f t="shared" si="2"/>
+        <v>1483</v>
+      </c>
+      <c r="M12" s="21"/>
+      <c r="N12" s="21" t="s">
+        <v>82</v>
+      </c>
+      <c r="O12" s="21">
+        <v>4</v>
+      </c>
+      <c r="P12" s="21">
         <f t="shared" si="0"/>
-        <v>1483</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" s="43" customFormat="1" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+      <c r="Q12" s="21">
+        <v>32</v>
+      </c>
+      <c r="R12" s="21">
+        <v>31</v>
+      </c>
+      <c r="S12" s="21">
+        <f t="shared" si="1"/>
+        <v>992</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" s="43" customFormat="1">
       <c r="A13" s="24">
         <v>43705</v>
       </c>
@@ -2761,8 +3067,29 @@
       <c r="K13" s="17">
         <v>525</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" s="43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M13" s="21"/>
+      <c r="N13" s="21" t="s">
+        <v>89</v>
+      </c>
+      <c r="O13" s="21">
+        <v>5</v>
+      </c>
+      <c r="P13" s="21">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+      <c r="Q13" s="21">
+        <v>15</v>
+      </c>
+      <c r="R13" s="21">
+        <v>31</v>
+      </c>
+      <c r="S13" s="21">
+        <f t="shared" si="1"/>
+        <v>465</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" s="43" customFormat="1">
       <c r="A14" s="24">
         <v>43711</v>
       </c>
@@ -2796,8 +3123,31 @@
       <c r="K14" s="17">
         <v>630</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" s="43" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M14" s="19">
+        <v>43893</v>
+      </c>
+      <c r="N14" s="21" t="s">
+        <v>90</v>
+      </c>
+      <c r="O14" s="21">
+        <v>2</v>
+      </c>
+      <c r="P14" s="21">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="Q14" s="21">
+        <v>12</v>
+      </c>
+      <c r="R14" s="21">
+        <v>29</v>
+      </c>
+      <c r="S14" s="21">
+        <f t="shared" si="1"/>
+        <v>348</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" s="43" customFormat="1">
       <c r="A15" s="24">
         <v>43730</v>
       </c>
@@ -2831,8 +3181,29 @@
       <c r="K15" s="17">
         <v>420</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" s="48" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M15" s="21"/>
+      <c r="N15" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="O15" s="21">
+        <v>3</v>
+      </c>
+      <c r="P15" s="21">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="Q15" s="21">
+        <v>24</v>
+      </c>
+      <c r="R15" s="21">
+        <v>29</v>
+      </c>
+      <c r="S15" s="21">
+        <f t="shared" si="1"/>
+        <v>696</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" s="48" customFormat="1">
       <c r="A16" s="47">
         <v>43755</v>
       </c>
@@ -2856,8 +3227,29 @@
       <c r="K16" s="46">
         <v>1000</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" s="48" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="M16" s="21"/>
+      <c r="N16" s="21" t="s">
+        <v>86</v>
+      </c>
+      <c r="O16" s="21">
+        <v>4</v>
+      </c>
+      <c r="P16" s="21">
+        <f t="shared" si="0"/>
+        <v>6</v>
+      </c>
+      <c r="Q16" s="21">
+        <v>24</v>
+      </c>
+      <c r="R16" s="21">
+        <v>29</v>
+      </c>
+      <c r="S16" s="21">
+        <f t="shared" si="1"/>
+        <v>696</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" s="48" customFormat="1">
       <c r="A17" s="46"/>
       <c r="B17" s="46"/>
       <c r="C17" s="46"/>
@@ -2872,10 +3264,44 @@
         <f>SUM(K12:K16)</f>
         <v>4058</v>
       </c>
+      <c r="M17" s="21"/>
+      <c r="N17" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="O17" s="21">
+        <v>5</v>
+      </c>
+      <c r="P17" s="21">
+        <f t="shared" si="0"/>
+        <v>4</v>
+      </c>
+      <c r="Q17" s="21">
+        <v>20</v>
+      </c>
+      <c r="R17" s="21">
+        <v>29</v>
+      </c>
+      <c r="S17" s="21">
+        <f t="shared" si="1"/>
+        <v>580</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
+      <c r="M18" s="21"/>
+      <c r="N18" s="21"/>
+      <c r="O18" s="21"/>
+      <c r="P18" s="21"/>
+      <c r="Q18" s="21"/>
+      <c r="R18" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="S18" s="21">
+        <f>SUM(S2:S17)</f>
+        <v>10516</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
       <mx:PLV Mode="0" OnePage="0" WScale="0"/>
@@ -2892,9 +3318,9 @@
       <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="14" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:11" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="28">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
